--- a/dataset/2nd_data/kim/kim_env_detail_data.xlsx
+++ b/dataset/2nd_data/kim/kim_env_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR144"/>
+  <dimension ref="A1:BQ144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,30 +689,25 @@
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature_time</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
           <t>suitable_humidity_time</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>sunrise_diff</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>sunset_diff</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>suitable_temperature_diff_lowerbound</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>suitable_temperature_diff_upperbound</t>
         </is>
@@ -912,21 +907,18 @@
         <v>11.4276247030879</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.3166666666666667</v>
+        <v>8</v>
       </c>
       <c r="BN2" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.5</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="BP2" t="n">
-        <v>4.100000000000001</v>
+        <v>-19</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-19</v>
-      </c>
-      <c r="BR2" t="n">
         <v>-4.300000000000001</v>
       </c>
     </row>
@@ -1124,21 +1116,18 @@
         <v>18.51201923076923</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.7166666666666667</v>
+        <v>5.233333333333333</v>
       </c>
       <c r="BN3" t="n">
-        <v>5.233333333333333</v>
+        <v>0.6900000000000004</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.6900000000000004</v>
+        <v>4.609999999999999</v>
       </c>
       <c r="BP3" t="n">
-        <v>4.609999999999999</v>
+        <v>-21.19</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-21.19</v>
-      </c>
-      <c r="BR3" t="n">
         <v>2.390000000000001</v>
       </c>
     </row>
@@ -1336,21 +1325,18 @@
         <v>18.35757211538461</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.6166666666666667</v>
+        <v>5.116666666666666</v>
       </c>
       <c r="BN4" t="n">
-        <v>5.116666666666666</v>
+        <v>0.71</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.71</v>
+        <v>4.09</v>
       </c>
       <c r="BP4" t="n">
-        <v>4.09</v>
+        <v>-22</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-22</v>
-      </c>
-      <c r="BR4" t="n">
         <v>1.199999999999999</v>
       </c>
     </row>
@@ -1548,21 +1534,18 @@
         <v>22.34844124700241</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.5</v>
+        <v>1.45</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.45</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.100000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="BP5" t="n">
-        <v>5.6</v>
+        <v>-22.09</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-22.09</v>
-      </c>
-      <c r="BR5" t="n">
         <v>5.100000000000001</v>
       </c>
     </row>
@@ -1760,21 +1743,18 @@
         <v>22.82799522673032</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.5333333333333333</v>
+        <v>4.3</v>
       </c>
       <c r="BN6" t="n">
-        <v>4.3</v>
+        <v>0.7900000000000005</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.7900000000000005</v>
+        <v>7.1</v>
       </c>
       <c r="BP6" t="n">
-        <v>7.1</v>
+        <v>-20.69</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-20.69</v>
-      </c>
-      <c r="BR6" t="n">
         <v>5.289999999999999</v>
       </c>
     </row>
@@ -1972,21 +1952,18 @@
         <v>22.20889952153108</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.15</v>
+        <v>16.01666666666667</v>
       </c>
       <c r="BN7" t="n">
-        <v>16.01666666666667</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.4100000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="BP7" t="n">
-        <v>5.5</v>
+        <v>-16.4</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-16.4</v>
-      </c>
-      <c r="BR7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2184,21 +2161,18 @@
         <v>20.60149643705464</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.7333333333333333</v>
+        <v>16.21666666666667</v>
       </c>
       <c r="BN8" t="n">
-        <v>16.21666666666667</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.2000000000000002</v>
+        <v>2.59</v>
       </c>
       <c r="BP8" t="n">
-        <v>2.59</v>
+        <v>-13.71</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-13.71</v>
-      </c>
-      <c r="BR8" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -2396,21 +2370,18 @@
         <v>18.71512135922335</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.8833333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="BN9" t="n">
-        <v>7.5</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.6999999999999993</v>
+        <v>1.91</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.91</v>
+        <v>-10.7</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-10.7</v>
-      </c>
-      <c r="BR9" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2608,21 +2579,18 @@
         <v>13.38124087591243</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.4333333333333333</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="BN10" t="n">
-        <v>12.91666666666667</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.8900000000000006</v>
+        <v>-6.699999999999999</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-6.699999999999999</v>
-      </c>
-      <c r="BR10" t="n">
         <v>-6.210000000000001</v>
       </c>
     </row>
@@ -2820,21 +2788,18 @@
         <v>23.9923543689321</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.033333333333333</v>
+        <v>10.55</v>
       </c>
       <c r="BN11" t="n">
-        <v>10.55</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="BP11" t="n">
-        <v>4</v>
+        <v>-6.109999999999999</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-6.109999999999999</v>
-      </c>
-      <c r="BR11" t="n">
         <v>3.600000000000001</v>
       </c>
     </row>
@@ -3032,21 +2997,18 @@
         <v>20.82934782608699</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.2</v>
+        <v>9.066666666666666</v>
       </c>
       <c r="BN12" t="n">
-        <v>9.066666666666666</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.4100000000000001</v>
+        <v>2.59</v>
       </c>
       <c r="BP12" t="n">
-        <v>2.59</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-5.699999999999999</v>
-      </c>
-      <c r="BR12" t="n">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -3244,21 +3206,18 @@
         <v>23.29807692307694</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.6666666666666666</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="BN13" t="n">
-        <v>10.13333333333333</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.8900000000000006</v>
+        <v>3.789999999999999</v>
       </c>
       <c r="BP13" t="n">
-        <v>3.789999999999999</v>
+        <v>-5.9</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-5.9</v>
-      </c>
-      <c r="BR13" t="n">
         <v>7.590000000000003</v>
       </c>
     </row>
@@ -3456,21 +3415,18 @@
         <v>22.67834928229668</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.45</v>
+        <v>5.7</v>
       </c>
       <c r="BN14" t="n">
-        <v>5.7</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.1999999999999993</v>
+        <v>3.309999999999999</v>
       </c>
       <c r="BP14" t="n">
-        <v>3.309999999999999</v>
+        <v>-5.81</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-5.81</v>
-      </c>
-      <c r="BR14" t="n">
         <v>5.199999999999999</v>
       </c>
     </row>
@@ -3668,21 +3624,18 @@
         <v>23.42078758949884</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.6666666666666666</v>
+        <v>9.116666666666667</v>
       </c>
       <c r="BN15" t="n">
-        <v>9.116666666666667</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.5899999999999999</v>
+        <v>2.51</v>
       </c>
       <c r="BP15" t="n">
-        <v>2.51</v>
+        <v>-6.109999999999999</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-6.109999999999999</v>
-      </c>
-      <c r="BR15" t="n">
         <v>5.890000000000001</v>
       </c>
     </row>
@@ -3880,21 +3833,18 @@
         <v>21.27381418092912</v>
       </c>
       <c r="BM16" t="n">
-        <v>1.016666666666667</v>
+        <v>16.35</v>
       </c>
       <c r="BN16" t="n">
-        <v>16.35</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.9100000000000001</v>
+        <v>3.700000000000001</v>
       </c>
       <c r="BP16" t="n">
-        <v>3.700000000000001</v>
+        <v>-5.81</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-5.81</v>
-      </c>
-      <c r="BR16" t="n">
         <v>0.8900000000000006</v>
       </c>
     </row>
@@ -4092,21 +4042,18 @@
         <v>21.17655339805826</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.9333333333333333</v>
+        <v>9.966666666666667</v>
       </c>
       <c r="BN17" t="n">
-        <v>9.966666666666667</v>
+        <v>1</v>
       </c>
       <c r="BO17" t="n">
-        <v>1</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="BP17" t="n">
-        <v>2.200000000000001</v>
+        <v>-5.81</v>
       </c>
       <c r="BQ17" t="n">
-        <v>-5.81</v>
-      </c>
-      <c r="BR17" t="n">
         <v>5.289999999999999</v>
       </c>
     </row>
@@ -4304,21 +4251,18 @@
         <v>20.82016483516485</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.7166666666666667</v>
+        <v>6.966666666666667</v>
       </c>
       <c r="BN18" t="n">
-        <v>6.966666666666667</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.2000000000000011</v>
+        <v>2.31</v>
       </c>
       <c r="BP18" t="n">
-        <v>2.31</v>
+        <v>-5.81</v>
       </c>
       <c r="BQ18" t="n">
-        <v>-5.81</v>
-      </c>
-      <c r="BR18" t="n">
         <v>0.8900000000000006</v>
       </c>
     </row>
@@ -4516,21 +4460,18 @@
         <v>20.5631730769231</v>
       </c>
       <c r="BM19" t="n">
-        <v>1.416666666666667</v>
+        <v>8.316666666666666</v>
       </c>
       <c r="BN19" t="n">
-        <v>8.316666666666666</v>
+        <v>0.8899999999999988</v>
       </c>
       <c r="BO19" t="n">
-        <v>0.8899999999999988</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="BP19" t="n">
-        <v>4.399999999999999</v>
+        <v>-5.81</v>
       </c>
       <c r="BQ19" t="n">
-        <v>-5.81</v>
-      </c>
-      <c r="BR19" t="n">
         <v>2.789999999999999</v>
       </c>
     </row>
@@ -4728,21 +4669,18 @@
         <v>21.68902010050255</v>
       </c>
       <c r="BM20" t="n">
-        <v>1.55</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="BN20" t="n">
-        <v>4.266666666666667</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.2000000000000011</v>
+        <v>4.000000000000002</v>
       </c>
       <c r="BP20" t="n">
-        <v>4.000000000000002</v>
+        <v>-5.9</v>
       </c>
       <c r="BQ20" t="n">
-        <v>-5.9</v>
-      </c>
-      <c r="BR20" t="n">
         <v>4.100000000000001</v>
       </c>
     </row>
@@ -4940,21 +4878,18 @@
         <v>20.79676959619956</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.7666666666666667</v>
+        <v>17.36666666666667</v>
       </c>
       <c r="BN21" t="n">
-        <v>17.36666666666667</v>
+        <v>0.6100000000000012</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.6100000000000012</v>
+        <v>3.210000000000001</v>
       </c>
       <c r="BP21" t="n">
-        <v>3.210000000000001</v>
+        <v>-4.9</v>
       </c>
       <c r="BQ21" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="BR21" t="n">
         <v>1.199999999999999</v>
       </c>
     </row>
@@ -5152,21 +5087,18 @@
         <v>23.13171021377679</v>
       </c>
       <c r="BM22" t="n">
-        <v>1.1</v>
+        <v>16.25</v>
       </c>
       <c r="BN22" t="n">
-        <v>16.25</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BO22" t="n">
-        <v>0.2000000000000011</v>
+        <v>3.59</v>
       </c>
       <c r="BP22" t="n">
-        <v>3.59</v>
+        <v>-4.31</v>
       </c>
       <c r="BQ22" t="n">
-        <v>-4.31</v>
-      </c>
-      <c r="BR22" t="n">
         <v>4.390000000000001</v>
       </c>
     </row>
@@ -5364,21 +5296,18 @@
         <v>23.28879518072295</v>
       </c>
       <c r="BM23" t="n">
-        <v>0.9833333333333333</v>
+        <v>16.9</v>
       </c>
       <c r="BN23" t="n">
-        <v>16.9</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BO23" t="n">
-        <v>1.300000000000001</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BP23" t="n">
-        <v>3.300000000000001</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BQ23" t="n">
-        <v>-5.699999999999999</v>
-      </c>
-      <c r="BR23" t="n">
         <v>6.090000000000003</v>
       </c>
     </row>
@@ -5576,21 +5505,18 @@
         <v>24.75098795180733</v>
       </c>
       <c r="BM24" t="n">
-        <v>0.75</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="BN24" t="n">
-        <v>9.166666666666666</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO24" t="n">
-        <v>0.3000000000000007</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="BP24" t="n">
-        <v>5.699999999999999</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BQ24" t="n">
-        <v>-5.699999999999999</v>
-      </c>
-      <c r="BR24" t="n">
         <v>4.789999999999999</v>
       </c>
     </row>
@@ -5788,21 +5714,18 @@
         <v>22.66461346633423</v>
       </c>
       <c r="BM25" t="n">
-        <v>1.25</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="BN25" t="n">
-        <v>8.666666666666666</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BO25" t="n">
-        <v>0.2900000000000009</v>
+        <v>3.489999999999998</v>
       </c>
       <c r="BP25" t="n">
-        <v>3.489999999999998</v>
+        <v>-5.609999999999999</v>
       </c>
       <c r="BQ25" t="n">
-        <v>-5.609999999999999</v>
-      </c>
-      <c r="BR25" t="n">
         <v>0.6000000000000014</v>
       </c>
     </row>
@@ -6000,21 +5923,18 @@
         <v>13.03245700245702</v>
       </c>
       <c r="BM26" t="n">
-        <v>0</v>
+        <v>15.18333333333333</v>
       </c>
       <c r="BN26" t="n">
-        <v>15.18333333333333</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BO26" t="n">
-        <v>0.2900000000000009</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BP26" t="n">
-        <v>0.7999999999999989</v>
+        <v>-4.9</v>
       </c>
       <c r="BQ26" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="BR26" t="n">
         <v>-10.11</v>
       </c>
     </row>
@@ -6212,21 +6132,18 @@
         <v>20.85326190476193</v>
       </c>
       <c r="BM27" t="n">
-        <v>1.65</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="BN27" t="n">
-        <v>6.166666666666667</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="BO27" t="n">
-        <v>0.08999999999999986</v>
+        <v>3.109999999999999</v>
       </c>
       <c r="BP27" t="n">
-        <v>3.109999999999999</v>
+        <v>-5.199999999999999</v>
       </c>
       <c r="BQ27" t="n">
-        <v>-5.199999999999999</v>
-      </c>
-      <c r="BR27" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -6424,21 +6341,18 @@
         <v>24.13733966745854</v>
       </c>
       <c r="BM28" t="n">
-        <v>1.033333333333333</v>
+        <v>11</v>
       </c>
       <c r="BN28" t="n">
-        <v>11</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BO28" t="n">
-        <v>0.6999999999999993</v>
+        <v>4.290000000000001</v>
       </c>
       <c r="BP28" t="n">
-        <v>4.290000000000001</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BQ28" t="n">
-        <v>-5.699999999999999</v>
-      </c>
-      <c r="BR28" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -6636,21 +6550,18 @@
         <v>22.36218750000008</v>
       </c>
       <c r="BM29" t="n">
-        <v>1.166666666666667</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="BN29" t="n">
-        <v>13.66666666666667</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BO29" t="n">
-        <v>0.7999999999999989</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BP29" t="n">
-        <v>3.600000000000001</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BQ29" t="n">
-        <v>-5.699999999999999</v>
-      </c>
-      <c r="BR29" t="n">
         <v>2.789999999999999</v>
       </c>
     </row>
@@ -6848,21 +6759,18 @@
         <v>24.16099762470317</v>
       </c>
       <c r="BM30" t="n">
-        <v>4.266666666666667</v>
+        <v>4.216666666666667</v>
       </c>
       <c r="BN30" t="n">
-        <v>4.216666666666667</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="BO30" t="n">
-        <v>0.1899999999999995</v>
+        <v>1.899999999999999</v>
       </c>
       <c r="BP30" t="n">
-        <v>1.899999999999999</v>
+        <v>-1.109999999999999</v>
       </c>
       <c r="BQ30" t="n">
-        <v>-1.109999999999999</v>
-      </c>
-      <c r="BR30" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -7060,21 +6968,18 @@
         <v>19.76429594272079</v>
       </c>
       <c r="BM31" t="n">
-        <v>5.566666666666666</v>
+        <v>7.966666666666667</v>
       </c>
       <c r="BN31" t="n">
-        <v>7.966666666666667</v>
+        <v>0.9899999999999984</v>
       </c>
       <c r="BO31" t="n">
-        <v>0.9899999999999984</v>
+        <v>2.81</v>
       </c>
       <c r="BP31" t="n">
-        <v>2.81</v>
+        <v>-3.31</v>
       </c>
       <c r="BQ31" t="n">
-        <v>-3.31</v>
-      </c>
-      <c r="BR31" t="n">
         <v>-1.109999999999999</v>
       </c>
     </row>
@@ -7272,21 +7177,18 @@
         <v>22.87219806763293</v>
       </c>
       <c r="BM32" t="n">
-        <v>1.15</v>
+        <v>15.5</v>
       </c>
       <c r="BN32" t="n">
-        <v>15.5</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BO32" t="n">
-        <v>0.7999999999999989</v>
+        <v>3.710000000000001</v>
       </c>
       <c r="BP32" t="n">
-        <v>3.710000000000001</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BQ32" t="n">
-        <v>-5.699999999999999</v>
-      </c>
-      <c r="BR32" t="n">
         <v>0.3900000000000006</v>
       </c>
     </row>
@@ -7484,21 +7386,18 @@
         <v>20.47271428571435</v>
       </c>
       <c r="BM33" t="n">
-        <v>2.383333333333333</v>
+        <v>12.45</v>
       </c>
       <c r="BN33" t="n">
-        <v>12.45</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BO33" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BP33" t="n">
-        <v>0.8900000000000006</v>
+        <v>-3.4</v>
       </c>
       <c r="BQ33" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="BR33" t="n">
         <v>1.600000000000001</v>
       </c>
     </row>
@@ -7696,21 +7595,18 @@
         <v>21.11200000000008</v>
       </c>
       <c r="BM34" t="n">
-        <v>2.233333333333333</v>
+        <v>14.4</v>
       </c>
       <c r="BN34" t="n">
-        <v>14.4</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BO34" t="n">
-        <v>0.4000000000000004</v>
+        <v>1.69</v>
       </c>
       <c r="BP34" t="n">
-        <v>1.69</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ34" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="BR34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7908,21 +7804,18 @@
         <v>19.75376190476193</v>
       </c>
       <c r="BM35" t="n">
-        <v>0.9666666666666667</v>
+        <v>17.68333333333333</v>
       </c>
       <c r="BN35" t="n">
-        <v>17.68333333333333</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="BO35" t="n">
-        <v>0.1899999999999995</v>
+        <v>1.809999999999999</v>
       </c>
       <c r="BP35" t="n">
-        <v>1.809999999999999</v>
+        <v>-4.31</v>
       </c>
       <c r="BQ35" t="n">
-        <v>-4.31</v>
-      </c>
-      <c r="BR35" t="n">
         <v>-2.109999999999999</v>
       </c>
     </row>
@@ -8120,21 +8013,18 @@
         <v>22.83951923076929</v>
       </c>
       <c r="BM36" t="n">
-        <v>0.7833333333333333</v>
+        <v>15.75</v>
       </c>
       <c r="BN36" t="n">
-        <v>15.75</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO36" t="n">
-        <v>0.1999999999999993</v>
+        <v>2.4</v>
       </c>
       <c r="BP36" t="n">
-        <v>2.4</v>
+        <v>-5.4</v>
       </c>
       <c r="BQ36" t="n">
-        <v>-5.4</v>
-      </c>
-      <c r="BR36" t="n">
         <v>2.289999999999999</v>
       </c>
     </row>
@@ -8332,21 +8222,18 @@
         <v>23.17038004750601</v>
       </c>
       <c r="BM37" t="n">
-        <v>0.9166666666666666</v>
+        <v>14.05</v>
       </c>
       <c r="BN37" t="n">
-        <v>14.05</v>
+        <v>1.41</v>
       </c>
       <c r="BO37" t="n">
-        <v>1.41</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="BP37" t="n">
-        <v>1.710000000000001</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BQ37" t="n">
-        <v>-4.199999999999999</v>
-      </c>
-      <c r="BR37" t="n">
         <v>9.5</v>
       </c>
     </row>
@@ -8544,21 +8431,18 @@
         <v>22.38071258907369</v>
       </c>
       <c r="BM38" t="n">
-        <v>1.366666666666667</v>
+        <v>15.31666666666667</v>
       </c>
       <c r="BN38" t="n">
-        <v>15.31666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="BO38" t="n">
-        <v>0.5</v>
+        <v>3.310000000000002</v>
       </c>
       <c r="BP38" t="n">
-        <v>3.310000000000002</v>
+        <v>-4.699999999999999</v>
       </c>
       <c r="BQ38" t="n">
-        <v>-4.699999999999999</v>
-      </c>
-      <c r="BR38" t="n">
         <v>3.199999999999999</v>
       </c>
     </row>
@@ -8756,21 +8640,18 @@
         <v>24.06142517814732</v>
       </c>
       <c r="BM39" t="n">
-        <v>3.183333333333333</v>
+        <v>11.28333333333333</v>
       </c>
       <c r="BN39" t="n">
-        <v>11.28333333333333</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BO39" t="n">
-        <v>0.5899999999999999</v>
+        <v>1.810000000000002</v>
       </c>
       <c r="BP39" t="n">
-        <v>1.810000000000002</v>
+        <v>-4.9</v>
       </c>
       <c r="BQ39" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="BR39" t="n">
         <v>2.789999999999999</v>
       </c>
     </row>
@@ -8968,21 +8849,18 @@
         <v>24.97323671497589</v>
       </c>
       <c r="BM40" t="n">
-        <v>5.566666666666666</v>
+        <v>1.783333333333333</v>
       </c>
       <c r="BN40" t="n">
-        <v>1.783333333333333</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="BO40" t="n">
-        <v>0.5999999999999996</v>
+        <v>3.710000000000001</v>
       </c>
       <c r="BP40" t="n">
-        <v>3.710000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ40" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR40" t="n">
         <v>6.289999999999999</v>
       </c>
     </row>
@@ -9180,21 +9058,18 @@
         <v>20.83878172588837</v>
       </c>
       <c r="BM41" t="n">
-        <v>6.95</v>
+        <v>0</v>
       </c>
       <c r="BN41" t="n">
-        <v>0</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="BO41" t="n">
-        <v>0.1899999999999977</v>
+        <v>0.7100000000000009</v>
       </c>
       <c r="BP41" t="n">
-        <v>0.7100000000000009</v>
+        <v>0.5</v>
       </c>
       <c r="BQ41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BR41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9392,21 +9267,18 @@
         <v>20.69334916864611</v>
       </c>
       <c r="BM42" t="n">
-        <v>0.4833333333333333</v>
+        <v>6.733333333333333</v>
       </c>
       <c r="BN42" t="n">
-        <v>6.733333333333333</v>
+        <v>0.4100000000000019</v>
       </c>
       <c r="BO42" t="n">
-        <v>0.4100000000000019</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="BP42" t="n">
-        <v>1.800000000000001</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ42" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR42" t="n">
         <v>-1.300000000000001</v>
       </c>
     </row>
@@ -9604,21 +9476,18 @@
         <v>23.67659203980107</v>
       </c>
       <c r="BM43" t="n">
-        <v>3</v>
+        <v>9.533333333333333</v>
       </c>
       <c r="BN43" t="n">
-        <v>9.533333333333333</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BO43" t="n">
-        <v>0.5899999999999999</v>
+        <v>1.809999999999999</v>
       </c>
       <c r="BP43" t="n">
-        <v>1.809999999999999</v>
+        <v>-4.699999999999999</v>
       </c>
       <c r="BQ43" t="n">
-        <v>-4.699999999999999</v>
-      </c>
-      <c r="BR43" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -9816,21 +9685,18 @@
         <v>17.69717339667462</v>
       </c>
       <c r="BM44" t="n">
-        <v>3.716666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="BN44" t="n">
-        <v>6.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="BO44" t="n">
-        <v>0.5</v>
+        <v>1.19</v>
       </c>
       <c r="BP44" t="n">
-        <v>1.19</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="BQ44" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="BR44" t="n">
         <v>-5.109999999999999</v>
       </c>
     </row>
@@ -10028,21 +9894,18 @@
         <v>18.08414285714287</v>
       </c>
       <c r="BM45" t="n">
-        <v>2.933333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN45" t="n">
-        <v>0</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="BO45" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.8899999999999988</v>
       </c>
       <c r="BP45" t="n">
-        <v>0.8899999999999988</v>
+        <v>-1.31</v>
       </c>
       <c r="BQ45" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="BR45" t="n">
         <v>-3.899999999999999</v>
       </c>
     </row>
@@ -10240,21 +10103,18 @@
         <v>18.87969121140145</v>
       </c>
       <c r="BM46" t="n">
-        <v>1.616666666666667</v>
+        <v>2.516666666666667</v>
       </c>
       <c r="BN46" t="n">
-        <v>2.516666666666667</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO46" t="n">
-        <v>0.2999999999999989</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BP46" t="n">
-        <v>1.390000000000001</v>
+        <v>-2.699999999999999</v>
       </c>
       <c r="BQ46" t="n">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="BR46" t="n">
         <v>-0.8999999999999986</v>
       </c>
     </row>
@@ -10452,21 +10312,18 @@
         <v>15.25482185273163</v>
       </c>
       <c r="BM47" t="n">
-        <v>1.85</v>
+        <v>2.483333333333333</v>
       </c>
       <c r="BN47" t="n">
-        <v>2.483333333333333</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO47" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BP47" t="n">
-        <v>0.3100000000000005</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BQ47" t="n">
-        <v>-3.609999999999999</v>
-      </c>
-      <c r="BR47" t="n">
         <v>-6.5</v>
       </c>
     </row>
@@ -10664,21 +10521,18 @@
         <v>21.62928741092641</v>
       </c>
       <c r="BM48" t="n">
-        <v>1.966666666666667</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="BN48" t="n">
-        <v>2.616666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="BO48" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="BP48" t="n">
-        <v>2.5</v>
+        <v>-4.699999999999999</v>
       </c>
       <c r="BQ48" t="n">
-        <v>-4.699999999999999</v>
-      </c>
-      <c r="BR48" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -10876,21 +10730,18 @@
         <v>22.14202380952388</v>
       </c>
       <c r="BM49" t="n">
-        <v>1.333333333333333</v>
+        <v>2.516666666666667</v>
       </c>
       <c r="BN49" t="n">
-        <v>2.516666666666667</v>
+        <v>0.8100000000000005</v>
       </c>
       <c r="BO49" t="n">
-        <v>0.8100000000000005</v>
+        <v>3</v>
       </c>
       <c r="BP49" t="n">
-        <v>3</v>
+        <v>-5.31</v>
       </c>
       <c r="BQ49" t="n">
-        <v>-5.31</v>
-      </c>
-      <c r="BR49" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -11088,21 +10939,18 @@
         <v>21.66054761904764</v>
       </c>
       <c r="BM50" t="n">
-        <v>1.316666666666667</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="BN50" t="n">
-        <v>2.133333333333333</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BO50" t="n">
-        <v>0.6999999999999993</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BP50" t="n">
-        <v>2.600000000000001</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BQ50" t="n">
-        <v>-4.199999999999999</v>
-      </c>
-      <c r="BR50" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -11300,21 +11148,18 @@
         <v>24.18134939759043</v>
       </c>
       <c r="BM51" t="n">
-        <v>2.133333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="BN51" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BO51" t="n">
-        <v>0.3100000000000005</v>
+        <v>2.599999999999998</v>
       </c>
       <c r="BP51" t="n">
-        <v>2.599999999999998</v>
+        <v>-1.9</v>
       </c>
       <c r="BQ51" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="BR51" t="n">
         <v>11.4</v>
       </c>
     </row>
@@ -11512,21 +11357,18 @@
         <v>24.16503562945377</v>
       </c>
       <c r="BM52" t="n">
-        <v>2.566666666666667</v>
+        <v>1.783333333333333</v>
       </c>
       <c r="BN52" t="n">
-        <v>1.783333333333333</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BO52" t="n">
-        <v>0.4000000000000004</v>
+        <v>3.710000000000001</v>
       </c>
       <c r="BP52" t="n">
-        <v>3.710000000000001</v>
+        <v>-1.4</v>
       </c>
       <c r="BQ52" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="BR52" t="n">
         <v>0.8900000000000006</v>
       </c>
     </row>
@@ -11724,21 +11566,18 @@
         <v>22.7252696078432</v>
       </c>
       <c r="BM53" t="n">
-        <v>3.116666666666667</v>
+        <v>1.9</v>
       </c>
       <c r="BN53" t="n">
-        <v>1.9</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BO53" t="n">
-        <v>0.3900000000000006</v>
+        <v>2</v>
       </c>
       <c r="BP53" t="n">
-        <v>2</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ53" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR53" t="n">
         <v>0.2899999999999991</v>
       </c>
     </row>
@@ -11936,21 +11775,18 @@
         <v>23.22000000000007</v>
       </c>
       <c r="BM54" t="n">
-        <v>5.233333333333333</v>
+        <v>1.516666666666667</v>
       </c>
       <c r="BN54" t="n">
-        <v>1.516666666666667</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BO54" t="n">
-        <v>0.5899999999999999</v>
+        <v>1.190000000000001</v>
       </c>
       <c r="BP54" t="n">
-        <v>1.190000000000001</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="BQ54" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="BR54" t="n">
         <v>0.3900000000000006</v>
       </c>
     </row>
@@ -12148,21 +11984,18 @@
         <v>23.64463182897867</v>
       </c>
       <c r="BM55" t="n">
-        <v>4.416666666666667</v>
+        <v>2.783333333333333</v>
       </c>
       <c r="BN55" t="n">
-        <v>2.783333333333333</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="BO55" t="n">
-        <v>0.3100000000000023</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="BP55" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BQ55" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="BR55" t="n">
         <v>1.100000000000001</v>
       </c>
     </row>
@@ -12360,21 +12193,18 @@
         <v>24.6369833729217</v>
       </c>
       <c r="BM56" t="n">
-        <v>5.183333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="BN56" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7100000000000009</v>
       </c>
       <c r="BO56" t="n">
-        <v>0.7100000000000009</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BP56" t="n">
-        <v>2.890000000000001</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BQ56" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="BR56" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -12572,21 +12402,18 @@
         <v>24.8140722891567</v>
       </c>
       <c r="BM57" t="n">
-        <v>5.516666666666667</v>
+        <v>1.95</v>
       </c>
       <c r="BN57" t="n">
-        <v>1.95</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BO57" t="n">
-        <v>0.6000000000000014</v>
+        <v>2.310000000000002</v>
       </c>
       <c r="BP57" t="n">
-        <v>2.310000000000002</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ57" t="n">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BR57" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -12784,21 +12611,18 @@
         <v>23.61007575757583</v>
       </c>
       <c r="BM58" t="n">
-        <v>6.45</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="BN58" t="n">
-        <v>4.866666666666666</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="BO58" t="n">
-        <v>0.6099999999999994</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BP58" t="n">
-        <v>2.300000000000001</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BQ58" t="n">
-        <v>0.3900000000000006</v>
-      </c>
-      <c r="BR58" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -12996,21 +12820,18 @@
         <v>26.1120190023754</v>
       </c>
       <c r="BM59" t="n">
-        <v>3.3</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="BN59" t="n">
-        <v>1.466666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="BO59" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="BP59" t="n">
-        <v>2.5</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BQ59" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="BR59" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -13208,21 +13029,18 @@
         <v>25.66102137767228</v>
       </c>
       <c r="BM60" t="n">
-        <v>7.416666666666667</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="BN60" t="n">
-        <v>2.766666666666667</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BO60" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="BP60" t="n">
-        <v>0.8999999999999986</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BQ60" t="n">
-        <v>1.789999999999999</v>
-      </c>
-      <c r="BR60" t="n">
         <v>2.789999999999999</v>
       </c>
     </row>
@@ -13420,21 +13238,18 @@
         <v>19.94102137767226</v>
       </c>
       <c r="BM61" t="n">
-        <v>18.8</v>
+        <v>4.066666666666666</v>
       </c>
       <c r="BN61" t="n">
-        <v>4.066666666666666</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BO61" t="n">
-        <v>0.2899999999999991</v>
+        <v>1</v>
       </c>
       <c r="BP61" t="n">
-        <v>1</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ61" t="n">
-        <v>1.890000000000001</v>
-      </c>
-      <c r="BR61" t="n">
         <v>-0.6099999999999994</v>
       </c>
     </row>
@@ -13632,21 +13447,18 @@
         <v>16.86349168646084</v>
       </c>
       <c r="BM62" t="n">
-        <v>1.216666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN62" t="n">
-        <v>0</v>
+        <v>0.3099999999999987</v>
       </c>
       <c r="BO62" t="n">
-        <v>0.3099999999999987</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="BP62" t="n">
-        <v>0.5999999999999996</v>
+        <v>-1.109999999999999</v>
       </c>
       <c r="BQ62" t="n">
-        <v>-1.109999999999999</v>
-      </c>
-      <c r="BR62" t="n">
         <v>-7.609999999999999</v>
       </c>
     </row>
@@ -13844,21 +13656,18 @@
         <v>19.40356626506028</v>
       </c>
       <c r="BM63" t="n">
-        <v>2.683333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="BN63" t="n">
-        <v>2.333333333333333</v>
+        <v>0.1100000000000012</v>
       </c>
       <c r="BO63" t="n">
-        <v>0.1100000000000012</v>
+        <v>1.210000000000001</v>
       </c>
       <c r="BP63" t="n">
-        <v>1.210000000000001</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ63" t="n">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BR63" t="n">
         <v>-0.3000000000000007</v>
       </c>
     </row>
@@ -14056,21 +13865,18 @@
         <v>23.23681704260658</v>
       </c>
       <c r="BM64" t="n">
-        <v>1.383333333333333</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="BN64" t="n">
-        <v>2.983333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BO64" t="n">
-        <v>0.5</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="BP64" t="n">
-        <v>4.399999999999999</v>
+        <v>-2</v>
       </c>
       <c r="BQ64" t="n">
-        <v>-2</v>
-      </c>
-      <c r="BR64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14268,21 +14074,18 @@
         <v>21.29450000000003</v>
       </c>
       <c r="BM65" t="n">
-        <v>4.866666666666666</v>
+        <v>1.95</v>
       </c>
       <c r="BN65" t="n">
-        <v>1.95</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BO65" t="n">
-        <v>0.6999999999999993</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BP65" t="n">
-        <v>1.390000000000001</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BQ65" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="BR65" t="n">
         <v>-1.210000000000001</v>
       </c>
     </row>
@@ -14480,21 +14283,18 @@
         <v>24.61344578313263</v>
       </c>
       <c r="BM66" t="n">
-        <v>2.15</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="BN66" t="n">
-        <v>1.733333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BO66" t="n">
-        <v>0.5</v>
+        <v>2.810000000000002</v>
       </c>
       <c r="BP66" t="n">
-        <v>2.810000000000002</v>
+        <v>-1.81</v>
       </c>
       <c r="BQ66" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="BR66" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -14692,21 +14492,18 @@
         <v>24.74859857482188</v>
       </c>
       <c r="BM67" t="n">
-        <v>0.4833333333333333</v>
+        <v>1.45</v>
       </c>
       <c r="BN67" t="n">
-        <v>1.45</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BO67" t="n">
-        <v>0.3900000000000006</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BP67" t="n">
-        <v>0.6000000000000014</v>
+        <v>-1.5</v>
       </c>
       <c r="BQ67" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="BR67" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -14904,21 +14701,18 @@
         <v>24.69261904761913</v>
       </c>
       <c r="BM68" t="n">
-        <v>10.33333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BN68" t="n">
-        <v>1.5</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BO68" t="n">
-        <v>1.300000000000001</v>
+        <v>3</v>
       </c>
       <c r="BP68" t="n">
-        <v>3</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BQ68" t="n">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="BR68" t="n">
         <v>1.600000000000001</v>
       </c>
     </row>
@@ -15116,21 +14910,18 @@
         <v>24.61230403800485</v>
       </c>
       <c r="BM69" t="n">
-        <v>1.8</v>
+        <v>1.233333333333333</v>
       </c>
       <c r="BN69" t="n">
-        <v>1.233333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BO69" t="n">
-        <v>0.5</v>
+        <v>4.41</v>
       </c>
       <c r="BP69" t="n">
-        <v>4.41</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ69" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR69" t="n">
         <v>2.390000000000001</v>
       </c>
     </row>
@@ -15328,21 +15119,18 @@
         <v>20.81698337292163</v>
       </c>
       <c r="BM70" t="n">
-        <v>5.683333333333334</v>
+        <v>1.216666666666667</v>
       </c>
       <c r="BN70" t="n">
-        <v>1.216666666666667</v>
+        <v>1.09</v>
       </c>
       <c r="BO70" t="n">
-        <v>1.09</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BP70" t="n">
-        <v>1.399999999999999</v>
+        <v>-4.4</v>
       </c>
       <c r="BQ70" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="BR70" t="n">
         <v>-2.609999999999999</v>
       </c>
     </row>
@@ -15540,21 +15328,18 @@
         <v>17.68990498812354</v>
       </c>
       <c r="BM71" t="n">
-        <v>3.316666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN71" t="n">
-        <v>0</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO71" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BP71" t="n">
-        <v>0.7899999999999991</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ71" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR71" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -15752,21 +15537,18 @@
         <v>22.49966745843236</v>
       </c>
       <c r="BM72" t="n">
-        <v>3.333333333333333</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="BN72" t="n">
-        <v>3.016666666666667</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BO72" t="n">
-        <v>0.2900000000000009</v>
+        <v>2</v>
       </c>
       <c r="BP72" t="n">
-        <v>2</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BQ72" t="n">
-        <v>-2.609999999999999</v>
-      </c>
-      <c r="BR72" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -15964,21 +15746,18 @@
         <v>22.60855106888367</v>
       </c>
       <c r="BM73" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="BN73" t="n">
-        <v>1.6</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO73" t="n">
-        <v>0.3000000000000007</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BP73" t="n">
-        <v>2.789999999999999</v>
+        <v>-2</v>
       </c>
       <c r="BQ73" t="n">
-        <v>-2</v>
-      </c>
-      <c r="BR73" t="n">
         <v>-1.109999999999999</v>
       </c>
     </row>
@@ -16176,21 +15955,18 @@
         <v>24.03831353919248</v>
       </c>
       <c r="BM74" t="n">
-        <v>3.7</v>
+        <v>1.283333333333333</v>
       </c>
       <c r="BN74" t="n">
-        <v>1.283333333333333</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="BO74" t="n">
-        <v>0.1899999999999995</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="BP74" t="n">
-        <v>3.899999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ74" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR74" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -16388,21 +16164,18 @@
         <v>23.19910628019331</v>
       </c>
       <c r="BM75" t="n">
-        <v>3.116666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="BN75" t="n">
-        <v>0.95</v>
+        <v>0.3899999999999988</v>
       </c>
       <c r="BO75" t="n">
-        <v>0.3899999999999988</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BP75" t="n">
-        <v>1.399999999999999</v>
+        <v>-2</v>
       </c>
       <c r="BQ75" t="n">
-        <v>-2</v>
-      </c>
-      <c r="BR75" t="n">
         <v>-0.3999999999999986</v>
       </c>
     </row>
@@ -16600,21 +16373,18 @@
         <v>24.31430992736084</v>
       </c>
       <c r="BM76" t="n">
-        <v>3.716666666666667</v>
+        <v>1.483333333333333</v>
       </c>
       <c r="BN76" t="n">
-        <v>1.483333333333333</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO76" t="n">
-        <v>0.3000000000000007</v>
+        <v>1.5</v>
       </c>
       <c r="BP76" t="n">
-        <v>1.5</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ76" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR76" t="n">
         <v>0.6000000000000014</v>
       </c>
     </row>
@@ -16812,21 +16582,18 @@
         <v>28.40349168646094</v>
       </c>
       <c r="BM77" t="n">
-        <v>2.516666666666667</v>
+        <v>1.483333333333333</v>
       </c>
       <c r="BN77" t="n">
-        <v>1.483333333333333</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BO77" t="n">
-        <v>0.4000000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="BP77" t="n">
-        <v>5.5</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ77" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR77" t="n">
         <v>4.289999999999999</v>
       </c>
     </row>
@@ -17024,21 +16791,18 @@
         <v>26.66204275534453</v>
       </c>
       <c r="BM78" t="n">
-        <v>1.383333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="BN78" t="n">
-        <v>1.666666666666667</v>
+        <v>0.8100000000000005</v>
       </c>
       <c r="BO78" t="n">
-        <v>0.8100000000000005</v>
+        <v>4.289999999999999</v>
       </c>
       <c r="BP78" t="n">
-        <v>4.289999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ78" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR78" t="n">
         <v>4.789999999999999</v>
       </c>
     </row>
@@ -17236,21 +17000,18 @@
         <v>23.65002403846161</v>
       </c>
       <c r="BM79" t="n">
-        <v>4.6</v>
+        <v>0.3</v>
       </c>
       <c r="BN79" t="n">
-        <v>0.3</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="BO79" t="n">
-        <v>0.8999999999999986</v>
+        <v>1.190000000000001</v>
       </c>
       <c r="BP79" t="n">
-        <v>1.190000000000001</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BQ79" t="n">
-        <v>-0.8100000000000005</v>
-      </c>
-      <c r="BR79" t="n">
         <v>2.600000000000001</v>
       </c>
     </row>
@@ -17448,21 +17209,18 @@
         <v>18.09553444180524</v>
       </c>
       <c r="BM80" t="n">
-        <v>10.11666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN80" t="n">
-        <v>0</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO80" t="n">
-        <v>0.4100000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="BP80" t="n">
-        <v>1.1</v>
+        <v>-1.199999999999999</v>
       </c>
       <c r="BQ80" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="BR80" t="n">
         <v>-6.109999999999999</v>
       </c>
     </row>
@@ -17660,21 +17418,18 @@
         <v>20.9015513126492</v>
       </c>
       <c r="BM81" t="n">
-        <v>7.216666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN81" t="n">
-        <v>0</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BO81" t="n">
-        <v>0.2099999999999991</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BP81" t="n">
-        <v>2.289999999999999</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BQ81" t="n">
-        <v>-1.609999999999999</v>
-      </c>
-      <c r="BR81" t="n">
         <v>-1.300000000000001</v>
       </c>
     </row>
@@ -17872,21 +17627,18 @@
         <v>25.00988123515448</v>
       </c>
       <c r="BM82" t="n">
-        <v>2.366666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="BN82" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="BO82" t="n">
-        <v>1</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="BP82" t="n">
-        <v>5.300000000000001</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BQ82" t="n">
-        <v>-4.199999999999999</v>
-      </c>
-      <c r="BR82" t="n">
         <v>1.289999999999999</v>
       </c>
     </row>
@@ -18084,21 +17836,18 @@
         <v>24.6664370546319</v>
       </c>
       <c r="BM83" t="n">
-        <v>2.283333333333333</v>
+        <v>1.8</v>
       </c>
       <c r="BN83" t="n">
-        <v>1.8</v>
+        <v>1.19</v>
       </c>
       <c r="BO83" t="n">
-        <v>1.19</v>
+        <v>4.710000000000001</v>
       </c>
       <c r="BP83" t="n">
-        <v>4.710000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ83" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="BR83" t="n">
         <v>0.2899999999999991</v>
       </c>
     </row>
@@ -18296,21 +18045,18 @@
         <v>24.7381472684086</v>
       </c>
       <c r="BM84" t="n">
-        <v>2.4</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="BN84" t="n">
-        <v>5.333333333333333</v>
+        <v>1.110000000000001</v>
       </c>
       <c r="BO84" t="n">
-        <v>1.110000000000001</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BP84" t="n">
-        <v>2.289999999999999</v>
+        <v>-2.81</v>
       </c>
       <c r="BQ84" t="n">
-        <v>-2.81</v>
-      </c>
-      <c r="BR84" t="n">
         <v>1.600000000000001</v>
       </c>
     </row>
@@ -18508,21 +18254,18 @@
         <v>23.7831591448932</v>
       </c>
       <c r="BM85" t="n">
-        <v>1.283333333333333</v>
+        <v>1.35</v>
       </c>
       <c r="BN85" t="n">
-        <v>1.35</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="BO85" t="n">
-        <v>1.299999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="BP85" t="n">
-        <v>4.5</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ85" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18720,21 +18463,18 @@
         <v>25.21292161520196</v>
       </c>
       <c r="BM86" t="n">
-        <v>1.833333333333333</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="BN86" t="n">
-        <v>0.9833333333333333</v>
+        <v>1.610000000000001</v>
       </c>
       <c r="BO86" t="n">
-        <v>1.610000000000001</v>
+        <v>4.710000000000001</v>
       </c>
       <c r="BP86" t="n">
-        <v>4.710000000000001</v>
+        <v>-4.31</v>
       </c>
       <c r="BQ86" t="n">
-        <v>-4.31</v>
-      </c>
-      <c r="BR86" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -18932,21 +18672,18 @@
         <v>26.21838479809984</v>
       </c>
       <c r="BM87" t="n">
-        <v>4.05</v>
+        <v>6.533333333333333</v>
       </c>
       <c r="BN87" t="n">
-        <v>6.533333333333333</v>
+        <v>1.599999999999998</v>
       </c>
       <c r="BO87" t="n">
-        <v>1.599999999999998</v>
+        <v>5.710000000000001</v>
       </c>
       <c r="BP87" t="n">
-        <v>5.710000000000001</v>
+        <v>-1</v>
       </c>
       <c r="BQ87" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BR87" t="n">
         <v>1.789999999999999</v>
       </c>
     </row>
@@ -19144,21 +18881,18 @@
         <v>27.65885985748228</v>
       </c>
       <c r="BM88" t="n">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="BN88" t="n">
-        <v>3</v>
+        <v>1.689999999999998</v>
       </c>
       <c r="BO88" t="n">
-        <v>1.689999999999998</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="BP88" t="n">
-        <v>6.100000000000001</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ88" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="BR88" t="n">
         <v>6.399999999999999</v>
       </c>
     </row>
@@ -19356,21 +19090,18 @@
         <v>22.02738717339675</v>
       </c>
       <c r="BM89" t="n">
-        <v>10.86666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN89" t="n">
-        <v>0</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BO89" t="n">
-        <v>0.3999999999999986</v>
+        <v>1.690000000000001</v>
       </c>
       <c r="BP89" t="n">
-        <v>1.690000000000001</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BQ89" t="n">
-        <v>0.3900000000000006</v>
-      </c>
-      <c r="BR89" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19568,21 +19299,18 @@
         <v>21.18030878859862</v>
       </c>
       <c r="BM90" t="n">
-        <v>6.35</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="BN90" t="n">
-        <v>7.083333333333333</v>
+        <v>1.6</v>
       </c>
       <c r="BO90" t="n">
-        <v>1.6</v>
+        <v>3.41</v>
       </c>
       <c r="BP90" t="n">
-        <v>3.41</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ90" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR90" t="n">
         <v>-1.5</v>
       </c>
     </row>
@@ -19780,21 +19508,18 @@
         <v>23.52064133016638</v>
       </c>
       <c r="BM91" t="n">
-        <v>1.716666666666667</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="BN91" t="n">
-        <v>1.266666666666667</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BO91" t="n">
-        <v>1.700000000000001</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="BP91" t="n">
-        <v>2.609999999999999</v>
+        <v>-1.31</v>
       </c>
       <c r="BQ91" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="BR91" t="n">
         <v>0.3900000000000006</v>
       </c>
     </row>
@@ -19992,21 +19717,18 @@
         <v>25.20266033254164</v>
       </c>
       <c r="BM92" t="n">
-        <v>0.8833333333333333</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="BN92" t="n">
-        <v>3.016666666666667</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="BO92" t="n">
-        <v>2.200000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="BP92" t="n">
-        <v>3.91</v>
+        <v>-2.81</v>
       </c>
       <c r="BQ92" t="n">
-        <v>-2.81</v>
-      </c>
-      <c r="BR92" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -20204,21 +19926,18 @@
         <v>21.31596199524944</v>
       </c>
       <c r="BM93" t="n">
-        <v>16.78333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN93" t="n">
-        <v>0</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BO93" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BP93" t="n">
-        <v>0.7899999999999991</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ93" t="n">
-        <v>1.890000000000001</v>
-      </c>
-      <c r="BR93" t="n">
         <v>-3.609999999999999</v>
       </c>
     </row>
@@ -20416,21 +20135,18 @@
         <v>23.63339667458443</v>
       </c>
       <c r="BM94" t="n">
-        <v>11.51666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN94" t="n">
-        <v>0</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO94" t="n">
-        <v>0.1999999999999993</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="BP94" t="n">
-        <v>5.109999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="BQ94" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BR94" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20628,21 +20344,18 @@
         <v>24.52679334916874</v>
       </c>
       <c r="BM95" t="n">
-        <v>3.95</v>
+        <v>8.183333333333334</v>
       </c>
       <c r="BN95" t="n">
-        <v>8.183333333333334</v>
+        <v>2.51</v>
       </c>
       <c r="BO95" t="n">
-        <v>2.51</v>
+        <v>4.900000000000002</v>
       </c>
       <c r="BP95" t="n">
-        <v>4.900000000000002</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="BQ95" t="n">
-        <v>-0.3100000000000005</v>
-      </c>
-      <c r="BR95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20840,21 +20553,18 @@
         <v>23.86185273159154</v>
       </c>
       <c r="BM96" t="n">
-        <v>3.95</v>
+        <v>7.383333333333334</v>
       </c>
       <c r="BN96" t="n">
-        <v>7.383333333333334</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BO96" t="n">
-        <v>2.789999999999999</v>
+        <v>3.190000000000001</v>
       </c>
       <c r="BP96" t="n">
-        <v>3.190000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ96" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR96" t="n">
         <v>0.1000000000000014</v>
       </c>
     </row>
@@ -21052,21 +20762,18 @@
         <v>23.91211904761912</v>
       </c>
       <c r="BM97" t="n">
-        <v>4.083333333333333</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="BN97" t="n">
-        <v>7.833333333333333</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BO97" t="n">
-        <v>1.289999999999999</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BP97" t="n">
-        <v>3.890000000000001</v>
+        <v>-1.31</v>
       </c>
       <c r="BQ97" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="BR97" t="n">
         <v>-0.1099999999999994</v>
       </c>
     </row>
@@ -21264,21 +20971,18 @@
         <v>23.51522565320673</v>
       </c>
       <c r="BM98" t="n">
-        <v>1.966666666666667</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="BN98" t="n">
-        <v>2.233333333333333</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="BO98" t="n">
-        <v>0.5999999999999979</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="BP98" t="n">
-        <v>3.399999999999999</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BQ98" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="BR98" t="n">
         <v>-0.1099999999999994</v>
       </c>
     </row>
@@ -21476,21 +21180,18 @@
         <v>19.9597387173397</v>
       </c>
       <c r="BM99" t="n">
-        <v>10.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN99" t="n">
-        <v>0</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BO99" t="n">
-        <v>0.5899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="BP99" t="n">
-        <v>0.5</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BQ99" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="BR99" t="n">
         <v>-1.800000000000001</v>
       </c>
     </row>
@@ -21688,21 +21389,18 @@
         <v>23.31534441805234</v>
       </c>
       <c r="BM100" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="BN100" t="n">
-        <v>0</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BO100" t="n">
-        <v>0.3999999999999986</v>
+        <v>5.810000000000002</v>
       </c>
       <c r="BP100" t="n">
-        <v>5.810000000000002</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BQ100" t="n">
-        <v>-1.609999999999999</v>
-      </c>
-      <c r="BR100" t="n">
         <v>-0.3999999999999986</v>
       </c>
     </row>
@@ -21900,21 +21598,18 @@
         <v>26.76603325415687</v>
       </c>
       <c r="BM101" t="n">
-        <v>3.383333333333333</v>
+        <v>4.683333333333334</v>
       </c>
       <c r="BN101" t="n">
-        <v>4.683333333333334</v>
+        <v>0.8099999999999987</v>
       </c>
       <c r="BO101" t="n">
-        <v>0.8099999999999987</v>
+        <v>5.5</v>
       </c>
       <c r="BP101" t="n">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="BQ101" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BR101" t="n">
         <v>2.390000000000001</v>
       </c>
     </row>
@@ -22112,21 +21807,18 @@
         <v>27.66489311163902</v>
       </c>
       <c r="BM102" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="BN102" t="n">
-        <v>4</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BO102" t="n">
-        <v>3.890000000000001</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BP102" t="n">
-        <v>2.100000000000001</v>
+        <v>-2</v>
       </c>
       <c r="BQ102" t="n">
-        <v>-2</v>
-      </c>
-      <c r="BR102" t="n">
         <v>3.890000000000001</v>
       </c>
     </row>
@@ -22327,18 +22019,15 @@
         <v>0</v>
       </c>
       <c r="BN103" t="n">
-        <v>0</v>
+        <v>1.899999999999999</v>
       </c>
       <c r="BO103" t="n">
-        <v>1.899999999999999</v>
+        <v>0.6900000000000013</v>
       </c>
       <c r="BP103" t="n">
-        <v>0.6900000000000013</v>
+        <v>5.789999999999999</v>
       </c>
       <c r="BQ103" t="n">
-        <v>5.789999999999999</v>
-      </c>
-      <c r="BR103" t="n">
         <v>0.6000000000000014</v>
       </c>
     </row>
@@ -22539,18 +22228,15 @@
         <v>0</v>
       </c>
       <c r="BN104" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BO104" t="n">
-        <v>0.5</v>
+        <v>0.6900000000000013</v>
       </c>
       <c r="BP104" t="n">
-        <v>0.6900000000000013</v>
+        <v>6.289999999999999</v>
       </c>
       <c r="BQ104" t="n">
-        <v>6.289999999999999</v>
-      </c>
-      <c r="BR104" t="n">
         <v>2.289999999999999</v>
       </c>
     </row>
@@ -22748,21 +22434,18 @@
         <v>23.41591448931124</v>
       </c>
       <c r="BM105" t="n">
-        <v>0.2333333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN105" t="n">
-        <v>0</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO105" t="n">
-        <v>0.3000000000000007</v>
+        <v>2.210000000000001</v>
       </c>
       <c r="BP105" t="n">
-        <v>2.210000000000001</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BQ105" t="n">
-        <v>3.890000000000001</v>
-      </c>
-      <c r="BR105" t="n">
         <v>0.1000000000000014</v>
       </c>
     </row>
@@ -22960,21 +22643,18 @@
         <v>25.87748218527326</v>
       </c>
       <c r="BM106" t="n">
-        <v>8.1</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="BN106" t="n">
-        <v>5.916666666666667</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BO106" t="n">
-        <v>2.100000000000001</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="BP106" t="n">
-        <v>6.699999999999999</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="BQ106" t="n">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="BR106" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -23172,21 +22852,18 @@
         <v>23.80349168646089</v>
       </c>
       <c r="BM107" t="n">
-        <v>2.1</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="BN107" t="n">
-        <v>4.733333333333333</v>
+        <v>5.789999999999999</v>
       </c>
       <c r="BO107" t="n">
-        <v>5.789999999999999</v>
+        <v>7.289999999999999</v>
       </c>
       <c r="BP107" t="n">
-        <v>7.289999999999999</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ107" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="BR107" t="n">
         <v>0.8900000000000006</v>
       </c>
     </row>
@@ -23384,21 +23061,18 @@
         <v>25.4924703087887</v>
       </c>
       <c r="BM108" t="n">
-        <v>1.616666666666667</v>
+        <v>7.116666666666666</v>
       </c>
       <c r="BN108" t="n">
-        <v>7.116666666666666</v>
+        <v>5.710000000000001</v>
       </c>
       <c r="BO108" t="n">
-        <v>5.710000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="BP108" t="n">
-        <v>4.5</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BQ108" t="n">
-        <v>-3.609999999999999</v>
-      </c>
-      <c r="BR108" t="n">
         <v>2</v>
       </c>
     </row>
@@ -23596,21 +23270,18 @@
         <v>23.58268408551077</v>
       </c>
       <c r="BM109" t="n">
-        <v>3.416666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="BN109" t="n">
-        <v>0.65</v>
+        <v>3.51</v>
       </c>
       <c r="BO109" t="n">
-        <v>3.51</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BP109" t="n">
-        <v>1.399999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ109" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR109" t="n">
         <v>0.3900000000000006</v>
       </c>
     </row>
@@ -23808,21 +23479,18 @@
         <v>26.45076009501195</v>
       </c>
       <c r="BM110" t="n">
-        <v>8</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="BN110" t="n">
-        <v>3.133333333333333</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="BO110" t="n">
-        <v>0.6899999999999977</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="BP110" t="n">
-        <v>5.600000000000001</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BQ110" t="n">
-        <v>-2.609999999999999</v>
-      </c>
-      <c r="BR110" t="n">
         <v>3</v>
       </c>
     </row>
@@ -24020,21 +23688,18 @@
         <v>25.91285035629463</v>
       </c>
       <c r="BM111" t="n">
-        <v>2.166666666666667</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="BN111" t="n">
-        <v>0.7166666666666667</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="BO111" t="n">
-        <v>5.200000000000001</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="BP111" t="n">
-        <v>5.600000000000001</v>
+        <v>-5.31</v>
       </c>
       <c r="BQ111" t="n">
-        <v>-5.31</v>
-      </c>
-      <c r="BR111" t="n">
         <v>1.699999999999999</v>
       </c>
     </row>
@@ -24232,21 +23897,18 @@
         <v>26.47589073634215</v>
       </c>
       <c r="BM112" t="n">
-        <v>2.333333333333333</v>
+        <v>4.55</v>
       </c>
       <c r="BN112" t="n">
-        <v>4.55</v>
+        <v>6.109999999999999</v>
       </c>
       <c r="BO112" t="n">
-        <v>6.109999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="BP112" t="n">
-        <v>4.5</v>
+        <v>-4.609999999999999</v>
       </c>
       <c r="BQ112" t="n">
-        <v>-4.609999999999999</v>
-      </c>
-      <c r="BR112" t="n">
         <v>2.890000000000001</v>
       </c>
     </row>
@@ -24444,21 +24106,18 @@
         <v>30.23992574257444</v>
       </c>
       <c r="BM113" t="n">
-        <v>0.7</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="BN113" t="n">
-        <v>3.283333333333333</v>
+        <v>5.989999999999998</v>
       </c>
       <c r="BO113" t="n">
-        <v>5.989999999999998</v>
+        <v>6.5</v>
       </c>
       <c r="BP113" t="n">
-        <v>6.5</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BQ113" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="BR113" t="n">
         <v>6</v>
       </c>
     </row>
@@ -24656,21 +24315,18 @@
         <v>24.41567695962004</v>
       </c>
       <c r="BM114" t="n">
-        <v>4.516666666666667</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="BN114" t="n">
-        <v>0.3166666666666667</v>
+        <v>2</v>
       </c>
       <c r="BO114" t="n">
-        <v>2</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="BP114" t="n">
-        <v>2.609999999999999</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BQ114" t="n">
-        <v>0.3900000000000006</v>
-      </c>
-      <c r="BR114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24868,21 +24524,18 @@
         <v>29.26619952494072</v>
       </c>
       <c r="BM115" t="n">
-        <v>1.9</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="BN115" t="n">
-        <v>7.816666666666666</v>
+        <v>4.51</v>
       </c>
       <c r="BO115" t="n">
-        <v>4.51</v>
+        <v>3.91</v>
       </c>
       <c r="BP115" t="n">
-        <v>3.91</v>
+        <v>-1.81</v>
       </c>
       <c r="BQ115" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="BR115" t="n">
         <v>5.789999999999999</v>
       </c>
     </row>
@@ -25080,21 +24733,18 @@
         <v>27.90133016627088</v>
       </c>
       <c r="BM116" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BN116" t="n">
-        <v>0</v>
+        <v>2.710000000000001</v>
       </c>
       <c r="BO116" t="n">
-        <v>2.710000000000001</v>
+        <v>2</v>
       </c>
       <c r="BP116" t="n">
-        <v>2</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BQ116" t="n">
-        <v>1.390000000000001</v>
-      </c>
-      <c r="BR116" t="n">
         <v>4.100000000000001</v>
       </c>
     </row>
@@ -25292,21 +24942,18 @@
         <v>26.81377672209037</v>
       </c>
       <c r="BM117" t="n">
-        <v>1.683333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN117" t="n">
-        <v>0</v>
+        <v>1.189999999999998</v>
       </c>
       <c r="BO117" t="n">
-        <v>1.189999999999998</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="BP117" t="n">
-        <v>6.100000000000001</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="BQ117" t="n">
-        <v>-0.1099999999999994</v>
-      </c>
-      <c r="BR117" t="n">
         <v>2.390000000000001</v>
       </c>
     </row>
@@ -25504,21 +25151,18 @@
         <v>28.74921615201915</v>
       </c>
       <c r="BM118" t="n">
-        <v>2.383333333333333</v>
+        <v>7</v>
       </c>
       <c r="BN118" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="BO118" t="n">
-        <v>5.1</v>
+        <v>6.5</v>
       </c>
       <c r="BP118" t="n">
-        <v>6.5</v>
+        <v>-2.81</v>
       </c>
       <c r="BQ118" t="n">
-        <v>-2.81</v>
-      </c>
-      <c r="BR118" t="n">
         <v>4.100000000000001</v>
       </c>
     </row>
@@ -25716,21 +25360,18 @@
         <v>32.28292161520196</v>
       </c>
       <c r="BM119" t="n">
-        <v>1.466666666666667</v>
+        <v>2.483333333333333</v>
       </c>
       <c r="BN119" t="n">
-        <v>2.483333333333333</v>
+        <v>5.1</v>
       </c>
       <c r="BO119" t="n">
-        <v>5.1</v>
+        <v>8.400000000000002</v>
       </c>
       <c r="BP119" t="n">
-        <v>8.400000000000002</v>
+        <v>-1.31</v>
       </c>
       <c r="BQ119" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="BR119" t="n">
         <v>8.590000000000003</v>
       </c>
     </row>
@@ -25928,21 +25569,18 @@
         <v>32.30966745843246</v>
       </c>
       <c r="BM120" t="n">
-        <v>1.65</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="BN120" t="n">
-        <v>2.716666666666667</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="BO120" t="n">
-        <v>5.399999999999999</v>
+        <v>8</v>
       </c>
       <c r="BP120" t="n">
-        <v>8</v>
+        <v>-2.699999999999999</v>
       </c>
       <c r="BQ120" t="n">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="BR120" t="n">
         <v>8.200000000000003</v>
       </c>
     </row>
@@ -26140,21 +25778,18 @@
         <v>31.78002375296919</v>
       </c>
       <c r="BM121" t="n">
-        <v>2.25</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="BN121" t="n">
-        <v>2.233333333333333</v>
+        <v>4.790000000000001</v>
       </c>
       <c r="BO121" t="n">
-        <v>4.790000000000001</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="BP121" t="n">
-        <v>6.600000000000001</v>
+        <v>-1.9</v>
       </c>
       <c r="BQ121" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="BR121" t="n">
         <v>7.399999999999999</v>
       </c>
     </row>
@@ -26352,21 +25987,18 @@
         <v>27.68741092636593</v>
       </c>
       <c r="BM122" t="n">
-        <v>0.7666666666666667</v>
+        <v>6.2</v>
       </c>
       <c r="BN122" t="n">
-        <v>6.2</v>
+        <v>2.290000000000001</v>
       </c>
       <c r="BO122" t="n">
-        <v>2.290000000000001</v>
+        <v>3.099999999999998</v>
       </c>
       <c r="BP122" t="n">
-        <v>3.099999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ122" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR122" t="n">
         <v>4.890000000000001</v>
       </c>
     </row>
@@ -26564,21 +26196,18 @@
         <v>29.02294536817116</v>
       </c>
       <c r="BM123" t="n">
-        <v>8.85</v>
+        <v>3.55</v>
       </c>
       <c r="BN123" t="n">
-        <v>3.55</v>
+        <v>2.189999999999998</v>
       </c>
       <c r="BO123" t="n">
-        <v>2.189999999999998</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="BP123" t="n">
-        <v>5.100000000000001</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BQ123" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="BR123" t="n">
         <v>5.199999999999999</v>
       </c>
     </row>
@@ -26776,21 +26405,18 @@
         <v>30.2428028503564</v>
       </c>
       <c r="BM124" t="n">
-        <v>4.316666666666666</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="BN124" t="n">
-        <v>0.7833333333333333</v>
+        <v>2.210000000000001</v>
       </c>
       <c r="BO124" t="n">
-        <v>2.210000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="BP124" t="n">
-        <v>5.59</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BQ124" t="n">
-        <v>1.289999999999999</v>
-      </c>
-      <c r="BR124" t="n">
         <v>5.890000000000001</v>
       </c>
     </row>
@@ -26988,21 +26614,18 @@
         <v>30.50489311163907</v>
       </c>
       <c r="BM125" t="n">
-        <v>7.366666666666666</v>
+        <v>0</v>
       </c>
       <c r="BN125" t="n">
-        <v>0</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="BO125" t="n">
-        <v>0.9000000000000021</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="BP125" t="n">
-        <v>5.300000000000001</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BQ125" t="n">
-        <v>2.289999999999999</v>
-      </c>
-      <c r="BR125" t="n">
         <v>6.090000000000003</v>
       </c>
     </row>
@@ -27200,21 +26823,18 @@
         <v>28.52247030878871</v>
       </c>
       <c r="BM126" t="n">
-        <v>9.033333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO126" t="n">
-        <v>1</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BP126" t="n">
-        <v>3.890000000000001</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BQ126" t="n">
-        <v>2.289999999999999</v>
-      </c>
-      <c r="BR126" t="n">
         <v>4.699999999999999</v>
       </c>
     </row>
@@ -27412,21 +27032,18 @@
         <v>29.31007125890752</v>
       </c>
       <c r="BM127" t="n">
-        <v>1.133333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="BN127" t="n">
-        <v>0.4</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BO127" t="n">
-        <v>3.600000000000001</v>
+        <v>2.710000000000001</v>
       </c>
       <c r="BP127" t="n">
-        <v>2.710000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="BQ127" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BR127" t="n">
         <v>6.899999999999999</v>
       </c>
     </row>
@@ -27624,21 +27241,18 @@
         <v>26.33524940617596</v>
       </c>
       <c r="BM128" t="n">
-        <v>3.516666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN128" t="n">
-        <v>0</v>
+        <v>2.690000000000001</v>
       </c>
       <c r="BO128" t="n">
-        <v>2.690000000000001</v>
+        <v>1</v>
       </c>
       <c r="BP128" t="n">
-        <v>1</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="BQ128" t="n">
-        <v>3.199999999999999</v>
-      </c>
-      <c r="BR128" t="n">
         <v>3.100000000000001</v>
       </c>
     </row>
@@ -27836,21 +27450,18 @@
         <v>25.04985748218536</v>
       </c>
       <c r="BM129" t="n">
-        <v>1.866666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO129" t="n">
-        <v>1</v>
+        <v>4.59</v>
       </c>
       <c r="BP129" t="n">
-        <v>4.59</v>
+        <v>3.289999999999999</v>
       </c>
       <c r="BQ129" t="n">
-        <v>3.289999999999999</v>
-      </c>
-      <c r="BR129" t="n">
         <v>3</v>
       </c>
     </row>
@@ -28048,21 +27659,18 @@
         <v>26.0004513064134</v>
       </c>
       <c r="BM130" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="BN130" t="n">
-        <v>0</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BO130" t="n">
-        <v>0.8000000000000007</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="BP130" t="n">
-        <v>4.899999999999999</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BQ130" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="BR130" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -28260,21 +27868,18 @@
         <v>28.01214285714294</v>
       </c>
       <c r="BM131" t="n">
-        <v>0.9166666666666666</v>
+        <v>0</v>
       </c>
       <c r="BN131" t="n">
-        <v>0</v>
+        <v>2.309999999999999</v>
       </c>
       <c r="BO131" t="n">
-        <v>2.309999999999999</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BP131" t="n">
-        <v>3.100000000000001</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BQ131" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="BR131" t="n">
         <v>4.390000000000001</v>
       </c>
     </row>
@@ -28472,21 +28077,18 @@
         <v>29.91204275534452</v>
       </c>
       <c r="BM132" t="n">
-        <v>2.766666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN132" t="n">
-        <v>0</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="BO132" t="n">
-        <v>0.6899999999999977</v>
+        <v>4</v>
       </c>
       <c r="BP132" t="n">
-        <v>4</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="BQ132" t="n">
-        <v>3.699999999999999</v>
-      </c>
-      <c r="BR132" t="n">
         <v>6</v>
       </c>
     </row>
@@ -28684,21 +28286,18 @@
         <v>28.95624703087894</v>
       </c>
       <c r="BM133" t="n">
-        <v>5.65</v>
+        <v>2.95</v>
       </c>
       <c r="BN133" t="n">
-        <v>2.95</v>
+        <v>1.5</v>
       </c>
       <c r="BO133" t="n">
-        <v>1.5</v>
+        <v>4.400000000000002</v>
       </c>
       <c r="BP133" t="n">
-        <v>4.400000000000002</v>
+        <v>2.390000000000001</v>
       </c>
       <c r="BQ133" t="n">
-        <v>2.390000000000001</v>
-      </c>
-      <c r="BR133" t="n">
         <v>4.890000000000001</v>
       </c>
     </row>
@@ -28896,21 +28495,18 @@
         <v>29.75000000000014</v>
       </c>
       <c r="BM134" t="n">
-        <v>3.716666666666667</v>
+        <v>4.983333333333333</v>
       </c>
       <c r="BN134" t="n">
-        <v>4.983333333333333</v>
+        <v>2.9</v>
       </c>
       <c r="BO134" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="BP134" t="n">
-        <v>6.5</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BQ134" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="BR134" t="n">
         <v>5.789999999999999</v>
       </c>
     </row>
@@ -29108,21 +28704,18 @@
         <v>29.09743467933507</v>
       </c>
       <c r="BM135" t="n">
-        <v>3.116666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN135" t="n">
-        <v>0</v>
+        <v>2.599999999999998</v>
       </c>
       <c r="BO135" t="n">
-        <v>2.599999999999998</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BP135" t="n">
-        <v>3.300000000000001</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BQ135" t="n">
-        <v>0.3900000000000006</v>
-      </c>
-      <c r="BR135" t="n">
         <v>5.890000000000001</v>
       </c>
     </row>
@@ -29320,21 +28913,18 @@
         <v>30.35296912114028</v>
       </c>
       <c r="BM136" t="n">
-        <v>6.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN136" t="n">
-        <v>0</v>
+        <v>2.900000000000002</v>
       </c>
       <c r="BO136" t="n">
-        <v>2.900000000000002</v>
+        <v>4.699999999999999</v>
       </c>
       <c r="BP136" t="n">
-        <v>4.699999999999999</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BQ136" t="n">
-        <v>2.789999999999999</v>
-      </c>
-      <c r="BR136" t="n">
         <v>6.899999999999999</v>
       </c>
     </row>
@@ -29532,21 +29122,18 @@
         <v>24.92235154394307</v>
       </c>
       <c r="BM137" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="BN137" t="n">
-        <v>0</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="BO137" t="n">
-        <v>1.710000000000001</v>
+        <v>1.690000000000001</v>
       </c>
       <c r="BP137" t="n">
-        <v>1.690000000000001</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BQ137" t="n">
-        <v>1.289999999999999</v>
-      </c>
-      <c r="BR137" t="n">
         <v>-0.2100000000000009</v>
       </c>
     </row>
@@ -29744,21 +29331,18 @@
         <v>29.53275534441821</v>
       </c>
       <c r="BM138" t="n">
-        <v>7.733333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN138" t="n">
-        <v>0</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="BO138" t="n">
-        <v>1.800000000000001</v>
+        <v>4.809999999999999</v>
       </c>
       <c r="BP138" t="n">
-        <v>4.809999999999999</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BQ138" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="BR138" t="n">
         <v>6</v>
       </c>
     </row>
@@ -29956,21 +29540,18 @@
         <v>31.00387173396682</v>
       </c>
       <c r="BM139" t="n">
-        <v>3.633333333333333</v>
+        <v>4.366666666666666</v>
       </c>
       <c r="BN139" t="n">
-        <v>4.366666666666666</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="BO139" t="n">
-        <v>3.899999999999999</v>
+        <v>7.390000000000001</v>
       </c>
       <c r="BP139" t="n">
-        <v>7.390000000000001</v>
+        <v>0</v>
       </c>
       <c r="BQ139" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR139" t="n">
         <v>7</v>
       </c>
     </row>
@@ -30168,21 +29749,18 @@
         <v>30.00534441805238</v>
       </c>
       <c r="BM140" t="n">
-        <v>2.3</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="BN140" t="n">
-        <v>2.416666666666667</v>
+        <v>2.91</v>
       </c>
       <c r="BO140" t="n">
-        <v>2.91</v>
+        <v>4.289999999999999</v>
       </c>
       <c r="BP140" t="n">
-        <v>4.289999999999999</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="BQ140" t="n">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="BR140" t="n">
         <v>7.090000000000003</v>
       </c>
     </row>
@@ -30380,21 +29958,18 @@
         <v>28.65954869358679</v>
       </c>
       <c r="BM141" t="n">
-        <v>8.283333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="BN141" t="n">
-        <v>0.08333333333333333</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="BO141" t="n">
-        <v>1.710000000000001</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BP141" t="n">
-        <v>3.890000000000001</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ141" t="n">
-        <v>1.890000000000001</v>
-      </c>
-      <c r="BR141" t="n">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -30592,21 +30167,18 @@
         <v>31.71230403800491</v>
       </c>
       <c r="BM142" t="n">
-        <v>6.216666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN142" t="n">
-        <v>0</v>
+        <v>3.309999999999999</v>
       </c>
       <c r="BO142" t="n">
-        <v>3.309999999999999</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="BP142" t="n">
-        <v>5.600000000000001</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BQ142" t="n">
-        <v>1.390000000000001</v>
-      </c>
-      <c r="BR142" t="n">
         <v>7.090000000000003</v>
       </c>
     </row>
@@ -30804,21 +30376,18 @@
         <v>33.09332541567704</v>
       </c>
       <c r="BM143" t="n">
-        <v>2.65</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="BN143" t="n">
-        <v>2.966666666666667</v>
+        <v>2.809999999999999</v>
       </c>
       <c r="BO143" t="n">
-        <v>2.809999999999999</v>
+        <v>7.700000000000003</v>
       </c>
       <c r="BP143" t="n">
-        <v>7.700000000000003</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BQ143" t="n">
-        <v>0.3900000000000006</v>
-      </c>
-      <c r="BR143" t="n">
         <v>9</v>
       </c>
     </row>
@@ -31019,18 +30588,15 @@
         <v>0</v>
       </c>
       <c r="BN144" t="n">
-        <v>0</v>
+        <v>0.4000000000000021</v>
       </c>
       <c r="BO144" t="n">
-        <v>0.4000000000000021</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BP144" t="n">
-        <v>0.5899999999999999</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="BQ144" t="n">
-        <v>5.289999999999999</v>
-      </c>
-      <c r="BR144" t="n">
         <v>1</v>
       </c>
     </row>

--- a/dataset/2nd_data/kim/kim_env_detail_data.xlsx
+++ b/dataset/2nd_data/kim/kim_env_detail_data.xlsx
@@ -384,332 +384,332 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)</t>
+          <t>이슬점(Td)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>증산(HD)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure</t>
+          <t>대기압</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pws</t>
+          <t>PWS(?)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)</t>
+          <t>수분량</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)</t>
+          <t>엔탈피</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)</t>
+          <t>비부피</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)</t>
+          <t>밀도</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor</t>
+          <t>PW(?)수증기</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)</t>
+          <t>절대습도</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH</t>
+          <t>절대AH(?)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>실내온도_std</t>
+          <t>실내온도표준편차</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>실내습도_std</t>
+          <t>실내습도표준편차</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)_std</t>
+          <t>이슬점(Td)표준편차</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>HD_std</t>
+          <t>증산(HD)표준편차</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure_std</t>
+          <t>대기압표준편차</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>pws_std</t>
+          <t>PWS(?)표준편차</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)_std</t>
+          <t>수분량표준편차</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)_std</t>
+          <t>엔탈피표준편차</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)_std</t>
+          <t>비부피표준편차</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)_std</t>
+          <t>밀도표준편차</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor_std</t>
+          <t>PW(?)수증기표준편차</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)_std</t>
+          <t>절대습도표준편차</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH_std</t>
+          <t>절대AH(?)표준편차</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>실내온도_min</t>
+          <t>최소실내온도</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>실내습도_min</t>
+          <t>최소실내습도</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)_min</t>
+          <t>최소이슬점(Td)</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>HD_min</t>
+          <t>최소증산(HD)</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure_min</t>
+          <t>최소대기압</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>pws_min</t>
+          <t>최소PWS(?)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)_min</t>
+          <t>최소수분량</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)_min</t>
+          <t>최소엔탈피</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)_min</t>
+          <t>최소비부피</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)_min</t>
+          <t>최소밀도</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor_min</t>
+          <t>최소PW(?)수증기</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)_min</t>
+          <t>최소절대습도</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH_min</t>
+          <t>최소절대AH(?)</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>실내온도_max</t>
+          <t>최대실내온도</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>실내습도_max</t>
+          <t>최대실내습도</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)_max</t>
+          <t>최대이슬점(Td)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>HD_max</t>
+          <t>최대증산(HD)</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure_max</t>
+          <t>최대대기압</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>pws_max</t>
+          <t>최대PWS(?)</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)_max</t>
+          <t>최대수분량</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)_max</t>
+          <t>최대엔탈피</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)_max</t>
+          <t>최대비부피</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)_max</t>
+          <t>최대밀도</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor_max</t>
+          <t>최대PW(?)수증기</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)_max</t>
+          <t>최대절대습도</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH_max</t>
+          <t>최대절대AH(?)</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>am_suitable_HD</t>
+          <t>오전적정증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>sun_suitable_HD</t>
+          <t>일출일몰적정증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>day_suitable_HD</t>
+          <t>하루적정증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>pm_unsuitable_HD</t>
+          <t>오후심각증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>am_unsuitable_HD</t>
+          <t>오전심각증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>low_temperature</t>
+          <t>12도이하온도누적시간</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>high_temperature</t>
+          <t>30도이상온도누적시간</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature</t>
+          <t>적정온도누적시간</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>daytime_temperature</t>
+          <t>주간평균온도</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>nighttime_temperature</t>
+          <t>야간평균온도</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>afternoon_temperature</t>
+          <t>오후부터일몰까지평균온도</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>suitable_humidity_time</t>
+          <t>적정습도누적시간</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>sunrise_diff</t>
+          <t>일출전후한시간평균온도</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>sunset_diff</t>
+          <t>일몰전후한시간평균온도</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature_diff_lowerbound</t>
+          <t>적정온도변화폭(하위)</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature_diff_upperbound</t>
+          <t>적정온도변화폭(상위)</t>
         </is>
       </c>
     </row>

--- a/dataset/2nd_data/kim/kim_env_detail_data.xlsx
+++ b/dataset/2nd_data/kim/kim_env_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ144"/>
+  <dimension ref="A1:BS143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,37 +679,47 @@
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>야간평균온도</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
           <t>오후부터일몰까지평균온도</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>적정습도누적시간</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>일출전후한시간평균온도</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>일몰전후한시간평균온도</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>적정온도변화폭(하위)</t>
         </is>
       </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>적정온도변화폭(상위)</t>
+        </is>
+      </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>적정온도변화폭(상위)</t>
+          <t>야간평균온도</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>일몰일출적합증산(HD)누적시간</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>주야간온도차이</t>
         </is>
       </c>
     </row>
@@ -901,25 +911,31 @@
         <v>8.334750320102449</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.105487804878053</v>
+        <v>11.4276247030879</v>
       </c>
       <c r="BL2" t="n">
-        <v>11.4276247030879</v>
+        <v>8</v>
       </c>
       <c r="BM2" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.5</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="BO2" t="n">
-        <v>4.100000000000001</v>
+        <v>-19</v>
       </c>
       <c r="BP2" t="n">
-        <v>-19</v>
+        <v>-4.300000000000001</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-4.300000000000001</v>
+        <v>-2.427071320182099</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>10.76182164028455</v>
       </c>
     </row>
     <row r="3">
@@ -1110,25 +1126,31 @@
         <v>11.16252263906859</v>
       </c>
       <c r="BK3" t="n">
-        <v>-2.160138674884435</v>
+        <v>18.51201923076923</v>
       </c>
       <c r="BL3" t="n">
-        <v>18.51201923076923</v>
+        <v>5.233333333333333</v>
       </c>
       <c r="BM3" t="n">
-        <v>5.233333333333333</v>
+        <v>0.6900000000000004</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.6900000000000004</v>
+        <v>4.609999999999999</v>
       </c>
       <c r="BO3" t="n">
-        <v>4.609999999999999</v>
+        <v>-21.19</v>
       </c>
       <c r="BP3" t="n">
-        <v>-21.19</v>
+        <v>2.390000000000001</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.390000000000001</v>
+        <v>-2.32647149460709</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>13.48899413367568</v>
       </c>
     </row>
     <row r="4">
@@ -1319,25 +1341,31 @@
         <v>11.50260025873224</v>
       </c>
       <c r="BK4" t="n">
-        <v>-1.792852760736198</v>
+        <v>18.35757211538461</v>
       </c>
       <c r="BL4" t="n">
-        <v>18.35757211538461</v>
+        <v>5.116666666666666</v>
       </c>
       <c r="BM4" t="n">
-        <v>5.116666666666666</v>
+        <v>0.71</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.71</v>
+        <v>4.09</v>
       </c>
       <c r="BO4" t="n">
-        <v>4.09</v>
+        <v>-22</v>
       </c>
       <c r="BP4" t="n">
-        <v>-22</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.199999999999999</v>
+        <v>-1.978619631901839</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>13.48121989063408</v>
       </c>
     </row>
     <row r="5">
@@ -1528,25 +1556,31 @@
         <v>13.68239382239385</v>
       </c>
       <c r="BK5" t="n">
-        <v>-1.86</v>
+        <v>22.34844124700241</v>
       </c>
       <c r="BL5" t="n">
-        <v>22.34844124700241</v>
+        <v>1.45</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.45</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.100000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="BO5" t="n">
-        <v>5.6</v>
+        <v>-22.09</v>
       </c>
       <c r="BP5" t="n">
-        <v>-22.09</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="BQ5" t="n">
-        <v>5.100000000000001</v>
+        <v>-1.157663125948406</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>14.84005694834225</v>
       </c>
     </row>
     <row r="6">
@@ -1737,25 +1771,31 @@
         <v>14.25640926640929</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0.9903369065849938</v>
+        <v>22.82799522673032</v>
       </c>
       <c r="BL6" t="n">
-        <v>22.82799522673032</v>
+        <v>4.3</v>
       </c>
       <c r="BM6" t="n">
-        <v>4.3</v>
+        <v>0.7900000000000005</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.7900000000000005</v>
+        <v>7.1</v>
       </c>
       <c r="BO6" t="n">
-        <v>7.1</v>
+        <v>-20.69</v>
       </c>
       <c r="BP6" t="n">
-        <v>-20.69</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="BQ6" t="n">
-        <v>5.289999999999999</v>
+        <v>1.575548686244205</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>12.68086058016509</v>
       </c>
     </row>
     <row r="7">
@@ -1946,25 +1986,31 @@
         <v>15.43133676092546</v>
       </c>
       <c r="BK7" t="n">
-        <v>3.175457364341082</v>
+        <v>22.20889952153108</v>
       </c>
       <c r="BL7" t="n">
-        <v>22.20889952153108</v>
+        <v>16.01666666666667</v>
       </c>
       <c r="BM7" t="n">
-        <v>16.01666666666667</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.4100000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="BO7" t="n">
-        <v>5.5</v>
+        <v>-16.4</v>
       </c>
       <c r="BP7" t="n">
-        <v>-16.4</v>
+        <v>6</v>
       </c>
       <c r="BQ7" t="n">
-        <v>6</v>
+        <v>3.972179289026276</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>11.45915747189918</v>
       </c>
     </row>
     <row r="8">
@@ -2155,25 +2201,31 @@
         <v>15.18254172015408</v>
       </c>
       <c r="BK8" t="n">
-        <v>6.345482388973983</v>
+        <v>20.60149643705464</v>
       </c>
       <c r="BL8" t="n">
-        <v>20.60149643705464</v>
+        <v>16.21666666666667</v>
       </c>
       <c r="BM8" t="n">
-        <v>16.21666666666667</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.2000000000000002</v>
+        <v>2.59</v>
       </c>
       <c r="BO8" t="n">
-        <v>2.59</v>
+        <v>-13.71</v>
       </c>
       <c r="BP8" t="n">
-        <v>-13.71</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ8" t="n">
-        <v>1.890000000000001</v>
+        <v>10.11292048929668</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>5.069621230857404</v>
       </c>
     </row>
     <row r="9">
@@ -2364,25 +2416,31 @@
         <v>15.47910273081928</v>
       </c>
       <c r="BK9" t="n">
-        <v>10.49349693251537</v>
+        <v>18.71512135922335</v>
       </c>
       <c r="BL9" t="n">
-        <v>18.71512135922335</v>
+        <v>7.5</v>
       </c>
       <c r="BM9" t="n">
-        <v>7.5</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.6999999999999993</v>
+        <v>1.91</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.91</v>
+        <v>-10.7</v>
       </c>
       <c r="BP9" t="n">
-        <v>-10.7</v>
+        <v>1.5</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1.5</v>
+        <v>10.84946070878277</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>4.62964202203651</v>
       </c>
     </row>
     <row r="10">
@@ -2573,25 +2631,31 @@
         <v>11.78835278858628</v>
       </c>
       <c r="BK10" t="n">
-        <v>11.01266462480863</v>
+        <v>13.38124087591243</v>
       </c>
       <c r="BL10" t="n">
-        <v>13.38124087591243</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="BM10" t="n">
-        <v>12.91666666666667</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.8900000000000006</v>
+        <v>-6.699999999999999</v>
       </c>
       <c r="BP10" t="n">
-        <v>-6.699999999999999</v>
+        <v>-6.210000000000001</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-6.210000000000001</v>
+        <v>11.24687975646885</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.5414730321174268</v>
       </c>
     </row>
     <row r="11">
@@ -2782,25 +2846,31 @@
         <v>18.60528497409339</v>
       </c>
       <c r="BK11" t="n">
-        <v>11.37984779299853</v>
+        <v>23.9923543689321</v>
       </c>
       <c r="BL11" t="n">
-        <v>23.9923543689321</v>
+        <v>10.55</v>
       </c>
       <c r="BM11" t="n">
-        <v>10.55</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="BO11" t="n">
-        <v>4</v>
+        <v>-6.109999999999999</v>
       </c>
       <c r="BP11" t="n">
-        <v>-6.109999999999999</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BQ11" t="n">
-        <v>3.600000000000001</v>
+        <v>11.31098310291867</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>7.294301871174723</v>
       </c>
     </row>
     <row r="12">
@@ -2991,25 +3061,31 @@
         <v>18.05946959896514</v>
       </c>
       <c r="BK12" t="n">
-        <v>11.48454545454547</v>
+        <v>20.82934782608699</v>
       </c>
       <c r="BL12" t="n">
-        <v>20.82934782608699</v>
+        <v>9.066666666666666</v>
       </c>
       <c r="BM12" t="n">
-        <v>9.066666666666666</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.4100000000000001</v>
+        <v>2.59</v>
       </c>
       <c r="BO12" t="n">
-        <v>2.59</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BP12" t="n">
-        <v>-5.699999999999999</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="BQ12" t="n">
-        <v>4.600000000000001</v>
+        <v>11.32292237442926</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>6.736547224535876</v>
       </c>
     </row>
     <row r="13">
@@ -3200,25 +3276,31 @@
         <v>19.70231958762894</v>
       </c>
       <c r="BK13" t="n">
-        <v>11.26117557251913</v>
+        <v>23.29807692307694</v>
       </c>
       <c r="BL13" t="n">
-        <v>23.29807692307694</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="BM13" t="n">
-        <v>10.13333333333333</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.8900000000000006</v>
+        <v>3.789999999999999</v>
       </c>
       <c r="BO13" t="n">
-        <v>3.789999999999999</v>
+        <v>-5.9</v>
       </c>
       <c r="BP13" t="n">
-        <v>-5.9</v>
+        <v>7.590000000000003</v>
       </c>
       <c r="BQ13" t="n">
-        <v>7.590000000000003</v>
+        <v>11.23845801526728</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>10.91666666666667</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>8.463861572361656</v>
       </c>
     </row>
     <row r="14">
@@ -3409,25 +3491,31 @@
         <v>19.4861190168177</v>
       </c>
       <c r="BK14" t="n">
-        <v>11.34913580246919</v>
+        <v>22.67834928229668</v>
       </c>
       <c r="BL14" t="n">
-        <v>22.67834928229668</v>
+        <v>5.7</v>
       </c>
       <c r="BM14" t="n">
-        <v>5.7</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.1999999999999993</v>
+        <v>3.309999999999999</v>
       </c>
       <c r="BO14" t="n">
-        <v>3.309999999999999</v>
+        <v>-5.81</v>
       </c>
       <c r="BP14" t="n">
-        <v>-5.81</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="BQ14" t="n">
-        <v>5.199999999999999</v>
+        <v>11.29460218408742</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>10.68333333333333</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>8.191516832730272</v>
       </c>
     </row>
     <row r="15">
@@ -3618,25 +3706,31 @@
         <v>19.3576379974327</v>
       </c>
       <c r="BK15" t="n">
-        <v>11.65812018489988</v>
+        <v>23.42078758949884</v>
       </c>
       <c r="BL15" t="n">
-        <v>23.42078758949884</v>
+        <v>9.116666666666667</v>
       </c>
       <c r="BM15" t="n">
-        <v>9.116666666666667</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.5899999999999999</v>
+        <v>2.51</v>
       </c>
       <c r="BO15" t="n">
-        <v>2.51</v>
+        <v>-6.109999999999999</v>
       </c>
       <c r="BP15" t="n">
-        <v>-6.109999999999999</v>
+        <v>5.890000000000001</v>
       </c>
       <c r="BQ15" t="n">
-        <v>5.890000000000001</v>
+        <v>11.8284316770187</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>10.73333333333333</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>7.529206320413994</v>
       </c>
     </row>
     <row r="16">
@@ -3827,25 +3921,31 @@
         <v>17.56976408912197</v>
       </c>
       <c r="BK16" t="n">
-        <v>11.1360436137072</v>
+        <v>21.27381418092912</v>
       </c>
       <c r="BL16" t="n">
-        <v>21.27381418092912</v>
+        <v>16.35</v>
       </c>
       <c r="BM16" t="n">
-        <v>16.35</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.9100000000000001</v>
+        <v>3.700000000000001</v>
       </c>
       <c r="BO16" t="n">
-        <v>3.700000000000001</v>
+        <v>-5.81</v>
       </c>
       <c r="BP16" t="n">
-        <v>-5.81</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.8900000000000006</v>
+        <v>10.99498412698419</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>6.574779962137775</v>
       </c>
     </row>
     <row r="17">
@@ -4036,25 +4136,31 @@
         <v>19.04895013123371</v>
       </c>
       <c r="BK17" t="n">
-        <v>11.39346581875998</v>
+        <v>21.17655339805826</v>
       </c>
       <c r="BL17" t="n">
-        <v>21.17655339805826</v>
+        <v>9.966666666666667</v>
       </c>
       <c r="BM17" t="n">
-        <v>9.966666666666667</v>
+        <v>1</v>
       </c>
       <c r="BN17" t="n">
-        <v>1</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="BO17" t="n">
-        <v>2.200000000000001</v>
+        <v>-5.81</v>
       </c>
       <c r="BP17" t="n">
-        <v>-5.81</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="BQ17" t="n">
-        <v>5.289999999999999</v>
+        <v>11.47134259259265</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>7.577607538641058</v>
       </c>
     </row>
     <row r="18">
@@ -4245,25 +4351,31 @@
         <v>18.06838664812251</v>
       </c>
       <c r="BK18" t="n">
-        <v>11.73741140215723</v>
+        <v>20.82016483516485</v>
       </c>
       <c r="BL18" t="n">
-        <v>20.82016483516485</v>
+        <v>6.966666666666667</v>
       </c>
       <c r="BM18" t="n">
-        <v>6.966666666666667</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.2000000000000011</v>
+        <v>2.31</v>
       </c>
       <c r="BO18" t="n">
-        <v>2.31</v>
+        <v>-5.81</v>
       </c>
       <c r="BP18" t="n">
-        <v>-5.81</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.8900000000000006</v>
+        <v>11.73474025974033</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>10.26666666666667</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>6.333646388382181</v>
       </c>
     </row>
     <row r="19">
@@ -4454,25 +4566,31 @@
         <v>17.8012516469039</v>
       </c>
       <c r="BK19" t="n">
-        <v>10.97191247974072</v>
+        <v>20.5631730769231</v>
       </c>
       <c r="BL19" t="n">
-        <v>20.5631730769231</v>
+        <v>8.316666666666666</v>
       </c>
       <c r="BM19" t="n">
-        <v>8.316666666666666</v>
+        <v>0.8899999999999988</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.8899999999999988</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="BO19" t="n">
-        <v>4.399999999999999</v>
+        <v>-5.81</v>
       </c>
       <c r="BP19" t="n">
-        <v>-5.81</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BQ19" t="n">
-        <v>2.789999999999999</v>
+        <v>10.89696456086293</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>10.81666666666667</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>6.904287086040968</v>
       </c>
     </row>
     <row r="20">
@@ -4663,25 +4781,31 @@
         <v>18.86753298153046</v>
       </c>
       <c r="BK20" t="n">
-        <v>11.41460567823346</v>
+        <v>21.68902010050255</v>
       </c>
       <c r="BL20" t="n">
-        <v>21.68902010050255</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="BM20" t="n">
-        <v>4.266666666666667</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.2000000000000011</v>
+        <v>4.000000000000002</v>
       </c>
       <c r="BO20" t="n">
-        <v>4.000000000000002</v>
+        <v>-5.9</v>
       </c>
       <c r="BP20" t="n">
-        <v>-5.9</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="BQ20" t="n">
-        <v>4.100000000000001</v>
+        <v>12.04648902821325</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>6.821043953317211</v>
       </c>
     </row>
     <row r="21">
@@ -4872,25 +4996,31 @@
         <v>17.80833546734968</v>
       </c>
       <c r="BK21" t="n">
-        <v>12.60744257274124</v>
+        <v>20.79676959619956</v>
       </c>
       <c r="BL21" t="n">
-        <v>20.79676959619956</v>
+        <v>17.36666666666667</v>
       </c>
       <c r="BM21" t="n">
-        <v>17.36666666666667</v>
+        <v>0.6100000000000012</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.6100000000000012</v>
+        <v>3.210000000000001</v>
       </c>
       <c r="BO21" t="n">
-        <v>3.210000000000001</v>
+        <v>-4.9</v>
       </c>
       <c r="BP21" t="n">
-        <v>-4.9</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BQ21" t="n">
-        <v>1.199999999999999</v>
+        <v>12.83209230769233</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>2.233333333333333</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>4.976243159657347</v>
       </c>
     </row>
     <row r="22">
@@ -5081,25 +5211,31 @@
         <v>19.82113256113268</v>
       </c>
       <c r="BK22" t="n">
-        <v>12.8178425196851</v>
+        <v>23.13171021377679</v>
       </c>
       <c r="BL22" t="n">
-        <v>23.13171021377679</v>
+        <v>16.25</v>
       </c>
       <c r="BM22" t="n">
-        <v>16.25</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BN22" t="n">
-        <v>0.2000000000000011</v>
+        <v>3.59</v>
       </c>
       <c r="BO22" t="n">
-        <v>3.59</v>
+        <v>-4.31</v>
       </c>
       <c r="BP22" t="n">
-        <v>-4.31</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="BQ22" t="n">
-        <v>4.390000000000001</v>
+        <v>12.72764062499998</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>7.093491936132702</v>
       </c>
     </row>
     <row r="23">
@@ -5290,25 +5426,31 @@
         <v>18.78253246753256</v>
       </c>
       <c r="BK23" t="n">
-        <v>12.26894009216595</v>
+        <v>23.28879518072295</v>
       </c>
       <c r="BL23" t="n">
-        <v>23.28879518072295</v>
+        <v>16.9</v>
       </c>
       <c r="BM23" t="n">
-        <v>16.9</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BN23" t="n">
-        <v>1.300000000000001</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BO23" t="n">
-        <v>3.300000000000001</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BP23" t="n">
-        <v>-5.699999999999999</v>
+        <v>6.090000000000003</v>
       </c>
       <c r="BQ23" t="n">
-        <v>6.090000000000003</v>
+        <v>11.60413210445468</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>7.178400363077875</v>
       </c>
     </row>
     <row r="24">
@@ -5499,25 +5641,31 @@
         <v>21.18975098296213</v>
       </c>
       <c r="BK24" t="n">
-        <v>11.65675344563558</v>
+        <v>24.75098795180733</v>
       </c>
       <c r="BL24" t="n">
-        <v>24.75098795180733</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="BM24" t="n">
-        <v>9.166666666666666</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN24" t="n">
-        <v>0.3000000000000007</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="BO24" t="n">
-        <v>5.699999999999999</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BP24" t="n">
-        <v>-5.699999999999999</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="BQ24" t="n">
-        <v>4.789999999999999</v>
+        <v>11.76990430622015</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>9.419846676741976</v>
       </c>
     </row>
     <row r="25">
@@ -5708,25 +5856,31 @@
         <v>19.77908719346062</v>
       </c>
       <c r="BK25" t="n">
-        <v>12.60742088607599</v>
+        <v>22.66461346633423</v>
       </c>
       <c r="BL25" t="n">
-        <v>22.66461346633423</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="BM25" t="n">
-        <v>8.666666666666666</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BN25" t="n">
-        <v>0.2900000000000009</v>
+        <v>3.489999999999998</v>
       </c>
       <c r="BO25" t="n">
-        <v>3.489999999999998</v>
+        <v>-5.609999999999999</v>
       </c>
       <c r="BP25" t="n">
-        <v>-5.609999999999999</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BQ25" t="n">
-        <v>0.6000000000000014</v>
+        <v>13.57434782608702</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>6.2047393673736</v>
       </c>
     </row>
     <row r="26">
@@ -5917,25 +6071,31 @@
         <v>12.79425755584757</v>
       </c>
       <c r="BK26" t="n">
-        <v>12.36249180327878</v>
+        <v>13.03245700245702</v>
       </c>
       <c r="BL26" t="n">
-        <v>13.03245700245702</v>
+        <v>15.18333333333333</v>
       </c>
       <c r="BM26" t="n">
-        <v>15.18333333333333</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BN26" t="n">
-        <v>0.2900000000000009</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BO26" t="n">
-        <v>0.7999999999999989</v>
+        <v>-4.9</v>
       </c>
       <c r="BP26" t="n">
-        <v>-4.9</v>
+        <v>-10.11</v>
       </c>
       <c r="BQ26" t="n">
-        <v>-10.11</v>
+        <v>11.77894899536332</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>1.015308560484252</v>
       </c>
     </row>
     <row r="27">
@@ -6126,25 +6286,31 @@
         <v>18.16567460317468</v>
       </c>
       <c r="BK27" t="n">
-        <v>11.99283950617287</v>
+        <v>20.85326190476193</v>
       </c>
       <c r="BL27" t="n">
-        <v>20.85326190476193</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="BM27" t="n">
-        <v>6.166666666666667</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="BN27" t="n">
-        <v>0.08999999999999986</v>
+        <v>3.109999999999999</v>
       </c>
       <c r="BO27" t="n">
-        <v>3.109999999999999</v>
+        <v>-5.199999999999999</v>
       </c>
       <c r="BP27" t="n">
-        <v>-5.199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ27" t="n">
-        <v>-0.5</v>
+        <v>11.45369668246452</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>8.866666666666667</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>6.71197792071016</v>
       </c>
     </row>
     <row r="28">
@@ -6335,25 +6501,31 @@
         <v>20.4088092189502</v>
       </c>
       <c r="BK28" t="n">
-        <v>11.9869701726845</v>
+        <v>24.13733966745854</v>
       </c>
       <c r="BL28" t="n">
-        <v>24.13733966745854</v>
+        <v>11</v>
       </c>
       <c r="BM28" t="n">
-        <v>11</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BN28" t="n">
-        <v>0.6999999999999993</v>
+        <v>4.290000000000001</v>
       </c>
       <c r="BO28" t="n">
-        <v>4.290000000000001</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BP28" t="n">
-        <v>-5.699999999999999</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BQ28" t="n">
-        <v>2.100000000000001</v>
+        <v>12.29788135593227</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>9.066666666666666</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>8.110927863017929</v>
       </c>
     </row>
     <row r="29">
@@ -6544,25 +6716,31 @@
         <v>19.58496113989645</v>
       </c>
       <c r="BK29" t="n">
-        <v>13.60914335664338</v>
+        <v>22.36218750000008</v>
       </c>
       <c r="BL29" t="n">
-        <v>22.36218750000008</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="BM29" t="n">
-        <v>13.66666666666667</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BN29" t="n">
-        <v>0.7999999999999989</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BO29" t="n">
-        <v>3.600000000000001</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BP29" t="n">
-        <v>-5.699999999999999</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BQ29" t="n">
-        <v>2.789999999999999</v>
+        <v>15.89958193979942</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>3.68537920009703</v>
       </c>
     </row>
     <row r="30">
@@ -6753,25 +6931,31 @@
         <v>21.76704811443448</v>
       </c>
       <c r="BK30" t="n">
-        <v>17.31916532905299</v>
+        <v>24.16099762470317</v>
       </c>
       <c r="BL30" t="n">
-        <v>24.16099762470317</v>
+        <v>4.216666666666667</v>
       </c>
       <c r="BM30" t="n">
-        <v>4.216666666666667</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="BN30" t="n">
-        <v>0.1899999999999995</v>
+        <v>1.899999999999999</v>
       </c>
       <c r="BO30" t="n">
-        <v>1.899999999999999</v>
+        <v>-1.109999999999999</v>
       </c>
       <c r="BP30" t="n">
-        <v>-1.109999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="BQ30" t="n">
-        <v>3.5</v>
+        <v>18.28013657056158</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>3.486911543872896</v>
       </c>
     </row>
     <row r="31">
@@ -6962,25 +7146,31 @@
         <v>18.00385526315803</v>
       </c>
       <c r="BK31" t="n">
-        <v>15.96772230889234</v>
+        <v>19.76429594272079</v>
       </c>
       <c r="BL31" t="n">
-        <v>19.76429594272079</v>
+        <v>7.966666666666667</v>
       </c>
       <c r="BM31" t="n">
-        <v>7.966666666666667</v>
+        <v>0.9899999999999984</v>
       </c>
       <c r="BN31" t="n">
-        <v>0.9899999999999984</v>
+        <v>2.81</v>
       </c>
       <c r="BO31" t="n">
-        <v>2.81</v>
+        <v>-3.31</v>
       </c>
       <c r="BP31" t="n">
-        <v>-3.31</v>
+        <v>-1.109999999999999</v>
       </c>
       <c r="BQ31" t="n">
-        <v>-1.109999999999999</v>
+        <v>12.65569640062604</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>5.34815886253199</v>
       </c>
     </row>
     <row r="32">
@@ -7171,25 +7361,31 @@
         <v>19.85452535760739</v>
       </c>
       <c r="BK32" t="n">
-        <v>13.09652582159627</v>
+        <v>22.87219806763293</v>
       </c>
       <c r="BL32" t="n">
-        <v>22.87219806763293</v>
+        <v>15.5</v>
       </c>
       <c r="BM32" t="n">
-        <v>15.5</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BN32" t="n">
-        <v>0.7999999999999989</v>
+        <v>3.710000000000001</v>
       </c>
       <c r="BO32" t="n">
-        <v>3.710000000000001</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BP32" t="n">
-        <v>-5.699999999999999</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BQ32" t="n">
-        <v>0.3900000000000006</v>
+        <v>13.96614664586595</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>5.888378711741435</v>
       </c>
     </row>
     <row r="33">
@@ -7380,25 +7576,31 @@
         <v>18.80459948320428</v>
       </c>
       <c r="BK33" t="n">
-        <v>14.15970633693976</v>
+        <v>20.47271428571435</v>
       </c>
       <c r="BL33" t="n">
-        <v>20.47271428571435</v>
+        <v>12.45</v>
       </c>
       <c r="BM33" t="n">
-        <v>12.45</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BN33" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BO33" t="n">
-        <v>0.8900000000000006</v>
+        <v>-3.4</v>
       </c>
       <c r="BP33" t="n">
-        <v>-3.4</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BQ33" t="n">
-        <v>1.600000000000001</v>
+        <v>14.59838862559243</v>
+      </c>
+      <c r="BR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS33" t="n">
+        <v>4.206210857611845</v>
       </c>
     </row>
     <row r="34">
@@ -7589,25 +7791,31 @@
         <v>18.38900900900915</v>
       </c>
       <c r="BK34" t="n">
-        <v>13.92624806201555</v>
+        <v>21.11200000000008</v>
       </c>
       <c r="BL34" t="n">
-        <v>21.11200000000008</v>
+        <v>14.4</v>
       </c>
       <c r="BM34" t="n">
-        <v>14.4</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BN34" t="n">
-        <v>0.4000000000000004</v>
+        <v>1.69</v>
       </c>
       <c r="BO34" t="n">
-        <v>1.69</v>
+        <v>-3.5</v>
       </c>
       <c r="BP34" t="n">
-        <v>-3.5</v>
+        <v>3</v>
       </c>
       <c r="BQ34" t="n">
-        <v>3</v>
+        <v>13.25189681335365</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>5.137112195655499</v>
       </c>
     </row>
     <row r="35">
@@ -7798,25 +8006,31 @@
         <v>17.47037711313403</v>
       </c>
       <c r="BK35" t="n">
-        <v>12.93767830045526</v>
+        <v>19.75376190476193</v>
       </c>
       <c r="BL35" t="n">
-        <v>19.75376190476193</v>
+        <v>17.68333333333333</v>
       </c>
       <c r="BM35" t="n">
-        <v>17.68333333333333</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="BN35" t="n">
-        <v>0.1899999999999995</v>
+        <v>1.809999999999999</v>
       </c>
       <c r="BO35" t="n">
-        <v>1.809999999999999</v>
+        <v>-4.31</v>
       </c>
       <c r="BP35" t="n">
-        <v>-4.31</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ35" t="n">
-        <v>-2.109999999999999</v>
+        <v>12.1637025796662</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>5.306674533467833</v>
       </c>
     </row>
     <row r="36">
@@ -8007,25 +8221,31 @@
         <v>18.99618556701045</v>
       </c>
       <c r="BK36" t="n">
-        <v>12.73574500768052</v>
+        <v>22.83951923076929</v>
       </c>
       <c r="BL36" t="n">
-        <v>22.83951923076929</v>
+        <v>15.75</v>
       </c>
       <c r="BM36" t="n">
-        <v>15.75</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BN36" t="n">
-        <v>0.1999999999999993</v>
+        <v>2.4</v>
       </c>
       <c r="BO36" t="n">
-        <v>2.4</v>
+        <v>-5.4</v>
       </c>
       <c r="BP36" t="n">
-        <v>-5.4</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BQ36" t="n">
-        <v>2.289999999999999</v>
+        <v>13.86578294573647</v>
+      </c>
+      <c r="BR36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>5.130402621273976</v>
       </c>
     </row>
     <row r="37">
@@ -8216,25 +8436,31 @@
         <v>20.48893782383432</v>
       </c>
       <c r="BK37" t="n">
-        <v>14.02631578947374</v>
+        <v>23.17038004750601</v>
       </c>
       <c r="BL37" t="n">
-        <v>23.17038004750601</v>
+        <v>14.05</v>
       </c>
       <c r="BM37" t="n">
-        <v>14.05</v>
+        <v>1.41</v>
       </c>
       <c r="BN37" t="n">
-        <v>1.41</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="BO37" t="n">
-        <v>1.710000000000001</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BP37" t="n">
-        <v>-4.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="BQ37" t="n">
-        <v>9.5</v>
+        <v>13.39127760252373</v>
+      </c>
+      <c r="BR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS37" t="n">
+        <v>7.097660221310583</v>
       </c>
     </row>
     <row r="38">
@@ -8425,25 +8651,31 @@
         <v>19.80784516129046</v>
       </c>
       <c r="BK38" t="n">
-        <v>13.41605723370431</v>
+        <v>22.38071258907369</v>
       </c>
       <c r="BL38" t="n">
-        <v>22.38071258907369</v>
+        <v>15.31666666666667</v>
       </c>
       <c r="BM38" t="n">
-        <v>15.31666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="BN38" t="n">
-        <v>0.5</v>
+        <v>3.310000000000002</v>
       </c>
       <c r="BO38" t="n">
-        <v>3.310000000000002</v>
+        <v>-4.699999999999999</v>
       </c>
       <c r="BP38" t="n">
-        <v>-4.699999999999999</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="BQ38" t="n">
-        <v>3.199999999999999</v>
+        <v>13.90253477588881</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>5.905310385401641</v>
       </c>
     </row>
     <row r="39">
@@ -8634,25 +8866,31 @@
         <v>21.11556566970102</v>
       </c>
       <c r="BK39" t="n">
-        <v>14.98162974683552</v>
+        <v>24.06142517814732</v>
       </c>
       <c r="BL39" t="n">
-        <v>24.06142517814732</v>
+        <v>11.28333333333333</v>
       </c>
       <c r="BM39" t="n">
-        <v>11.28333333333333</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BN39" t="n">
-        <v>0.5899999999999999</v>
+        <v>1.810000000000002</v>
       </c>
       <c r="BO39" t="n">
-        <v>1.810000000000002</v>
+        <v>-4.9</v>
       </c>
       <c r="BP39" t="n">
-        <v>-4.9</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BQ39" t="n">
-        <v>2.789999999999999</v>
+        <v>16.0970751633987</v>
+      </c>
+      <c r="BR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS39" t="n">
+        <v>5.018490506302314</v>
       </c>
     </row>
     <row r="40">
@@ -8843,25 +9081,31 @@
         <v>22.79208877284609</v>
       </c>
       <c r="BK40" t="n">
-        <v>16.69604068857601</v>
+        <v>24.97323671497589</v>
       </c>
       <c r="BL40" t="n">
-        <v>24.97323671497589</v>
+        <v>1.783333333333333</v>
       </c>
       <c r="BM40" t="n">
-        <v>1.783333333333333</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="BN40" t="n">
-        <v>0.5999999999999996</v>
+        <v>3.710000000000001</v>
       </c>
       <c r="BO40" t="n">
-        <v>3.710000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="BP40" t="n">
-        <v>-2.5</v>
+        <v>6.289999999999999</v>
       </c>
       <c r="BQ40" t="n">
-        <v>6.289999999999999</v>
+        <v>18.26374810318676</v>
+      </c>
+      <c r="BR40" t="n">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="BS40" t="n">
+        <v>4.528340669659332</v>
       </c>
     </row>
     <row r="41">
@@ -9052,25 +9296,31 @@
         <v>19.20239043824713</v>
       </c>
       <c r="BK41" t="n">
-        <v>17.8438391502277</v>
+        <v>20.83878172588837</v>
       </c>
       <c r="BL41" t="n">
-        <v>20.83878172588837</v>
+        <v>0</v>
       </c>
       <c r="BM41" t="n">
-        <v>0</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="BN41" t="n">
-        <v>0.1899999999999977</v>
+        <v>0.7100000000000009</v>
       </c>
       <c r="BO41" t="n">
-        <v>0.7100000000000009</v>
+        <v>0.5</v>
       </c>
       <c r="BP41" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="BQ41" t="n">
-        <v>2</v>
+        <v>17.01817351598181</v>
+      </c>
+      <c r="BR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS41" t="n">
+        <v>2.184216922265311</v>
       </c>
     </row>
     <row r="42">
@@ -9261,25 +9511,31 @@
         <v>18.83609475032022</v>
       </c>
       <c r="BK42" t="n">
-        <v>15.93782343987823</v>
+        <v>20.69334916864611</v>
       </c>
       <c r="BL42" t="n">
-        <v>20.69334916864611</v>
+        <v>6.733333333333333</v>
       </c>
       <c r="BM42" t="n">
-        <v>6.733333333333333</v>
+        <v>0.4100000000000019</v>
       </c>
       <c r="BN42" t="n">
-        <v>0.4100000000000019</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="BO42" t="n">
-        <v>1.800000000000001</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP42" t="n">
-        <v>-2.109999999999999</v>
+        <v>-1.300000000000001</v>
       </c>
       <c r="BQ42" t="n">
-        <v>-1.300000000000001</v>
+        <v>13.88699544764795</v>
+      </c>
+      <c r="BR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS42" t="n">
+        <v>4.94909930267227</v>
       </c>
     </row>
     <row r="43">
@@ -9470,25 +9726,31 @@
         <v>20.60767690253683</v>
       </c>
       <c r="BK43" t="n">
-        <v>14.47346625766872</v>
+        <v>23.67659203980107</v>
       </c>
       <c r="BL43" t="n">
-        <v>23.67659203980107</v>
+        <v>9.533333333333333</v>
       </c>
       <c r="BM43" t="n">
-        <v>9.533333333333333</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BN43" t="n">
-        <v>0.5899999999999999</v>
+        <v>1.809999999999999</v>
       </c>
       <c r="BO43" t="n">
-        <v>1.809999999999999</v>
+        <v>-4.699999999999999</v>
       </c>
       <c r="BP43" t="n">
-        <v>-4.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="BQ43" t="n">
-        <v>1.5</v>
+        <v>15.33319875776401</v>
+      </c>
+      <c r="BR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS43" t="n">
+        <v>5.274478144772818</v>
       </c>
     </row>
     <row r="44">
@@ -9679,25 +9941,31 @@
         <v>16.69585937500007</v>
       </c>
       <c r="BK44" t="n">
-        <v>14.7871735791091</v>
+        <v>17.69717339667462</v>
       </c>
       <c r="BL44" t="n">
-        <v>17.69717339667462</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="BM44" t="n">
-        <v>6.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="BN44" t="n">
-        <v>0.5</v>
+        <v>1.19</v>
       </c>
       <c r="BO44" t="n">
-        <v>1.19</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="BP44" t="n">
-        <v>-3.199999999999999</v>
+        <v>-5.109999999999999</v>
       </c>
       <c r="BQ44" t="n">
-        <v>-5.109999999999999</v>
+        <v>15.43612462006093</v>
+      </c>
+      <c r="BR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>1.259734754939139</v>
       </c>
     </row>
     <row r="45">
@@ -9888,25 +10156,31 @@
         <v>17.07838254172025</v>
       </c>
       <c r="BK45" t="n">
-        <v>15.21004566210043</v>
+        <v>18.08414285714287</v>
       </c>
       <c r="BL45" t="n">
-        <v>18.08414285714287</v>
+        <v>0</v>
       </c>
       <c r="BM45" t="n">
-        <v>0</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="BN45" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.8899999999999988</v>
       </c>
       <c r="BO45" t="n">
-        <v>0.8899999999999988</v>
+        <v>-1.31</v>
       </c>
       <c r="BP45" t="n">
-        <v>-1.31</v>
+        <v>-3.899999999999999</v>
       </c>
       <c r="BQ45" t="n">
-        <v>-3.899999999999999</v>
+        <v>14.66359621451106</v>
+      </c>
+      <c r="BR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS45" t="n">
+        <v>2.414786327209191</v>
       </c>
     </row>
     <row r="46">
@@ -10097,25 +10371,31 @@
         <v>17.45806658130612</v>
       </c>
       <c r="BK46" t="n">
-        <v>14.67722834645673</v>
+        <v>18.87969121140145</v>
       </c>
       <c r="BL46" t="n">
-        <v>18.87969121140145</v>
+        <v>2.516666666666667</v>
       </c>
       <c r="BM46" t="n">
-        <v>2.516666666666667</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BN46" t="n">
-        <v>0.2999999999999989</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO46" t="n">
-        <v>1.390000000000001</v>
+        <v>-2.699999999999999</v>
       </c>
       <c r="BP46" t="n">
-        <v>-2.699999999999999</v>
+        <v>-0.8999999999999986</v>
       </c>
       <c r="BQ46" t="n">
-        <v>-0.8999999999999986</v>
+        <v>14.10358118361154</v>
+      </c>
+      <c r="BR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>3.354485397694573</v>
       </c>
     </row>
     <row r="47">
@@ -10306,25 +10586,31 @@
         <v>14.13037131882201</v>
       </c>
       <c r="BK47" t="n">
-        <v>12.99353566009106</v>
+        <v>15.25482185273163</v>
       </c>
       <c r="BL47" t="n">
-        <v>15.25482185273163</v>
+        <v>2.483333333333333</v>
       </c>
       <c r="BM47" t="n">
-        <v>2.483333333333333</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN47" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BO47" t="n">
-        <v>0.3100000000000005</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BP47" t="n">
-        <v>-3.609999999999999</v>
+        <v>-6.5</v>
       </c>
       <c r="BQ47" t="n">
-        <v>-6.5</v>
+        <v>12.3401075268817</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>1.790263791940315</v>
       </c>
     </row>
     <row r="48">
@@ -10515,25 +10801,31 @@
         <v>19.4545699614892</v>
       </c>
       <c r="BK48" t="n">
-        <v>13.13998449612408</v>
+        <v>21.62928741092641</v>
       </c>
       <c r="BL48" t="n">
-        <v>21.62928741092641</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="BM48" t="n">
-        <v>2.616666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="BN48" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="BO48" t="n">
-        <v>2.5</v>
+        <v>-4.699999999999999</v>
       </c>
       <c r="BP48" t="n">
-        <v>-4.699999999999999</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BQ48" t="n">
-        <v>1.390000000000001</v>
+        <v>12.88560490045944</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>6.568965061029759</v>
       </c>
     </row>
     <row r="49">
@@ -10724,25 +11016,31 @@
         <v>18.39955128205142</v>
       </c>
       <c r="BK49" t="n">
-        <v>13.1598786039454</v>
+        <v>22.14202380952388</v>
       </c>
       <c r="BL49" t="n">
-        <v>22.14202380952388</v>
+        <v>2.516666666666667</v>
       </c>
       <c r="BM49" t="n">
-        <v>2.516666666666667</v>
+        <v>0.8100000000000005</v>
       </c>
       <c r="BN49" t="n">
-        <v>0.8100000000000005</v>
+        <v>3</v>
       </c>
       <c r="BO49" t="n">
-        <v>3</v>
+        <v>-5.31</v>
       </c>
       <c r="BP49" t="n">
-        <v>-5.31</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ49" t="n">
-        <v>1.890000000000001</v>
+        <v>13.65905918057662</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>4.740492101474798</v>
       </c>
     </row>
     <row r="50">
@@ -10933,25 +11231,31 @@
         <v>19.26703465982041</v>
       </c>
       <c r="BK50" t="n">
-        <v>14.02470409711686</v>
+        <v>21.66054761904764</v>
       </c>
       <c r="BL50" t="n">
-        <v>21.66054761904764</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="BM50" t="n">
-        <v>2.133333333333333</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BN50" t="n">
-        <v>0.6999999999999993</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BO50" t="n">
-        <v>2.600000000000001</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BP50" t="n">
-        <v>-4.199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ50" t="n">
-        <v>-0.5</v>
+        <v>15.28608497723828</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>3.980949682582128</v>
       </c>
     </row>
     <row r="51">
@@ -11142,25 +11446,31 @@
         <v>20.85215123859209</v>
       </c>
       <c r="BK51" t="n">
-        <v>15.51880184331803</v>
+        <v>24.18134939759043</v>
       </c>
       <c r="BL51" t="n">
-        <v>24.18134939759043</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="BM51" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BN51" t="n">
-        <v>0.3100000000000005</v>
+        <v>2.599999999999998</v>
       </c>
       <c r="BO51" t="n">
-        <v>2.599999999999998</v>
+        <v>-1.9</v>
       </c>
       <c r="BP51" t="n">
-        <v>-1.9</v>
+        <v>11.4</v>
       </c>
       <c r="BQ51" t="n">
-        <v>11.4</v>
+        <v>15.70347158218131</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>5.148679656410774</v>
       </c>
     </row>
     <row r="52">
@@ -11351,25 +11661,31 @@
         <v>21.26245838668385</v>
       </c>
       <c r="BK52" t="n">
-        <v>16.19634294385441</v>
+        <v>24.16503562945377</v>
       </c>
       <c r="BL52" t="n">
-        <v>24.16503562945377</v>
+        <v>1.783333333333333</v>
       </c>
       <c r="BM52" t="n">
-        <v>1.783333333333333</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BN52" t="n">
-        <v>0.4000000000000004</v>
+        <v>3.710000000000001</v>
       </c>
       <c r="BO52" t="n">
-        <v>3.710000000000001</v>
+        <v>-1.4</v>
       </c>
       <c r="BP52" t="n">
-        <v>-1.4</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BQ52" t="n">
-        <v>0.8900000000000006</v>
+        <v>15.89815503875969</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>5.364303347924167</v>
       </c>
     </row>
     <row r="53">
@@ -11560,25 +11876,31 @@
         <v>20.91213541666678</v>
       </c>
       <c r="BK53" t="n">
-        <v>16.02768992248073</v>
+        <v>22.7252696078432</v>
       </c>
       <c r="BL53" t="n">
-        <v>22.7252696078432</v>
+        <v>1.9</v>
       </c>
       <c r="BM53" t="n">
-        <v>1.9</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BN53" t="n">
-        <v>0.3900000000000006</v>
+        <v>2</v>
       </c>
       <c r="BO53" t="n">
-        <v>2</v>
+        <v>-2.5</v>
       </c>
       <c r="BP53" t="n">
-        <v>-2.5</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BQ53" t="n">
-        <v>0.2899999999999991</v>
+        <v>15.933393442623</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>4.978741974043775</v>
       </c>
     </row>
     <row r="54">
@@ -11769,25 +12091,31 @@
         <v>21.34418064516141</v>
       </c>
       <c r="BK54" t="n">
-        <v>16.35144262295091</v>
+        <v>23.22000000000007</v>
       </c>
       <c r="BL54" t="n">
-        <v>23.22000000000007</v>
+        <v>1.516666666666667</v>
       </c>
       <c r="BM54" t="n">
-        <v>1.516666666666667</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BN54" t="n">
-        <v>0.5899999999999999</v>
+        <v>1.190000000000001</v>
       </c>
       <c r="BO54" t="n">
-        <v>1.190000000000001</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="BP54" t="n">
-        <v>-3.199999999999999</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BQ54" t="n">
-        <v>0.3900000000000006</v>
+        <v>17.74136150234751</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>3.602819142813896</v>
       </c>
     </row>
     <row r="55">
@@ -11978,25 +12306,31 @@
         <v>21.84994825355768</v>
       </c>
       <c r="BK55" t="n">
-        <v>17.83295774647897</v>
+        <v>23.64463182897867</v>
       </c>
       <c r="BL55" t="n">
-        <v>23.64463182897867</v>
+        <v>2.783333333333333</v>
       </c>
       <c r="BM55" t="n">
-        <v>2.783333333333333</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="BN55" t="n">
-        <v>0.3100000000000023</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="BO55" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BP55" t="n">
-        <v>0.6999999999999993</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BQ55" t="n">
-        <v>1.100000000000001</v>
+        <v>17.79271721958931</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>4.057231033968378</v>
       </c>
     </row>
     <row r="56">
@@ -12187,25 +12521,31 @@
         <v>22.91307096774207</v>
       </c>
       <c r="BK56" t="n">
-        <v>17.75350710900483</v>
+        <v>24.6369833729217</v>
       </c>
       <c r="BL56" t="n">
-        <v>24.6369833729217</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="BM56" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7100000000000009</v>
       </c>
       <c r="BN56" t="n">
-        <v>0.7100000000000009</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BO56" t="n">
-        <v>2.890000000000001</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BP56" t="n">
-        <v>0.1999999999999993</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ56" t="n">
-        <v>1.890000000000001</v>
+        <v>17.65902400000003</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>5.254046967742035</v>
       </c>
     </row>
     <row r="57">
@@ -12396,25 +12736,31 @@
         <v>22.47579427083345</v>
       </c>
       <c r="BK57" t="n">
-        <v>17.75278846153856</v>
+        <v>24.8140722891567</v>
       </c>
       <c r="BL57" t="n">
-        <v>24.8140722891567</v>
+        <v>1.95</v>
       </c>
       <c r="BM57" t="n">
-        <v>1.95</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BN57" t="n">
-        <v>0.6000000000000014</v>
+        <v>2.310000000000002</v>
       </c>
       <c r="BO57" t="n">
-        <v>2.310000000000002</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BP57" t="n">
-        <v>-0.6099999999999994</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ57" t="n">
-        <v>2.199999999999999</v>
+        <v>17.82681744749604</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>4.64897682333741</v>
       </c>
     </row>
     <row r="58">
@@ -12605,25 +12951,31 @@
         <v>20.95952317880806</v>
       </c>
       <c r="BK58" t="n">
-        <v>18.0153387096775</v>
+        <v>23.61007575757583</v>
       </c>
       <c r="BL58" t="n">
-        <v>23.61007575757583</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="BM58" t="n">
-        <v>4.866666666666666</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="BN58" t="n">
-        <v>0.6099999999999994</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BO58" t="n">
-        <v>2.300000000000001</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BP58" t="n">
-        <v>0.3900000000000006</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ58" t="n">
-        <v>2.199999999999999</v>
+        <v>18.01830065359486</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>2.941222525213202</v>
       </c>
     </row>
     <row r="59">
@@ -12814,25 +13166,31 @@
         <v>23.69248399487844</v>
       </c>
       <c r="BK59" t="n">
-        <v>18.4311716171618</v>
+        <v>26.1120190023754</v>
       </c>
       <c r="BL59" t="n">
-        <v>26.1120190023754</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="BM59" t="n">
-        <v>1.466666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="BN59" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="BO59" t="n">
-        <v>2.5</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BP59" t="n">
-        <v>0.1999999999999993</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ59" t="n">
-        <v>1.890000000000001</v>
+        <v>19.06851454823902</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>4.623969446639428</v>
       </c>
     </row>
     <row r="60">
@@ -13023,25 +13381,31 @@
         <v>24.13825581395357</v>
       </c>
       <c r="BK60" t="n">
-        <v>19.37913373860201</v>
+        <v>25.66102137767228</v>
       </c>
       <c r="BL60" t="n">
-        <v>25.66102137767228</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="BM60" t="n">
-        <v>2.766666666666667</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BN60" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="BO60" t="n">
-        <v>0.8999999999999986</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BP60" t="n">
-        <v>1.789999999999999</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BQ60" t="n">
-        <v>2.789999999999999</v>
+        <v>20.28893617021273</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>3.849319643740845</v>
       </c>
     </row>
     <row r="61">
@@ -13232,25 +13596,31 @@
         <v>19.97697823303472</v>
       </c>
       <c r="BK61" t="n">
-        <v>19.3004855842186</v>
+        <v>19.94102137767226</v>
       </c>
       <c r="BL61" t="n">
-        <v>19.94102137767226</v>
+        <v>4.066666666666666</v>
       </c>
       <c r="BM61" t="n">
-        <v>4.066666666666666</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BN61" t="n">
-        <v>0.2899999999999991</v>
+        <v>1</v>
       </c>
       <c r="BO61" t="n">
-        <v>1</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BP61" t="n">
-        <v>1.890000000000001</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ61" t="n">
-        <v>-0.6099999999999994</v>
+        <v>17.97555386949934</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>2.001424363535378</v>
       </c>
     </row>
     <row r="62">
@@ -13441,25 +13811,31 @@
         <v>16.44668373879653</v>
       </c>
       <c r="BK62" t="n">
-        <v>16.83057663125953</v>
+        <v>16.86349168646084</v>
       </c>
       <c r="BL62" t="n">
-        <v>16.86349168646084</v>
+        <v>0</v>
       </c>
       <c r="BM62" t="n">
-        <v>0</v>
+        <v>0.3099999999999987</v>
       </c>
       <c r="BN62" t="n">
-        <v>0.3099999999999987</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="BO62" t="n">
-        <v>0.5999999999999996</v>
+        <v>-1.109999999999999</v>
       </c>
       <c r="BP62" t="n">
-        <v>-1.109999999999999</v>
+        <v>-7.609999999999999</v>
       </c>
       <c r="BQ62" t="n">
-        <v>-7.609999999999999</v>
+        <v>15.96467374810313</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>0.4820099906934008</v>
       </c>
     </row>
     <row r="63">
@@ -13650,25 +14026,31 @@
         <v>19.25594524119956</v>
       </c>
       <c r="BK63" t="n">
-        <v>15.94737984496129</v>
+        <v>19.40356626506028</v>
       </c>
       <c r="BL63" t="n">
-        <v>19.40356626506028</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="BM63" t="n">
-        <v>2.333333333333333</v>
+        <v>0.1100000000000012</v>
       </c>
       <c r="BN63" t="n">
-        <v>0.1100000000000012</v>
+        <v>1.210000000000001</v>
       </c>
       <c r="BO63" t="n">
-        <v>1.210000000000001</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BP63" t="n">
-        <v>-0.6099999999999994</v>
+        <v>-0.3000000000000007</v>
       </c>
       <c r="BQ63" t="n">
-        <v>-0.3000000000000007</v>
+        <v>15.33479069767443</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>3.921154543525128</v>
       </c>
     </row>
     <row r="64">
@@ -13859,25 +14241,31 @@
         <v>20.5268617021278</v>
       </c>
       <c r="BK64" t="n">
-        <v>15.59953488372099</v>
+        <v>23.23681704260658</v>
       </c>
       <c r="BL64" t="n">
-        <v>23.23681704260658</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="BM64" t="n">
-        <v>2.983333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BN64" t="n">
-        <v>0.5</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="BO64" t="n">
-        <v>4.399999999999999</v>
+        <v>-2</v>
       </c>
       <c r="BP64" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="BQ64" t="n">
-        <v>0</v>
+        <v>15.07943661971834</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>5.447425082409454</v>
       </c>
     </row>
     <row r="65">
@@ -14068,25 +14456,31 @@
         <v>18.7177360931437</v>
       </c>
       <c r="BK65" t="n">
-        <v>15.75828483920377</v>
+        <v>21.29450000000003</v>
       </c>
       <c r="BL65" t="n">
-        <v>21.29450000000003</v>
+        <v>1.95</v>
       </c>
       <c r="BM65" t="n">
-        <v>1.95</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BN65" t="n">
-        <v>0.6999999999999993</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO65" t="n">
-        <v>1.390000000000001</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BP65" t="n">
-        <v>-3.699999999999999</v>
+        <v>-1.210000000000001</v>
       </c>
       <c r="BQ65" t="n">
-        <v>-1.210000000000001</v>
+        <v>16.74108864696732</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>1.976647446176376</v>
       </c>
     </row>
     <row r="66">
@@ -14277,25 +14671,31 @@
         <v>22.19865806451623</v>
       </c>
       <c r="BK66" t="n">
-        <v>16.90647909967856</v>
+        <v>24.61344578313263</v>
       </c>
       <c r="BL66" t="n">
-        <v>24.61344578313263</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="BM66" t="n">
-        <v>1.733333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BN66" t="n">
-        <v>0.5</v>
+        <v>2.810000000000002</v>
       </c>
       <c r="BO66" t="n">
-        <v>2.810000000000002</v>
+        <v>-1.81</v>
       </c>
       <c r="BP66" t="n">
-        <v>-1.81</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BQ66" t="n">
-        <v>2.100000000000001</v>
+        <v>16.83659874608148</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>5.362059318434753</v>
       </c>
     </row>
     <row r="67">
@@ -14486,25 +14886,31 @@
         <v>22.62050193050204</v>
       </c>
       <c r="BK67" t="n">
-        <v>17.99142640364194</v>
+        <v>24.74859857482188</v>
       </c>
       <c r="BL67" t="n">
-        <v>24.74859857482188</v>
+        <v>1.45</v>
       </c>
       <c r="BM67" t="n">
-        <v>1.45</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BN67" t="n">
-        <v>0.3900000000000006</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BO67" t="n">
-        <v>0.6000000000000014</v>
+        <v>-1.5</v>
       </c>
       <c r="BP67" t="n">
-        <v>-1.5</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ67" t="n">
-        <v>2.199999999999999</v>
+        <v>20.17573596358132</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>2.444765966920716</v>
       </c>
     </row>
     <row r="68">
@@ -14695,25 +15101,31 @@
         <v>23.490935897436</v>
       </c>
       <c r="BK68" t="n">
-        <v>19.31869499241288</v>
+        <v>24.69261904761913</v>
       </c>
       <c r="BL68" t="n">
-        <v>24.69261904761913</v>
+        <v>1.5</v>
       </c>
       <c r="BM68" t="n">
-        <v>1.5</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BN68" t="n">
-        <v>1.300000000000001</v>
+        <v>3</v>
       </c>
       <c r="BO68" t="n">
-        <v>3</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BP68" t="n">
-        <v>1.699999999999999</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BQ68" t="n">
-        <v>1.600000000000001</v>
+        <v>17.70866464339913</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>5.782271254036868</v>
       </c>
     </row>
     <row r="69">
@@ -14904,25 +15316,31 @@
         <v>22.92102564102575</v>
       </c>
       <c r="BK69" t="n">
-        <v>16.20069802731411</v>
+        <v>24.61230403800485</v>
       </c>
       <c r="BL69" t="n">
-        <v>24.61230403800485</v>
+        <v>1.233333333333333</v>
       </c>
       <c r="BM69" t="n">
-        <v>1.233333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BN69" t="n">
-        <v>0.5</v>
+        <v>4.41</v>
       </c>
       <c r="BO69" t="n">
-        <v>4.41</v>
+        <v>-2.5</v>
       </c>
       <c r="BP69" t="n">
-        <v>-2.5</v>
+        <v>2.390000000000001</v>
       </c>
       <c r="BQ69" t="n">
-        <v>2.390000000000001</v>
+        <v>14.06220030349018</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>8.858825337535563</v>
       </c>
     </row>
     <row r="70">
@@ -15113,25 +15531,31 @@
         <v>19.31856594110129</v>
       </c>
       <c r="BK70" t="n">
-        <v>15.01424886191203</v>
+        <v>20.81698337292163</v>
       </c>
       <c r="BL70" t="n">
-        <v>20.81698337292163</v>
+        <v>1.216666666666667</v>
       </c>
       <c r="BM70" t="n">
-        <v>1.216666666666667</v>
+        <v>1.09</v>
       </c>
       <c r="BN70" t="n">
-        <v>1.09</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BO70" t="n">
-        <v>1.399999999999999</v>
+        <v>-4.4</v>
       </c>
       <c r="BP70" t="n">
-        <v>-4.4</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BQ70" t="n">
-        <v>-2.609999999999999</v>
+        <v>16.7837784522003</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>2.534787488900996</v>
       </c>
     </row>
     <row r="71">
@@ -15322,25 +15746,31 @@
         <v>16.16731113956475</v>
       </c>
       <c r="BK71" t="n">
-        <v>15.95245827010622</v>
+        <v>17.68990498812354</v>
       </c>
       <c r="BL71" t="n">
-        <v>17.68990498812354</v>
+        <v>0</v>
       </c>
       <c r="BM71" t="n">
-        <v>0</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BN71" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BO71" t="n">
-        <v>0.7899999999999991</v>
+        <v>-2.5</v>
       </c>
       <c r="BP71" t="n">
-        <v>-2.5</v>
+        <v>-6</v>
       </c>
       <c r="BQ71" t="n">
-        <v>-6</v>
+        <v>15.26452200303493</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>0.9027891365298188</v>
       </c>
     </row>
     <row r="72">
@@ -15531,25 +15961,31 @@
         <v>20.79202564102576</v>
       </c>
       <c r="BK72" t="n">
-        <v>15.85910334346512</v>
+        <v>22.49966745843236</v>
       </c>
       <c r="BL72" t="n">
-        <v>22.49966745843236</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="BM72" t="n">
-        <v>3.016666666666667</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BN72" t="n">
-        <v>0.2900000000000009</v>
+        <v>2</v>
       </c>
       <c r="BO72" t="n">
-        <v>2</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BP72" t="n">
-        <v>-2.609999999999999</v>
+        <v>-1</v>
       </c>
       <c r="BQ72" t="n">
-        <v>-1</v>
+        <v>15.90822188449852</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>4.883803756527243</v>
       </c>
     </row>
     <row r="73">
@@ -15740,25 +16176,31 @@
         <v>20.06823303457118</v>
       </c>
       <c r="BK73" t="n">
-        <v>16.41243161094237</v>
+        <v>22.60855106888367</v>
       </c>
       <c r="BL73" t="n">
-        <v>22.60855106888367</v>
+        <v>1.6</v>
       </c>
       <c r="BM73" t="n">
-        <v>1.6</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN73" t="n">
-        <v>0.3000000000000007</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BO73" t="n">
-        <v>2.789999999999999</v>
+        <v>-2</v>
       </c>
       <c r="BP73" t="n">
-        <v>-2</v>
+        <v>-1.109999999999999</v>
       </c>
       <c r="BQ73" t="n">
-        <v>-1.109999999999999</v>
+        <v>17.16889057750759</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>2.899342457063593</v>
       </c>
     </row>
     <row r="74">
@@ -15949,25 +16391,31 @@
         <v>22.18793281653759</v>
       </c>
       <c r="BK74" t="n">
-        <v>17.01808801213969</v>
+        <v>24.03831353919248</v>
       </c>
       <c r="BL74" t="n">
-        <v>24.03831353919248</v>
+        <v>1.283333333333333</v>
       </c>
       <c r="BM74" t="n">
-        <v>1.283333333333333</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="BN74" t="n">
-        <v>0.1899999999999995</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="BO74" t="n">
-        <v>3.899999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="BP74" t="n">
-        <v>-0.5</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BQ74" t="n">
-        <v>2.100000000000001</v>
+        <v>16.67462848297214</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>5.513304333565451</v>
       </c>
     </row>
     <row r="75">
@@ -16158,25 +16606,31 @@
         <v>21.16189922480635</v>
       </c>
       <c r="BK75" t="n">
-        <v>16.57480000000007</v>
+        <v>23.19910628019331</v>
       </c>
       <c r="BL75" t="n">
-        <v>23.19910628019331</v>
+        <v>0.95</v>
       </c>
       <c r="BM75" t="n">
-        <v>0.95</v>
+        <v>0.3899999999999988</v>
       </c>
       <c r="BN75" t="n">
-        <v>0.3899999999999988</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BO75" t="n">
-        <v>1.399999999999999</v>
+        <v>-2</v>
       </c>
       <c r="BP75" t="n">
-        <v>-2</v>
+        <v>-0.3999999999999986</v>
       </c>
       <c r="BQ75" t="n">
-        <v>-0.3999999999999986</v>
+        <v>16.31825878594253</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>4.843640438863819</v>
       </c>
     </row>
     <row r="76">
@@ -16367,25 +16821,31 @@
         <v>21.67832674571817</v>
       </c>
       <c r="BK76" t="n">
-        <v>16.87267387944367</v>
+        <v>24.31430992736084</v>
       </c>
       <c r="BL76" t="n">
-        <v>24.31430992736084</v>
+        <v>1.483333333333333</v>
       </c>
       <c r="BM76" t="n">
-        <v>1.483333333333333</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN76" t="n">
-        <v>0.3000000000000007</v>
+        <v>1.5</v>
       </c>
       <c r="BO76" t="n">
-        <v>1.5</v>
+        <v>-2.31</v>
       </c>
       <c r="BP76" t="n">
-        <v>-2.31</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BQ76" t="n">
-        <v>0.6000000000000014</v>
+        <v>17.67238021638332</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>4.005946529334846</v>
       </c>
     </row>
     <row r="77">
@@ -16576,25 +17036,31 @@
         <v>25.46819462227922</v>
       </c>
       <c r="BK77" t="n">
-        <v>17.78049459041742</v>
+        <v>28.40349168646094</v>
       </c>
       <c r="BL77" t="n">
-        <v>28.40349168646094</v>
+        <v>1.483333333333333</v>
       </c>
       <c r="BM77" t="n">
-        <v>1.483333333333333</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BN77" t="n">
-        <v>0.4000000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="BO77" t="n">
-        <v>5.5</v>
+        <v>-0.5</v>
       </c>
       <c r="BP77" t="n">
-        <v>-0.5</v>
+        <v>4.289999999999999</v>
       </c>
       <c r="BQ77" t="n">
-        <v>4.289999999999999</v>
+        <v>17.27048309178744</v>
+      </c>
+      <c r="BR77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>8.197711530491773</v>
       </c>
     </row>
     <row r="78">
@@ -16785,25 +17251,31 @@
         <v>24.62048655569792</v>
       </c>
       <c r="BK78" t="n">
-        <v>16.53933977455727</v>
+        <v>26.66204275534453</v>
       </c>
       <c r="BL78" t="n">
-        <v>26.66204275534453</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="BM78" t="n">
-        <v>1.666666666666667</v>
+        <v>0.8100000000000005</v>
       </c>
       <c r="BN78" t="n">
-        <v>0.8100000000000005</v>
+        <v>4.289999999999999</v>
       </c>
       <c r="BO78" t="n">
-        <v>4.289999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BP78" t="n">
-        <v>-2.31</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="BQ78" t="n">
-        <v>4.789999999999999</v>
+        <v>16.81949924127466</v>
+      </c>
+      <c r="BR78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS78" t="n">
+        <v>7.800987314423264</v>
       </c>
     </row>
     <row r="79">
@@ -16994,25 +17466,31 @@
         <v>21.43952319587641</v>
       </c>
       <c r="BK79" t="n">
-        <v>17.91458270106236</v>
+        <v>23.65002403846161</v>
       </c>
       <c r="BL79" t="n">
-        <v>23.65002403846161</v>
+        <v>0.3</v>
       </c>
       <c r="BM79" t="n">
-        <v>0.3</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="BN79" t="n">
-        <v>0.8999999999999986</v>
+        <v>1.190000000000001</v>
       </c>
       <c r="BO79" t="n">
-        <v>1.190000000000001</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BP79" t="n">
-        <v>-0.8100000000000005</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BQ79" t="n">
-        <v>2.600000000000001</v>
+        <v>19.1942943854326</v>
+      </c>
+      <c r="BR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS79" t="n">
+        <v>2.24522881044382</v>
       </c>
     </row>
     <row r="80">
@@ -17203,25 +17681,31 @@
         <v>17.91706786171587</v>
       </c>
       <c r="BK80" t="n">
-        <v>17.01598784194529</v>
+        <v>18.09553444180524</v>
       </c>
       <c r="BL80" t="n">
-        <v>18.09553444180524</v>
+        <v>0</v>
       </c>
       <c r="BM80" t="n">
-        <v>0</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BN80" t="n">
-        <v>0.4100000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="BO80" t="n">
-        <v>1.1</v>
+        <v>-1.199999999999999</v>
       </c>
       <c r="BP80" t="n">
-        <v>-1.199999999999999</v>
+        <v>-6.109999999999999</v>
       </c>
       <c r="BQ80" t="n">
-        <v>-6.109999999999999</v>
+        <v>15.0131458966566</v>
+      </c>
+      <c r="BR80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS80" t="n">
+        <v>2.903921965059267</v>
       </c>
     </row>
     <row r="81">
@@ -17412,25 +17896,31 @@
         <v>19.0313478819</v>
       </c>
       <c r="BK81" t="n">
-        <v>16.23823708206698</v>
+        <v>20.9015513126492</v>
       </c>
       <c r="BL81" t="n">
-        <v>20.9015513126492</v>
+        <v>0</v>
       </c>
       <c r="BM81" t="n">
-        <v>0</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BN81" t="n">
-        <v>0.2099999999999991</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BO81" t="n">
-        <v>2.289999999999999</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BP81" t="n">
-        <v>-1.609999999999999</v>
+        <v>-1.300000000000001</v>
       </c>
       <c r="BQ81" t="n">
-        <v>-1.300000000000001</v>
+        <v>16.0398589341693</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>2.991488947730709</v>
       </c>
     </row>
     <row r="82">
@@ -17621,25 +18111,31 @@
         <v>22.56907189542495</v>
       </c>
       <c r="BK82" t="n">
-        <v>15.59015649452272</v>
+        <v>25.00988123515448</v>
       </c>
       <c r="BL82" t="n">
-        <v>25.00988123515448</v>
+        <v>1.25</v>
       </c>
       <c r="BM82" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="BN82" t="n">
-        <v>1</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="BO82" t="n">
-        <v>5.300000000000001</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BP82" t="n">
-        <v>-4.199999999999999</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BQ82" t="n">
-        <v>1.289999999999999</v>
+        <v>15.31429237947126</v>
+      </c>
+      <c r="BR82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS82" t="n">
+        <v>7.254779515953688</v>
       </c>
     </row>
     <row r="83">
@@ -17830,25 +18326,31 @@
         <v>22.47946123521692</v>
       </c>
       <c r="BK83" t="n">
-        <v>15.4879968454259</v>
+        <v>24.6664370546319</v>
       </c>
       <c r="BL83" t="n">
-        <v>24.6664370546319</v>
+        <v>1.8</v>
       </c>
       <c r="BM83" t="n">
-        <v>1.8</v>
+        <v>1.19</v>
       </c>
       <c r="BN83" t="n">
-        <v>1.19</v>
+        <v>4.710000000000001</v>
       </c>
       <c r="BO83" t="n">
-        <v>4.710000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="BP83" t="n">
-        <v>-3.5</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BQ83" t="n">
-        <v>0.2899999999999991</v>
+        <v>15.64586092715226</v>
+      </c>
+      <c r="BR83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS83" t="n">
+        <v>6.833600308064666</v>
       </c>
     </row>
     <row r="84">
@@ -18039,25 +18541,31 @@
         <v>22.51551769331599</v>
       </c>
       <c r="BK84" t="n">
-        <v>15.87220228385</v>
+        <v>24.7381472684086</v>
       </c>
       <c r="BL84" t="n">
-        <v>24.7381472684086</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="BM84" t="n">
-        <v>5.333333333333333</v>
+        <v>1.110000000000001</v>
       </c>
       <c r="BN84" t="n">
-        <v>1.110000000000001</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BO84" t="n">
-        <v>2.289999999999999</v>
+        <v>-2.81</v>
       </c>
       <c r="BP84" t="n">
-        <v>-2.81</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BQ84" t="n">
-        <v>1.600000000000001</v>
+        <v>16.24518518518514</v>
+      </c>
+      <c r="BR84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS84" t="n">
+        <v>6.270332508130856</v>
       </c>
     </row>
     <row r="85">
@@ -18248,25 +18756,31 @@
         <v>21.4560691421256</v>
       </c>
       <c r="BK85" t="n">
-        <v>15.36253289473688</v>
+        <v>23.7831591448932</v>
       </c>
       <c r="BL85" t="n">
-        <v>23.7831591448932</v>
+        <v>1.35</v>
       </c>
       <c r="BM85" t="n">
-        <v>1.35</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="BN85" t="n">
-        <v>1.299999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="BO85" t="n">
-        <v>4.5</v>
+        <v>-2.31</v>
       </c>
       <c r="BP85" t="n">
-        <v>-2.31</v>
+        <v>0</v>
       </c>
       <c r="BQ85" t="n">
-        <v>0</v>
+        <v>14.45275000000005</v>
+      </c>
+      <c r="BR85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS85" t="n">
+        <v>7.003319142125548</v>
       </c>
     </row>
     <row r="86">
@@ -18457,25 +18971,31 @@
         <v>22.75006402048669</v>
       </c>
       <c r="BK86" t="n">
-        <v>14.78124042879018</v>
+        <v>25.21292161520196</v>
       </c>
       <c r="BL86" t="n">
-        <v>25.21292161520196</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="BM86" t="n">
-        <v>0.9833333333333333</v>
+        <v>1.610000000000001</v>
       </c>
       <c r="BN86" t="n">
-        <v>1.610000000000001</v>
+        <v>4.710000000000001</v>
       </c>
       <c r="BO86" t="n">
-        <v>4.710000000000001</v>
+        <v>-4.31</v>
       </c>
       <c r="BP86" t="n">
-        <v>-4.31</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ86" t="n">
-        <v>1.890000000000001</v>
+        <v>16.36206373292879</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS86" t="n">
+        <v>6.388000287557897</v>
       </c>
     </row>
     <row r="87">
@@ -18666,25 +19186,31 @@
         <v>24.72256081946233</v>
       </c>
       <c r="BK87" t="n">
-        <v>17.68139605462834</v>
+        <v>26.21838479809984</v>
       </c>
       <c r="BL87" t="n">
-        <v>26.21838479809984</v>
+        <v>6.533333333333333</v>
       </c>
       <c r="BM87" t="n">
-        <v>6.533333333333333</v>
+        <v>1.599999999999998</v>
       </c>
       <c r="BN87" t="n">
-        <v>1.599999999999998</v>
+        <v>5.710000000000001</v>
       </c>
       <c r="BO87" t="n">
-        <v>5.710000000000001</v>
+        <v>-1</v>
       </c>
       <c r="BP87" t="n">
-        <v>-1</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BQ87" t="n">
-        <v>1.789999999999999</v>
+        <v>18.89962063732939</v>
+      </c>
+      <c r="BR87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS87" t="n">
+        <v>5.822940182132943</v>
       </c>
     </row>
     <row r="88">
@@ -18875,25 +19401,31 @@
         <v>24.84892445582599</v>
       </c>
       <c r="BK88" t="n">
-        <v>19.79468892261013</v>
+        <v>27.65885985748228</v>
       </c>
       <c r="BL88" t="n">
-        <v>27.65885985748228</v>
+        <v>3</v>
       </c>
       <c r="BM88" t="n">
-        <v>3</v>
+        <v>1.689999999999998</v>
       </c>
       <c r="BN88" t="n">
-        <v>1.689999999999998</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="BO88" t="n">
-        <v>6.100000000000001</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BP88" t="n">
-        <v>0.1000000000000014</v>
+        <v>6.399999999999999</v>
       </c>
       <c r="BQ88" t="n">
-        <v>6.399999999999999</v>
+        <v>20.53440060698022</v>
+      </c>
+      <c r="BR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS88" t="n">
+        <v>4.31452384884577</v>
       </c>
     </row>
     <row r="89">
@@ -19084,25 +19616,31 @@
         <v>22.5409603072985</v>
       </c>
       <c r="BK89" t="n">
-        <v>18.75109256449181</v>
+        <v>22.02738717339675</v>
       </c>
       <c r="BL89" t="n">
-        <v>22.02738717339675</v>
+        <v>0</v>
       </c>
       <c r="BM89" t="n">
-        <v>0</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BN89" t="n">
-        <v>0.3999999999999986</v>
+        <v>1.690000000000001</v>
       </c>
       <c r="BO89" t="n">
-        <v>1.690000000000001</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BP89" t="n">
-        <v>0.3900000000000006</v>
+        <v>2</v>
       </c>
       <c r="BQ89" t="n">
-        <v>2</v>
+        <v>16.44342723004696</v>
+      </c>
+      <c r="BR89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS89" t="n">
+        <v>6.097533077251537</v>
       </c>
     </row>
     <row r="90">
@@ -19293,25 +19831,31 @@
         <v>19.90496798975686</v>
       </c>
       <c r="BK90" t="n">
-        <v>16.19255086071993</v>
+        <v>21.18030878859862</v>
       </c>
       <c r="BL90" t="n">
-        <v>21.18030878859862</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="BM90" t="n">
-        <v>7.083333333333333</v>
+        <v>1.6</v>
       </c>
       <c r="BN90" t="n">
-        <v>1.6</v>
+        <v>3.41</v>
       </c>
       <c r="BO90" t="n">
-        <v>3.41</v>
+        <v>-2.5</v>
       </c>
       <c r="BP90" t="n">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="BQ90" t="n">
-        <v>-1.5</v>
+        <v>16.04312883435582</v>
+      </c>
+      <c r="BR90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS90" t="n">
+        <v>3.861839155401032</v>
       </c>
     </row>
     <row r="91">
@@ -19502,25 +20046,31 @@
         <v>22.45810499359808</v>
       </c>
       <c r="BK91" t="n">
-        <v>16.17458588957061</v>
+        <v>23.52064133016638</v>
       </c>
       <c r="BL91" t="n">
-        <v>23.52064133016638</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="BM91" t="n">
-        <v>1.266666666666667</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BN91" t="n">
-        <v>1.700000000000001</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="BO91" t="n">
-        <v>2.609999999999999</v>
+        <v>-1.31</v>
       </c>
       <c r="BP91" t="n">
-        <v>-1.31</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BQ91" t="n">
-        <v>0.3900000000000006</v>
+        <v>15.79842187499995</v>
+      </c>
+      <c r="BR91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS91" t="n">
+        <v>6.65968311859813</v>
       </c>
     </row>
     <row r="92">
@@ -19711,25 +20261,31 @@
         <v>23.66001280409742</v>
       </c>
       <c r="BK92" t="n">
-        <v>17.15320312500007</v>
+        <v>25.20266033254164</v>
       </c>
       <c r="BL92" t="n">
-        <v>25.20266033254164</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="BM92" t="n">
-        <v>3.016666666666667</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="BN92" t="n">
-        <v>2.200000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="BO92" t="n">
-        <v>3.91</v>
+        <v>-2.81</v>
       </c>
       <c r="BP92" t="n">
-        <v>-2.81</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BQ92" t="n">
-        <v>1.390000000000001</v>
+        <v>19.39248861912001</v>
+      </c>
+      <c r="BR92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS92" t="n">
+        <v>4.267524184977411</v>
       </c>
     </row>
     <row r="93">
@@ -19920,25 +20476,31 @@
         <v>20.39256081946232</v>
       </c>
       <c r="BK93" t="n">
-        <v>18.70169954476503</v>
+        <v>21.31596199524944</v>
       </c>
       <c r="BL93" t="n">
-        <v>21.31596199524944</v>
+        <v>0</v>
       </c>
       <c r="BM93" t="n">
-        <v>0</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BN93" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BO93" t="n">
-        <v>0.7899999999999991</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BP93" t="n">
-        <v>1.890000000000001</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BQ93" t="n">
-        <v>-3.609999999999999</v>
+        <v>18.6677389984826</v>
+      </c>
+      <c r="BR93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS93" t="n">
+        <v>1.724821820979713</v>
       </c>
     </row>
     <row r="94">
@@ -20129,25 +20691,31 @@
         <v>22.02359795134457</v>
       </c>
       <c r="BK94" t="n">
-        <v>18.25081942336888</v>
+        <v>23.63339667458443</v>
       </c>
       <c r="BL94" t="n">
-        <v>23.63339667458443</v>
+        <v>0</v>
       </c>
       <c r="BM94" t="n">
-        <v>0</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BN94" t="n">
-        <v>0.1999999999999993</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="BO94" t="n">
-        <v>5.109999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="BP94" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="BQ94" t="n">
-        <v>2</v>
+        <v>17.24515933232176</v>
+      </c>
+      <c r="BR94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS94" t="n">
+        <v>4.778438619022811</v>
       </c>
     </row>
     <row r="95">
@@ -20338,25 +20906,31 @@
         <v>22.29910371318836</v>
       </c>
       <c r="BK95" t="n">
-        <v>16.92978755690452</v>
+        <v>24.52679334916874</v>
       </c>
       <c r="BL95" t="n">
-        <v>24.52679334916874</v>
+        <v>8.183333333333334</v>
       </c>
       <c r="BM95" t="n">
-        <v>8.183333333333334</v>
+        <v>2.51</v>
       </c>
       <c r="BN95" t="n">
-        <v>2.51</v>
+        <v>4.900000000000002</v>
       </c>
       <c r="BO95" t="n">
-        <v>4.900000000000002</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="BP95" t="n">
-        <v>-0.3100000000000005</v>
+        <v>1</v>
       </c>
       <c r="BQ95" t="n">
-        <v>1</v>
+        <v>15.81735963581187</v>
+      </c>
+      <c r="BR95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS95" t="n">
+        <v>6.481744077376494</v>
       </c>
     </row>
     <row r="96">
@@ -20547,25 +21121,31 @@
         <v>22.25390524968002</v>
       </c>
       <c r="BK96" t="n">
-        <v>16.18561456752665</v>
+        <v>23.86185273159154</v>
       </c>
       <c r="BL96" t="n">
-        <v>23.86185273159154</v>
+        <v>7.383333333333334</v>
       </c>
       <c r="BM96" t="n">
-        <v>7.383333333333334</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BN96" t="n">
-        <v>2.789999999999999</v>
+        <v>3.190000000000001</v>
       </c>
       <c r="BO96" t="n">
-        <v>3.190000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="BP96" t="n">
-        <v>-2.5</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ96" t="n">
-        <v>0.1000000000000014</v>
+        <v>16.69001567398123</v>
+      </c>
+      <c r="BR96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS96" t="n">
+        <v>5.563889575698791</v>
       </c>
     </row>
     <row r="97">
@@ -20756,25 +21336,31 @@
         <v>22.02833333333351</v>
       </c>
       <c r="BK97" t="n">
-        <v>16.6503918495299</v>
+        <v>23.91211904761912</v>
       </c>
       <c r="BL97" t="n">
-        <v>23.91211904761912</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="BM97" t="n">
-        <v>7.833333333333333</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BN97" t="n">
-        <v>1.289999999999999</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BO97" t="n">
-        <v>3.890000000000001</v>
+        <v>-1.31</v>
       </c>
       <c r="BP97" t="n">
-        <v>-1.31</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="BQ97" t="n">
-        <v>-0.1099999999999994</v>
+        <v>17.50062215478016</v>
+      </c>
+      <c r="BR97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS97" t="n">
+        <v>4.52771117855335</v>
       </c>
     </row>
     <row r="98">
@@ -20965,25 +21551,31 @@
         <v>22.13020486555712</v>
       </c>
       <c r="BK98" t="n">
-        <v>17.23441578148718</v>
+        <v>23.51522565320673</v>
       </c>
       <c r="BL98" t="n">
-        <v>23.51522565320673</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="BM98" t="n">
-        <v>2.233333333333333</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="BN98" t="n">
-        <v>0.5999999999999979</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="BO98" t="n">
-        <v>3.399999999999999</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BP98" t="n">
-        <v>0.6000000000000014</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="BQ98" t="n">
-        <v>-0.1099999999999994</v>
+        <v>16.6784673748102</v>
+      </c>
+      <c r="BR98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS98" t="n">
+        <v>5.451737490746918</v>
       </c>
     </row>
     <row r="99">
@@ -21174,25 +21766,31 @@
         <v>18.67932138284266</v>
       </c>
       <c r="BK99" t="n">
-        <v>17.13121396054626</v>
+        <v>19.9597387173397</v>
       </c>
       <c r="BL99" t="n">
-        <v>19.9597387173397</v>
+        <v>0</v>
       </c>
       <c r="BM99" t="n">
-        <v>0</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BN99" t="n">
-        <v>0.5899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="BO99" t="n">
-        <v>0.5</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BP99" t="n">
-        <v>-0.6999999999999993</v>
+        <v>-1.800000000000001</v>
       </c>
       <c r="BQ99" t="n">
-        <v>-1.800000000000001</v>
+        <v>18.05499241274673</v>
+      </c>
+      <c r="BR99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS99" t="n">
+        <v>0.6243289700959274</v>
       </c>
     </row>
     <row r="100">
@@ -21383,25 +21981,31 @@
         <v>21.64094750320112</v>
       </c>
       <c r="BK100" t="n">
-        <v>17.34814701378258</v>
+        <v>23.31534441805234</v>
       </c>
       <c r="BL100" t="n">
-        <v>23.31534441805234</v>
+        <v>0</v>
       </c>
       <c r="BM100" t="n">
-        <v>0</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BN100" t="n">
-        <v>0.3999999999999986</v>
+        <v>5.810000000000002</v>
       </c>
       <c r="BO100" t="n">
-        <v>5.810000000000002</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BP100" t="n">
-        <v>-1.609999999999999</v>
+        <v>-0.3999999999999986</v>
       </c>
       <c r="BQ100" t="n">
-        <v>-0.3999999999999986</v>
+        <v>16.39788667687599</v>
+      </c>
+      <c r="BR100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS100" t="n">
+        <v>5.243060826325127</v>
       </c>
     </row>
     <row r="101">
@@ -21592,25 +22196,31 @@
         <v>23.33559539052506</v>
       </c>
       <c r="BK101" t="n">
-        <v>17.13732928679831</v>
+        <v>26.76603325415687</v>
       </c>
       <c r="BL101" t="n">
-        <v>26.76603325415687</v>
+        <v>4.683333333333334</v>
       </c>
       <c r="BM101" t="n">
-        <v>4.683333333333334</v>
+        <v>0.8099999999999987</v>
       </c>
       <c r="BN101" t="n">
-        <v>0.8099999999999987</v>
+        <v>5.5</v>
       </c>
       <c r="BO101" t="n">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="BP101" t="n">
-        <v>-1</v>
+        <v>2.390000000000001</v>
       </c>
       <c r="BQ101" t="n">
-        <v>2.390000000000001</v>
+        <v>16.69996965098639</v>
+      </c>
+      <c r="BR101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS101" t="n">
+        <v>6.635625739538671</v>
       </c>
     </row>
     <row r="102">
@@ -21801,25 +22411,31 @@
         <v>25.18618437900138</v>
       </c>
       <c r="BK102" t="n">
-        <v>18.68492401215823</v>
+        <v>27.66489311163902</v>
       </c>
       <c r="BL102" t="n">
-        <v>27.66489311163902</v>
+        <v>4</v>
       </c>
       <c r="BM102" t="n">
-        <v>4</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BN102" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>-2</v>
+      </c>
+      <c r="BP102" t="n">
         <v>3.890000000000001</v>
       </c>
-      <c r="BO102" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="BP102" t="n">
-        <v>-2</v>
-      </c>
       <c r="BQ102" t="n">
-        <v>3.890000000000001</v>
+        <v>22.43121580547126</v>
+      </c>
+      <c r="BR102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS102" t="n">
+        <v>2.754968573530114</v>
       </c>
     </row>
     <row r="103">
@@ -22010,25 +22626,31 @@
         <v>25.28376440460968</v>
       </c>
       <c r="BK103" t="n">
-        <v>22.98754172989379</v>
+        <v>25.52864608076018</v>
       </c>
       <c r="BL103" t="n">
-        <v>25.52864608076018</v>
+        <v>0</v>
       </c>
       <c r="BM103" t="n">
-        <v>0</v>
+        <v>1.899999999999999</v>
       </c>
       <c r="BN103" t="n">
-        <v>1.899999999999999</v>
+        <v>0.6900000000000013</v>
       </c>
       <c r="BO103" t="n">
-        <v>0.6900000000000013</v>
+        <v>5.789999999999999</v>
       </c>
       <c r="BP103" t="n">
-        <v>5.789999999999999</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BQ103" t="n">
-        <v>0.6000000000000014</v>
+        <v>24.01223065250389</v>
+      </c>
+      <c r="BR103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS103" t="n">
+        <v>1.271533752105796</v>
       </c>
     </row>
     <row r="104">
@@ -22219,25 +22841,31 @@
         <v>25.74430217669663</v>
       </c>
       <c r="BK104" t="n">
-        <v>23.76723823975739</v>
+        <v>26.1519477434681</v>
       </c>
       <c r="BL104" t="n">
-        <v>26.1519477434681</v>
+        <v>0</v>
       </c>
       <c r="BM104" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN104" t="n">
-        <v>0.5</v>
+        <v>0.6900000000000013</v>
       </c>
       <c r="BO104" t="n">
-        <v>0.6900000000000013</v>
+        <v>6.289999999999999</v>
       </c>
       <c r="BP104" t="n">
-        <v>6.289999999999999</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BQ104" t="n">
-        <v>2.289999999999999</v>
+        <v>22.44719271623684</v>
+      </c>
+      <c r="BR104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS104" t="n">
+        <v>3.297109460459794</v>
       </c>
     </row>
     <row r="105">
@@ -22428,25 +23056,31 @@
         <v>22.929295774648</v>
       </c>
       <c r="BK105" t="n">
-        <v>21.10952887538003</v>
+        <v>23.41591448931124</v>
       </c>
       <c r="BL105" t="n">
-        <v>23.41591448931124</v>
+        <v>0</v>
       </c>
       <c r="BM105" t="n">
-        <v>0</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN105" t="n">
-        <v>0.3000000000000007</v>
+        <v>2.210000000000001</v>
       </c>
       <c r="BO105" t="n">
-        <v>2.210000000000001</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BP105" t="n">
-        <v>3.890000000000001</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ105" t="n">
-        <v>0.1000000000000014</v>
+        <v>19.50302431610953</v>
+      </c>
+      <c r="BR105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS105" t="n">
+        <v>3.426271458538466</v>
       </c>
     </row>
     <row r="106">
@@ -22637,25 +23271,31 @@
         <v>23.15533930857884</v>
       </c>
       <c r="BK106" t="n">
-        <v>17.98253414264038</v>
+        <v>25.87748218527326</v>
       </c>
       <c r="BL106" t="n">
-        <v>25.87748218527326</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="BM106" t="n">
-        <v>5.916666666666667</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BN106" t="n">
-        <v>2.100000000000001</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="BO106" t="n">
-        <v>6.699999999999999</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="BP106" t="n">
-        <v>-0.9000000000000004</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ106" t="n">
-        <v>1.890000000000001</v>
+        <v>15.27261001517447</v>
+      </c>
+      <c r="BR106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS106" t="n">
+        <v>7.882729293404365</v>
       </c>
     </row>
     <row r="107">
@@ -22846,25 +23486,31 @@
         <v>22.58550576184392</v>
       </c>
       <c r="BK107" t="n">
-        <v>15.51295902883159</v>
+        <v>23.80349168646089</v>
       </c>
       <c r="BL107" t="n">
-        <v>23.80349168646089</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="BM107" t="n">
-        <v>4.733333333333333</v>
+        <v>5.789999999999999</v>
       </c>
       <c r="BN107" t="n">
-        <v>5.789999999999999</v>
+        <v>7.289999999999999</v>
       </c>
       <c r="BO107" t="n">
-        <v>7.289999999999999</v>
+        <v>-3.5</v>
       </c>
       <c r="BP107" t="n">
-        <v>-3.5</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BQ107" t="n">
-        <v>0.8900000000000006</v>
+        <v>15.56637329286797</v>
+      </c>
+      <c r="BR107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS107" t="n">
+        <v>7.019132468975954</v>
       </c>
     </row>
     <row r="108">
@@ -23055,25 +23701,31 @@
         <v>23.3896286811781</v>
       </c>
       <c r="BK108" t="n">
-        <v>15.43464339908958</v>
+        <v>25.4924703087887</v>
       </c>
       <c r="BL108" t="n">
-        <v>25.4924703087887</v>
+        <v>7.116666666666666</v>
       </c>
       <c r="BM108" t="n">
-        <v>7.116666666666666</v>
+        <v>5.710000000000001</v>
       </c>
       <c r="BN108" t="n">
-        <v>5.710000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="BO108" t="n">
-        <v>4.5</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BP108" t="n">
-        <v>-3.609999999999999</v>
+        <v>2</v>
       </c>
       <c r="BQ108" t="n">
-        <v>2</v>
+        <v>15.74641881638856</v>
+      </c>
+      <c r="BR108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS108" t="n">
+        <v>7.64320986478954</v>
       </c>
     </row>
     <row r="109">
@@ -23264,25 +23916,31 @@
         <v>22.75243277848924</v>
       </c>
       <c r="BK109" t="n">
-        <v>16.89132018209414</v>
+        <v>23.58268408551077</v>
       </c>
       <c r="BL109" t="n">
-        <v>23.58268408551077</v>
+        <v>0.65</v>
       </c>
       <c r="BM109" t="n">
-        <v>0.65</v>
+        <v>3.51</v>
       </c>
       <c r="BN109" t="n">
-        <v>3.51</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BO109" t="n">
-        <v>1.399999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BP109" t="n">
-        <v>-2.31</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BQ109" t="n">
-        <v>0.3900000000000006</v>
+        <v>19.55213960546307</v>
+      </c>
+      <c r="BR109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS109" t="n">
+        <v>3.200293173026164</v>
       </c>
     </row>
     <row r="110">
@@ -23473,25 +24131,31 @@
         <v>25.03174135723445</v>
       </c>
       <c r="BK110" t="n">
-        <v>17.89585735963582</v>
+        <v>26.45076009501195</v>
       </c>
       <c r="BL110" t="n">
-        <v>26.45076009501195</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="BM110" t="n">
-        <v>3.133333333333333</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="BN110" t="n">
-        <v>0.6899999999999977</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="BO110" t="n">
-        <v>5.600000000000001</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BP110" t="n">
-        <v>-2.609999999999999</v>
+        <v>3</v>
       </c>
       <c r="BQ110" t="n">
-        <v>3</v>
+        <v>13.97939301972692</v>
+      </c>
+      <c r="BR110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS110" t="n">
+        <v>11.05234833750753</v>
       </c>
     </row>
     <row r="111">
@@ -23682,25 +24346,31 @@
         <v>23.25815620998729</v>
       </c>
       <c r="BK111" t="n">
-        <v>14.42921092564497</v>
+        <v>25.91285035629463</v>
       </c>
       <c r="BL111" t="n">
-        <v>25.91285035629463</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="BM111" t="n">
-        <v>0.7166666666666667</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="BN111" t="n">
-        <v>5.200000000000001</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="BO111" t="n">
-        <v>5.600000000000001</v>
+        <v>-5.31</v>
       </c>
       <c r="BP111" t="n">
-        <v>-5.31</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BQ111" t="n">
-        <v>1.699999999999999</v>
+        <v>14.81980273141129</v>
+      </c>
+      <c r="BR111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS111" t="n">
+        <v>8.438353478575998</v>
       </c>
     </row>
     <row r="112">
@@ -23891,25 +24561,31 @@
         <v>24.51446153846165</v>
       </c>
       <c r="BK112" t="n">
-        <v>15.3440515933233</v>
+        <v>26.47589073634215</v>
       </c>
       <c r="BL112" t="n">
-        <v>26.47589073634215</v>
+        <v>4.55</v>
       </c>
       <c r="BM112" t="n">
-        <v>4.55</v>
+        <v>6.109999999999999</v>
       </c>
       <c r="BN112" t="n">
-        <v>6.109999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="BO112" t="n">
-        <v>4.5</v>
+        <v>-4.609999999999999</v>
       </c>
       <c r="BP112" t="n">
-        <v>-4.609999999999999</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BQ112" t="n">
-        <v>2.890000000000001</v>
+        <v>15.91323216995444</v>
+      </c>
+      <c r="BR112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS112" t="n">
+        <v>8.601229368507211</v>
       </c>
     </row>
     <row r="113">
@@ -24100,25 +24776,31 @@
         <v>26.61270942408389</v>
       </c>
       <c r="BK113" t="n">
-        <v>14.31475195822457</v>
+        <v>30.23992574257444</v>
       </c>
       <c r="BL113" t="n">
-        <v>30.23992574257444</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="BM113" t="n">
-        <v>3.283333333333333</v>
+        <v>5.989999999999998</v>
       </c>
       <c r="BN113" t="n">
-        <v>5.989999999999998</v>
+        <v>6.5</v>
       </c>
       <c r="BO113" t="n">
-        <v>6.5</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BP113" t="n">
-        <v>-3.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="BQ113" t="n">
-        <v>6</v>
+        <v>17.34344647519583</v>
+      </c>
+      <c r="BR113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS113" t="n">
+        <v>9.269262948888052</v>
       </c>
     </row>
     <row r="114">
@@ -24309,25 +24991,31 @@
         <v>22.93806658130613</v>
       </c>
       <c r="BK114" t="n">
-        <v>17.77338391502289</v>
+        <v>24.41567695962004</v>
       </c>
       <c r="BL114" t="n">
-        <v>24.41567695962004</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="BM114" t="n">
-        <v>0.3166666666666667</v>
+        <v>2</v>
       </c>
       <c r="BN114" t="n">
-        <v>2</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="BO114" t="n">
-        <v>2.609999999999999</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BP114" t="n">
-        <v>0.3900000000000006</v>
+        <v>0</v>
       </c>
       <c r="BQ114" t="n">
-        <v>0</v>
+        <v>17.13145675265553</v>
+      </c>
+      <c r="BR114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS114" t="n">
+        <v>5.806609828650604</v>
       </c>
     </row>
     <row r="115">
@@ -24518,25 +25206,31 @@
         <v>26.76759282970563</v>
       </c>
       <c r="BK115" t="n">
-        <v>18.02045523520496</v>
+        <v>29.26619952494072</v>
       </c>
       <c r="BL115" t="n">
-        <v>29.26619952494072</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="BM115" t="n">
-        <v>7.816666666666666</v>
+        <v>4.51</v>
       </c>
       <c r="BN115" t="n">
-        <v>4.51</v>
+        <v>3.91</v>
       </c>
       <c r="BO115" t="n">
-        <v>3.91</v>
+        <v>-1.81</v>
       </c>
       <c r="BP115" t="n">
-        <v>-1.81</v>
+        <v>5.789999999999999</v>
       </c>
       <c r="BQ115" t="n">
-        <v>5.789999999999999</v>
+        <v>19.16467374810338</v>
+      </c>
+      <c r="BR115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS115" t="n">
+        <v>7.602919081602252</v>
       </c>
     </row>
     <row r="116">
@@ -24727,25 +25421,31 @@
         <v>26.31527528809224</v>
       </c>
       <c r="BK116" t="n">
-        <v>19.73537177541739</v>
+        <v>27.90133016627088</v>
       </c>
       <c r="BL116" t="n">
-        <v>27.90133016627088</v>
+        <v>0</v>
       </c>
       <c r="BM116" t="n">
-        <v>0</v>
+        <v>2.710000000000001</v>
       </c>
       <c r="BN116" t="n">
-        <v>2.710000000000001</v>
+        <v>2</v>
       </c>
       <c r="BO116" t="n">
-        <v>2</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BP116" t="n">
-        <v>1.390000000000001</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="BQ116" t="n">
-        <v>4.100000000000001</v>
+        <v>21.56270106221562</v>
+      </c>
+      <c r="BR116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS116" t="n">
+        <v>4.752574225876621</v>
       </c>
     </row>
     <row r="117">
@@ -24936,25 +25636,31 @@
         <v>25.33363636363648</v>
       </c>
       <c r="BK117" t="n">
-        <v>19.97566009104717</v>
+        <v>26.81377672209037</v>
       </c>
       <c r="BL117" t="n">
-        <v>26.81377672209037</v>
+        <v>0</v>
       </c>
       <c r="BM117" t="n">
-        <v>0</v>
+        <v>1.189999999999998</v>
       </c>
       <c r="BN117" t="n">
-        <v>1.189999999999998</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="BO117" t="n">
-        <v>6.100000000000001</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="BP117" t="n">
-        <v>-0.1099999999999994</v>
+        <v>2.390000000000001</v>
       </c>
       <c r="BQ117" t="n">
-        <v>2.390000000000001</v>
+        <v>16.21447647951436</v>
+      </c>
+      <c r="BR117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS117" t="n">
+        <v>9.119159884122116</v>
       </c>
     </row>
     <row r="118">
@@ -25145,25 +25851,31 @@
         <v>25.7898463508324</v>
       </c>
       <c r="BK118" t="n">
-        <v>16.77408194233701</v>
+        <v>28.74921615201915</v>
       </c>
       <c r="BL118" t="n">
-        <v>28.74921615201915</v>
+        <v>7</v>
       </c>
       <c r="BM118" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="BN118" t="n">
-        <v>5.1</v>
+        <v>6.5</v>
       </c>
       <c r="BO118" t="n">
-        <v>6.5</v>
+        <v>-2.81</v>
       </c>
       <c r="BP118" t="n">
-        <v>-2.81</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="BQ118" t="n">
-        <v>4.100000000000001</v>
+        <v>17.52610015174505</v>
+      </c>
+      <c r="BR118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS118" t="n">
+        <v>8.26374619908735</v>
       </c>
     </row>
     <row r="119">
@@ -25354,25 +26066,31 @@
         <v>28.85509603072996</v>
       </c>
       <c r="BK119" t="n">
-        <v>17.39039453717762</v>
+        <v>32.28292161520196</v>
       </c>
       <c r="BL119" t="n">
-        <v>32.28292161520196</v>
+        <v>2.483333333333333</v>
       </c>
       <c r="BM119" t="n">
-        <v>2.483333333333333</v>
+        <v>5.1</v>
       </c>
       <c r="BN119" t="n">
-        <v>5.1</v>
+        <v>8.400000000000002</v>
       </c>
       <c r="BO119" t="n">
-        <v>8.400000000000002</v>
+        <v>-1.31</v>
       </c>
       <c r="BP119" t="n">
-        <v>-1.31</v>
+        <v>8.590000000000003</v>
       </c>
       <c r="BQ119" t="n">
-        <v>8.590000000000003</v>
+        <v>16.63989377845213</v>
+      </c>
+      <c r="BR119" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BS119" t="n">
+        <v>12.21520225227783</v>
       </c>
     </row>
     <row r="120">
@@ -25563,25 +26281,31 @@
         <v>28.63277848911669</v>
       </c>
       <c r="BK120" t="n">
-        <v>16.78118361153273</v>
+        <v>32.30966745843246</v>
       </c>
       <c r="BL120" t="n">
-        <v>32.30966745843246</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="BM120" t="n">
-        <v>2.716666666666667</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="BN120" t="n">
-        <v>5.399999999999999</v>
+        <v>8</v>
       </c>
       <c r="BO120" t="n">
-        <v>8</v>
+        <v>-2.699999999999999</v>
       </c>
       <c r="BP120" t="n">
-        <v>-2.699999999999999</v>
+        <v>8.200000000000003</v>
       </c>
       <c r="BQ120" t="n">
-        <v>8.200000000000003</v>
+        <v>17.07758725341424</v>
+      </c>
+      <c r="BR120" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="BS120" t="n">
+        <v>11.55519123570245</v>
       </c>
     </row>
     <row r="121">
@@ -25772,25 +26496,31 @@
         <v>28.05345710627412</v>
       </c>
       <c r="BK121" t="n">
-        <v>17.6241274658575</v>
+        <v>31.78002375296919</v>
       </c>
       <c r="BL121" t="n">
-        <v>31.78002375296919</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="BM121" t="n">
-        <v>2.233333333333333</v>
+        <v>4.790000000000001</v>
       </c>
       <c r="BN121" t="n">
-        <v>4.790000000000001</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="BO121" t="n">
-        <v>6.600000000000001</v>
+        <v>-1.9</v>
       </c>
       <c r="BP121" t="n">
-        <v>-1.9</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="BQ121" t="n">
-        <v>7.399999999999999</v>
+        <v>18.30799696509875</v>
+      </c>
+      <c r="BR121" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BS121" t="n">
+        <v>9.745460141175379</v>
       </c>
     </row>
     <row r="122">
@@ -25981,25 +26711,31 @@
         <v>25.94507042253532</v>
       </c>
       <c r="BK122" t="n">
-        <v>18.47975720789085</v>
+        <v>27.68741092636593</v>
       </c>
       <c r="BL122" t="n">
-        <v>27.68741092636593</v>
+        <v>6.2</v>
       </c>
       <c r="BM122" t="n">
-        <v>6.2</v>
+        <v>2.290000000000001</v>
       </c>
       <c r="BN122" t="n">
-        <v>2.290000000000001</v>
+        <v>3.099999999999998</v>
       </c>
       <c r="BO122" t="n">
-        <v>3.099999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="BP122" t="n">
-        <v>-0.5</v>
+        <v>4.890000000000001</v>
       </c>
       <c r="BQ122" t="n">
-        <v>4.890000000000001</v>
+        <v>20.02786039453742</v>
+      </c>
+      <c r="BR122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS122" t="n">
+        <v>5.917210027997893</v>
       </c>
     </row>
     <row r="123">
@@ -26190,25 +26926,31 @@
         <v>27.52912932138292</v>
       </c>
       <c r="BK123" t="n">
-        <v>19.8781335356602</v>
+        <v>29.02294536817116</v>
       </c>
       <c r="BL123" t="n">
-        <v>29.02294536817116</v>
+        <v>3.55</v>
       </c>
       <c r="BM123" t="n">
-        <v>3.55</v>
+        <v>2.189999999999998</v>
       </c>
       <c r="BN123" t="n">
-        <v>2.189999999999998</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="BO123" t="n">
-        <v>5.100000000000001</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BP123" t="n">
-        <v>2.600000000000001</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="BQ123" t="n">
-        <v>5.199999999999999</v>
+        <v>19.38450682852814</v>
+      </c>
+      <c r="BR123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS123" t="n">
+        <v>8.144622492854786</v>
       </c>
     </row>
     <row r="124">
@@ -26399,25 +27141,31 @@
         <v>27.67641025641033</v>
       </c>
       <c r="BK124" t="n">
-        <v>19.93241641337399</v>
+        <v>30.2428028503564</v>
       </c>
       <c r="BL124" t="n">
-        <v>30.2428028503564</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="BM124" t="n">
-        <v>0.7833333333333333</v>
+        <v>2.210000000000001</v>
       </c>
       <c r="BN124" t="n">
-        <v>2.210000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="BO124" t="n">
-        <v>5.59</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BP124" t="n">
-        <v>1.289999999999999</v>
+        <v>5.890000000000001</v>
       </c>
       <c r="BQ124" t="n">
-        <v>5.890000000000001</v>
+        <v>20.57220364741651</v>
+      </c>
+      <c r="BR124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS124" t="n">
+        <v>7.104206608993817</v>
       </c>
     </row>
     <row r="125">
@@ -26608,25 +27356,31 @@
         <v>27.07916773367485</v>
       </c>
       <c r="BK125" t="n">
-        <v>20.53915022761774</v>
+        <v>30.50489311163907</v>
       </c>
       <c r="BL125" t="n">
-        <v>30.50489311163907</v>
+        <v>0</v>
       </c>
       <c r="BM125" t="n">
-        <v>0</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="BN125" t="n">
-        <v>0.9000000000000021</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="BO125" t="n">
-        <v>5.300000000000001</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BP125" t="n">
-        <v>2.289999999999999</v>
+        <v>6.090000000000003</v>
       </c>
       <c r="BQ125" t="n">
-        <v>6.090000000000003</v>
+        <v>20.50192716236741</v>
+      </c>
+      <c r="BR125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS125" t="n">
+        <v>6.577240571307435</v>
       </c>
     </row>
     <row r="126">
@@ -26817,25 +27571,31 @@
         <v>25.88131882202315</v>
       </c>
       <c r="BK126" t="n">
-        <v>19.87913505311088</v>
+        <v>28.52247030878871</v>
       </c>
       <c r="BL126" t="n">
-        <v>28.52247030878871</v>
+        <v>0</v>
       </c>
       <c r="BM126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN126" t="n">
-        <v>1</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BO126" t="n">
-        <v>3.890000000000001</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BP126" t="n">
-        <v>2.289999999999999</v>
+        <v>4.699999999999999</v>
       </c>
       <c r="BQ126" t="n">
-        <v>4.699999999999999</v>
+        <v>18.85535660091056</v>
+      </c>
+      <c r="BR126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS126" t="n">
+        <v>7.025962221112589</v>
       </c>
     </row>
     <row r="127">
@@ -27026,25 +27786,31 @@
         <v>27.49868117797702</v>
       </c>
       <c r="BK127" t="n">
-        <v>19.66157814871029</v>
+        <v>29.31007125890752</v>
       </c>
       <c r="BL127" t="n">
-        <v>29.31007125890752</v>
+        <v>0.4</v>
       </c>
       <c r="BM127" t="n">
-        <v>0.4</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BN127" t="n">
-        <v>3.600000000000001</v>
+        <v>2.710000000000001</v>
       </c>
       <c r="BO127" t="n">
-        <v>2.710000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="BP127" t="n">
-        <v>0.5</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="BQ127" t="n">
-        <v>6.899999999999999</v>
+        <v>21.17606980273156</v>
+      </c>
+      <c r="BR127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS127" t="n">
+        <v>6.322611375245458</v>
       </c>
     </row>
     <row r="128">
@@ -27235,25 +28001,31 @@
         <v>25.42124199743933</v>
       </c>
       <c r="BK128" t="n">
-        <v>21.15194233687416</v>
+        <v>26.33524940617596</v>
       </c>
       <c r="BL128" t="n">
-        <v>26.33524940617596</v>
+        <v>0</v>
       </c>
       <c r="BM128" t="n">
-        <v>0</v>
+        <v>2.690000000000001</v>
       </c>
       <c r="BN128" t="n">
-        <v>2.690000000000001</v>
+        <v>1</v>
       </c>
       <c r="BO128" t="n">
-        <v>1</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="BP128" t="n">
-        <v>3.199999999999999</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BQ128" t="n">
-        <v>3.100000000000001</v>
+        <v>21.43578148710178</v>
+      </c>
+      <c r="BR128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS128" t="n">
+        <v>3.98546051033755</v>
       </c>
     </row>
     <row r="129">
@@ -27444,25 +28216,31 @@
         <v>24.10299615877091</v>
       </c>
       <c r="BK129" t="n">
-        <v>20.6298786039455</v>
+        <v>25.04985748218536</v>
       </c>
       <c r="BL129" t="n">
-        <v>25.04985748218536</v>
+        <v>0</v>
       </c>
       <c r="BM129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN129" t="n">
-        <v>1</v>
+        <v>4.59</v>
       </c>
       <c r="BO129" t="n">
-        <v>4.59</v>
+        <v>3.289999999999999</v>
       </c>
       <c r="BP129" t="n">
-        <v>3.289999999999999</v>
+        <v>3</v>
       </c>
       <c r="BQ129" t="n">
-        <v>3</v>
+        <v>20.05004552352068</v>
+      </c>
+      <c r="BR129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS129" t="n">
+        <v>4.052950635250227</v>
       </c>
     </row>
     <row r="130">
@@ -27653,25 +28431,31 @@
         <v>24.59604353393099</v>
       </c>
       <c r="BK130" t="n">
-        <v>19.42769347496216</v>
+        <v>26.0004513064134</v>
       </c>
       <c r="BL130" t="n">
-        <v>26.0004513064134</v>
+        <v>0</v>
       </c>
       <c r="BM130" t="n">
-        <v>0</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BN130" t="n">
-        <v>0.8000000000000007</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="BO130" t="n">
-        <v>4.899999999999999</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BP130" t="n">
-        <v>1.100000000000001</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ130" t="n">
-        <v>1.890000000000001</v>
+        <v>17.6214719271624</v>
+      </c>
+      <c r="BR130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS130" t="n">
+        <v>6.974571606768595</v>
       </c>
     </row>
     <row r="131">
@@ -27862,25 +28646,31 @@
         <v>25.6624518613608</v>
       </c>
       <c r="BK131" t="n">
-        <v>18.44820940819424</v>
+        <v>28.01214285714294</v>
       </c>
       <c r="BL131" t="n">
-        <v>28.01214285714294</v>
+        <v>0</v>
       </c>
       <c r="BM131" t="n">
-        <v>0</v>
+        <v>2.309999999999999</v>
       </c>
       <c r="BN131" t="n">
-        <v>2.309999999999999</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BO131" t="n">
-        <v>3.100000000000001</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BP131" t="n">
-        <v>-0.6999999999999993</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="BQ131" t="n">
-        <v>4.390000000000001</v>
+        <v>20.54437025796674</v>
+      </c>
+      <c r="BR131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS131" t="n">
+        <v>5.118081603394057</v>
       </c>
     </row>
     <row r="132">
@@ -28071,25 +28861,31 @@
         <v>26.96169014084516</v>
       </c>
       <c r="BK132" t="n">
-        <v>21.82372340425543</v>
+        <v>29.91204275534452</v>
       </c>
       <c r="BL132" t="n">
-        <v>29.91204275534452</v>
+        <v>0</v>
       </c>
       <c r="BM132" t="n">
-        <v>0</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="BN132" t="n">
-        <v>0.6899999999999977</v>
+        <v>4</v>
       </c>
       <c r="BO132" t="n">
-        <v>4</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="BP132" t="n">
-        <v>3.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="BQ132" t="n">
-        <v>6</v>
+        <v>21.69738601823718</v>
+      </c>
+      <c r="BR132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS132" t="n">
+        <v>5.264304122607985</v>
       </c>
     </row>
     <row r="133">
@@ -28280,25 +29076,31 @@
         <v>26.66532650448153</v>
       </c>
       <c r="BK133" t="n">
-        <v>20.44553869499253</v>
+        <v>28.95624703087894</v>
       </c>
       <c r="BL133" t="n">
-        <v>28.95624703087894</v>
+        <v>2.95</v>
       </c>
       <c r="BM133" t="n">
-        <v>2.95</v>
+        <v>1.5</v>
       </c>
       <c r="BN133" t="n">
-        <v>1.5</v>
+        <v>4.400000000000002</v>
       </c>
       <c r="BO133" t="n">
-        <v>4.400000000000002</v>
+        <v>2.390000000000001</v>
       </c>
       <c r="BP133" t="n">
-        <v>2.390000000000001</v>
+        <v>4.890000000000001</v>
       </c>
       <c r="BQ133" t="n">
-        <v>4.890000000000001</v>
+        <v>18.74349013657073</v>
+      </c>
+      <c r="BR133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS133" t="n">
+        <v>7.921836367910796</v>
       </c>
     </row>
     <row r="134">
@@ -28489,25 +29291,31 @@
         <v>26.87051216389258</v>
       </c>
       <c r="BK134" t="n">
-        <v>18.55619119878614</v>
+        <v>29.75000000000014</v>
       </c>
       <c r="BL134" t="n">
-        <v>29.75000000000014</v>
+        <v>4.983333333333333</v>
       </c>
       <c r="BM134" t="n">
-        <v>4.983333333333333</v>
+        <v>2.9</v>
       </c>
       <c r="BN134" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="BO134" t="n">
-        <v>6.5</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BP134" t="n">
-        <v>-0.4000000000000004</v>
+        <v>5.789999999999999</v>
       </c>
       <c r="BQ134" t="n">
-        <v>5.789999999999999</v>
+        <v>18.93751138088024</v>
+      </c>
+      <c r="BR134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS134" t="n">
+        <v>7.933000783012343</v>
       </c>
     </row>
     <row r="135">
@@ -28698,25 +29506,31 @@
         <v>26.50431498079399</v>
       </c>
       <c r="BK135" t="n">
-        <v>19.75553869499248</v>
+        <v>29.09743467933507</v>
       </c>
       <c r="BL135" t="n">
-        <v>29.09743467933507</v>
+        <v>0</v>
       </c>
       <c r="BM135" t="n">
-        <v>0</v>
+        <v>2.599999999999998</v>
       </c>
       <c r="BN135" t="n">
-        <v>2.599999999999998</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BO135" t="n">
-        <v>3.300000000000001</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BP135" t="n">
-        <v>0.3900000000000006</v>
+        <v>5.890000000000001</v>
       </c>
       <c r="BQ135" t="n">
-        <v>5.890000000000001</v>
+        <v>21.01130699088166</v>
+      </c>
+      <c r="BR135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS135" t="n">
+        <v>5.493007989912325</v>
       </c>
     </row>
     <row r="136">
@@ -28907,25 +29721,31 @@
         <v>28.55211267605646</v>
       </c>
       <c r="BK136" t="n">
-        <v>20.52123100303963</v>
+        <v>30.35296912114028</v>
       </c>
       <c r="BL136" t="n">
-        <v>30.35296912114028</v>
+        <v>0</v>
       </c>
       <c r="BM136" t="n">
-        <v>0</v>
+        <v>2.900000000000002</v>
       </c>
       <c r="BN136" t="n">
-        <v>2.900000000000002</v>
+        <v>4.699999999999999</v>
       </c>
       <c r="BO136" t="n">
-        <v>4.699999999999999</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BP136" t="n">
-        <v>2.789999999999999</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="BQ136" t="n">
-        <v>6.899999999999999</v>
+        <v>19.5394081942338</v>
+      </c>
+      <c r="BR136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS136" t="n">
+        <v>9.012704481822652</v>
       </c>
     </row>
     <row r="137">
@@ -29116,25 +29936,31 @@
         <v>23.39057618437911</v>
       </c>
       <c r="BK137" t="n">
-        <v>19.37603945371787</v>
+        <v>24.92235154394307</v>
       </c>
       <c r="BL137" t="n">
-        <v>24.92235154394307</v>
+        <v>0</v>
       </c>
       <c r="BM137" t="n">
-        <v>0</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="BN137" t="n">
-        <v>1.710000000000001</v>
+        <v>1.690000000000001</v>
       </c>
       <c r="BO137" t="n">
-        <v>1.690000000000001</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BP137" t="n">
-        <v>1.289999999999999</v>
+        <v>-0.2100000000000009</v>
       </c>
       <c r="BQ137" t="n">
-        <v>-0.2100000000000009</v>
+        <v>20.23571428571444</v>
+      </c>
+      <c r="BR137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS137" t="n">
+        <v>3.154861898664677</v>
       </c>
     </row>
     <row r="138">
@@ -29325,25 +30151,31 @@
         <v>27.0839948783611</v>
       </c>
       <c r="BK138" t="n">
-        <v>20.32603343465057</v>
+        <v>29.53275534441821</v>
       </c>
       <c r="BL138" t="n">
-        <v>29.53275534441821</v>
+        <v>0</v>
       </c>
       <c r="BM138" t="n">
-        <v>0</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="BN138" t="n">
-        <v>1.800000000000001</v>
+        <v>4.809999999999999</v>
       </c>
       <c r="BO138" t="n">
-        <v>4.809999999999999</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BP138" t="n">
-        <v>2.600000000000001</v>
+        <v>6</v>
       </c>
       <c r="BQ138" t="n">
-        <v>6</v>
+        <v>19.00775417298954</v>
+      </c>
+      <c r="BR138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS138" t="n">
+        <v>8.076240705371553</v>
       </c>
     </row>
     <row r="139">
@@ -29534,25 +30366,31 @@
         <v>28.17186939820753</v>
       </c>
       <c r="BK139" t="n">
-        <v>18.74954476479517</v>
+        <v>31.00387173396682</v>
       </c>
       <c r="BL139" t="n">
-        <v>31.00387173396682</v>
+        <v>4.366666666666666</v>
       </c>
       <c r="BM139" t="n">
-        <v>4.366666666666666</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="BN139" t="n">
-        <v>3.899999999999999</v>
+        <v>7.390000000000001</v>
       </c>
       <c r="BO139" t="n">
-        <v>7.390000000000001</v>
+        <v>0</v>
       </c>
       <c r="BP139" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BQ139" t="n">
-        <v>7</v>
+        <v>18.35584218512901</v>
+      </c>
+      <c r="BR139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS139" t="n">
+        <v>9.816027213078513</v>
       </c>
     </row>
     <row r="140">
@@ -29743,25 +30581,31 @@
         <v>27.44263764404614</v>
       </c>
       <c r="BK140" t="n">
-        <v>18.71617021276607</v>
+        <v>30.00534441805238</v>
       </c>
       <c r="BL140" t="n">
-        <v>30.00534441805238</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="BM140" t="n">
-        <v>2.416666666666667</v>
+        <v>2.91</v>
       </c>
       <c r="BN140" t="n">
-        <v>2.91</v>
+        <v>4.289999999999999</v>
       </c>
       <c r="BO140" t="n">
-        <v>4.289999999999999</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="BP140" t="n">
-        <v>-0.9000000000000004</v>
+        <v>7.090000000000003</v>
       </c>
       <c r="BQ140" t="n">
-        <v>7.090000000000003</v>
+        <v>19.97753799392102</v>
+      </c>
+      <c r="BR140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS140" t="n">
+        <v>7.465099650125122</v>
       </c>
     </row>
     <row r="141">
@@ -29952,25 +30796,31 @@
         <v>26.85670934699111</v>
       </c>
       <c r="BK141" t="n">
-        <v>19.73770864946902</v>
+        <v>28.65954869358679</v>
       </c>
       <c r="BL141" t="n">
-        <v>28.65954869358679</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="BM141" t="n">
-        <v>0.08333333333333333</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="BN141" t="n">
-        <v>1.710000000000001</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BO141" t="n">
-        <v>3.890000000000001</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BP141" t="n">
-        <v>1.890000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="BQ141" t="n">
-        <v>4.600000000000001</v>
+        <v>19.49597875569058</v>
+      </c>
+      <c r="BR141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS141" t="n">
+        <v>7.360730591300531</v>
       </c>
     </row>
     <row r="142">
@@ -30161,25 +31011,31 @@
         <v>28.74363636363645</v>
       </c>
       <c r="BK142" t="n">
-        <v>19.93433990895308</v>
+        <v>31.71230403800491</v>
       </c>
       <c r="BL142" t="n">
-        <v>31.71230403800491</v>
+        <v>0</v>
       </c>
       <c r="BM142" t="n">
-        <v>0</v>
+        <v>3.309999999999999</v>
       </c>
       <c r="BN142" t="n">
-        <v>3.309999999999999</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="BO142" t="n">
-        <v>5.600000000000001</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BP142" t="n">
-        <v>1.390000000000001</v>
+        <v>7.090000000000003</v>
       </c>
       <c r="BQ142" t="n">
-        <v>7.090000000000003</v>
+        <v>19.46772382397583</v>
+      </c>
+      <c r="BR142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS142" t="n">
+        <v>9.27591253966062</v>
       </c>
     </row>
     <row r="143">
@@ -30370,234 +31226,31 @@
         <v>29.34935979513467</v>
       </c>
       <c r="BK143" t="n">
-        <v>20.62705614567537</v>
+        <v>33.09332541567704</v>
       </c>
       <c r="BL143" t="n">
-        <v>33.09332541567704</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="BM143" t="n">
-        <v>2.966666666666667</v>
+        <v>2.809999999999999</v>
       </c>
       <c r="BN143" t="n">
-        <v>2.809999999999999</v>
+        <v>7.700000000000003</v>
       </c>
       <c r="BO143" t="n">
-        <v>7.700000000000003</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BP143" t="n">
-        <v>0.3900000000000006</v>
+        <v>9</v>
       </c>
       <c r="BQ143" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>20180626</v>
-      </c>
-      <c r="B144" t="n">
-        <v>23.60937719298267</v>
-      </c>
-      <c r="C144" t="n">
-        <v>99.89999999999813</v>
-      </c>
-      <c r="D144" t="n">
-        <v>23.59585380678482</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.02141856740071279</v>
-      </c>
-      <c r="F144" t="n">
-        <v>7.145786776325614e-05</v>
-      </c>
-      <c r="G144" t="n">
-        <v>2935.903498862428</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.01854986158143941</v>
-      </c>
-      <c r="I144" t="n">
-        <v>70.94622287572901</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.8659558761877156</v>
-      </c>
-      <c r="K144" t="n">
-        <v>1.154927125880182</v>
-      </c>
-      <c r="L144" t="n">
-        <v>2932.967595363533</v>
-      </c>
-      <c r="M144" t="n">
-        <v>21.39714883331201</v>
-      </c>
-      <c r="N144" t="n">
-        <v>21.4185674007127</v>
-      </c>
-      <c r="O144" t="n">
-        <v>2.071358225201253</v>
-      </c>
-      <c r="P144" t="n">
-        <v>1.87665609776884e-12</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>2.06470581150066</v>
-      </c>
-      <c r="R144" t="n">
-        <v>0.002574637261299789</v>
-      </c>
-      <c r="S144" t="n">
-        <v>0.0001107260223719597</v>
-      </c>
-      <c r="T144" t="n">
-        <v>374.3263589348685</v>
-      </c>
-      <c r="U144" t="n">
-        <v>0.002439349201100257</v>
-      </c>
-      <c r="V144" t="n">
-        <v>8.362364589127946</v>
-      </c>
-      <c r="W144" t="n">
-        <v>0.009351975421084393</v>
-      </c>
-      <c r="X144" t="n">
-        <v>0.01240761199141216</v>
-      </c>
-      <c r="Y144" t="n">
-        <v>373.9520325759339</v>
-      </c>
-      <c r="Z144" t="n">
-        <v>2.572062624037914</v>
-      </c>
-      <c r="AA144" t="n">
-        <v>2.574637261299218</v>
-      </c>
-      <c r="AB144" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="AC144" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AD144" t="n">
-        <v>21.28398156574124</v>
-      </c>
-      <c r="AE144" t="n">
-        <v>0.01863568172495533</v>
-      </c>
-      <c r="AF144" t="n">
-        <v>9.082521383024825e-21</v>
-      </c>
-      <c r="AG144" t="n">
-        <v>2532.35898591685</v>
-      </c>
-      <c r="AH144" t="n">
-        <v>0.01592690727386717</v>
-      </c>
-      <c r="AI144" t="n">
-        <v>61.86440452093515</v>
-      </c>
-      <c r="AJ144" t="n">
-        <v>0.8556467097752071</v>
-      </c>
-      <c r="AK144" t="n">
-        <v>1.134475008036359</v>
-      </c>
-      <c r="AL144" t="n">
-        <v>2529.826626930933</v>
-      </c>
-      <c r="AM144" t="n">
-        <v>18.61704604322673</v>
-      </c>
-      <c r="AN144" t="n">
-        <v>18.63568172495168</v>
-      </c>
-      <c r="AO144" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP144" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AQ144" t="n">
-        <v>26.97571263511319</v>
-      </c>
-      <c r="AR144" t="n">
-        <v>0.02575250920338945</v>
-      </c>
-      <c r="AS144" t="n">
-        <v>0.0004459095800882708</v>
-      </c>
-      <c r="AT144" t="n">
-        <v>3567.311847200721</v>
-      </c>
-      <c r="AU144" t="n">
-        <v>0.02267337725527437</v>
-      </c>
-      <c r="AV144" t="n">
-        <v>84.97707139699666</v>
-      </c>
-      <c r="AW144" t="n">
-        <v>0.8814649885772983</v>
-      </c>
-      <c r="AX144" t="n">
-        <v>1.168706650274758</v>
-      </c>
-      <c r="AY144" t="n">
-        <v>3563.74453535352</v>
-      </c>
-      <c r="AZ144" t="n">
-        <v>25.72675669418176</v>
-      </c>
-      <c r="BA144" t="n">
-        <v>25.75250920338515</v>
-      </c>
-      <c r="BB144" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC144" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD144" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE144" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF144" t="n">
-        <v>12</v>
-      </c>
-      <c r="BG144" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH144" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI144" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ144" t="n">
-        <v>24.56338461538481</v>
-      </c>
-      <c r="BK144" t="n">
-        <v>21.54236111111119</v>
-      </c>
-      <c r="BL144" t="n">
-        <v>26.02990476190476</v>
-      </c>
-      <c r="BM144" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN144" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="BO144" t="n">
-        <v>0.5899999999999999</v>
-      </c>
-      <c r="BP144" t="n">
-        <v>5.289999999999999</v>
-      </c>
-      <c r="BQ144" t="n">
-        <v>1</v>
+        <v>22.90144157814863</v>
+      </c>
+      <c r="BR143" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="BS143" t="n">
+        <v>6.447918216986039</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/2nd_data/kim/kim_env_detail_data.xlsx
+++ b/dataset/2nd_data/kim/kim_env_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS143"/>
+  <dimension ref="A1:BT143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,11 @@
           <t>주야간온도차이</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>주야간온도차8도이상인날수</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -937,6 +942,9 @@
       <c r="BS2" t="n">
         <v>10.76182164028455</v>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1152,6 +1160,9 @@
       <c r="BS3" t="n">
         <v>13.48899413367568</v>
       </c>
+      <c r="BT3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1367,6 +1378,9 @@
       <c r="BS4" t="n">
         <v>13.48121989063408</v>
       </c>
+      <c r="BT4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1582,6 +1596,9 @@
       <c r="BS5" t="n">
         <v>14.84005694834225</v>
       </c>
+      <c r="BT5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1797,6 +1814,9 @@
       <c r="BS6" t="n">
         <v>12.68086058016509</v>
       </c>
+      <c r="BT6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2012,6 +2032,9 @@
       <c r="BS7" t="n">
         <v>11.45915747189918</v>
       </c>
+      <c r="BT7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2227,6 +2250,9 @@
       <c r="BS8" t="n">
         <v>5.069621230857404</v>
       </c>
+      <c r="BT8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2442,6 +2468,9 @@
       <c r="BS9" t="n">
         <v>4.62964202203651</v>
       </c>
+      <c r="BT9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2657,6 +2686,9 @@
       <c r="BS10" t="n">
         <v>0.5414730321174268</v>
       </c>
+      <c r="BT10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2872,6 +2904,9 @@
       <c r="BS11" t="n">
         <v>7.294301871174723</v>
       </c>
+      <c r="BT11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3087,6 +3122,9 @@
       <c r="BS12" t="n">
         <v>6.736547224535876</v>
       </c>
+      <c r="BT12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3302,6 +3340,9 @@
       <c r="BS13" t="n">
         <v>8.463861572361656</v>
       </c>
+      <c r="BT13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3517,6 +3558,9 @@
       <c r="BS14" t="n">
         <v>8.191516832730272</v>
       </c>
+      <c r="BT14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3732,6 +3776,9 @@
       <c r="BS15" t="n">
         <v>7.529206320413994</v>
       </c>
+      <c r="BT15" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3947,6 +3994,9 @@
       <c r="BS16" t="n">
         <v>6.574779962137775</v>
       </c>
+      <c r="BT16" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4162,6 +4212,9 @@
       <c r="BS17" t="n">
         <v>7.577607538641058</v>
       </c>
+      <c r="BT17" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4377,6 +4430,9 @@
       <c r="BS18" t="n">
         <v>6.333646388382181</v>
       </c>
+      <c r="BT18" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4592,6 +4648,9 @@
       <c r="BS19" t="n">
         <v>6.904287086040968</v>
       </c>
+      <c r="BT19" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4807,6 +4866,9 @@
       <c r="BS20" t="n">
         <v>6.821043953317211</v>
       </c>
+      <c r="BT20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -5022,6 +5084,9 @@
       <c r="BS21" t="n">
         <v>4.976243159657347</v>
       </c>
+      <c r="BT21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5237,6 +5302,9 @@
       <c r="BS22" t="n">
         <v>7.093491936132702</v>
       </c>
+      <c r="BT22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5452,6 +5520,9 @@
       <c r="BS23" t="n">
         <v>7.178400363077875</v>
       </c>
+      <c r="BT23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -5667,6 +5738,9 @@
       <c r="BS24" t="n">
         <v>9.419846676741976</v>
       </c>
+      <c r="BT24" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -5882,6 +5956,9 @@
       <c r="BS25" t="n">
         <v>6.2047393673736</v>
       </c>
+      <c r="BT25" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -6097,6 +6174,9 @@
       <c r="BS26" t="n">
         <v>1.015308560484252</v>
       </c>
+      <c r="BT26" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -6312,6 +6392,9 @@
       <c r="BS27" t="n">
         <v>6.71197792071016</v>
       </c>
+      <c r="BT27" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -6527,6 +6610,9 @@
       <c r="BS28" t="n">
         <v>8.110927863017929</v>
       </c>
+      <c r="BT28" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -6742,6 +6828,9 @@
       <c r="BS29" t="n">
         <v>3.68537920009703</v>
       </c>
+      <c r="BT29" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -6957,6 +7046,9 @@
       <c r="BS30" t="n">
         <v>3.486911543872896</v>
       </c>
+      <c r="BT30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -7172,6 +7264,9 @@
       <c r="BS31" t="n">
         <v>5.34815886253199</v>
       </c>
+      <c r="BT31" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -7387,6 +7482,9 @@
       <c r="BS32" t="n">
         <v>5.888378711741435</v>
       </c>
+      <c r="BT32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -7602,6 +7700,9 @@
       <c r="BS33" t="n">
         <v>4.206210857611845</v>
       </c>
+      <c r="BT33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -7817,6 +7918,9 @@
       <c r="BS34" t="n">
         <v>5.137112195655499</v>
       </c>
+      <c r="BT34" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -8032,6 +8136,9 @@
       <c r="BS35" t="n">
         <v>5.306674533467833</v>
       </c>
+      <c r="BT35" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -8247,6 +8354,9 @@
       <c r="BS36" t="n">
         <v>5.130402621273976</v>
       </c>
+      <c r="BT36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -8462,6 +8572,9 @@
       <c r="BS37" t="n">
         <v>7.097660221310583</v>
       </c>
+      <c r="BT37" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -8677,6 +8790,9 @@
       <c r="BS38" t="n">
         <v>5.905310385401641</v>
       </c>
+      <c r="BT38" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -8892,6 +9008,9 @@
       <c r="BS39" t="n">
         <v>5.018490506302314</v>
       </c>
+      <c r="BT39" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -9107,6 +9226,9 @@
       <c r="BS40" t="n">
         <v>4.528340669659332</v>
       </c>
+      <c r="BT40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -9322,6 +9444,9 @@
       <c r="BS41" t="n">
         <v>2.184216922265311</v>
       </c>
+      <c r="BT41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -9537,6 +9662,9 @@
       <c r="BS42" t="n">
         <v>4.94909930267227</v>
       </c>
+      <c r="BT42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -9752,6 +9880,9 @@
       <c r="BS43" t="n">
         <v>5.274478144772818</v>
       </c>
+      <c r="BT43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -9967,6 +10098,9 @@
       <c r="BS44" t="n">
         <v>1.259734754939139</v>
       </c>
+      <c r="BT44" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -10182,6 +10316,9 @@
       <c r="BS45" t="n">
         <v>2.414786327209191</v>
       </c>
+      <c r="BT45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -10397,6 +10534,9 @@
       <c r="BS46" t="n">
         <v>3.354485397694573</v>
       </c>
+      <c r="BT46" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -10612,6 +10752,9 @@
       <c r="BS47" t="n">
         <v>1.790263791940315</v>
       </c>
+      <c r="BT47" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -10827,6 +10970,9 @@
       <c r="BS48" t="n">
         <v>6.568965061029759</v>
       </c>
+      <c r="BT48" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -11042,6 +11188,9 @@
       <c r="BS49" t="n">
         <v>4.740492101474798</v>
       </c>
+      <c r="BT49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -11257,6 +11406,9 @@
       <c r="BS50" t="n">
         <v>3.980949682582128</v>
       </c>
+      <c r="BT50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -11472,6 +11624,9 @@
       <c r="BS51" t="n">
         <v>5.148679656410774</v>
       </c>
+      <c r="BT51" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -11687,6 +11842,9 @@
       <c r="BS52" t="n">
         <v>5.364303347924167</v>
       </c>
+      <c r="BT52" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -11902,6 +12060,9 @@
       <c r="BS53" t="n">
         <v>4.978741974043775</v>
       </c>
+      <c r="BT53" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -12117,6 +12278,9 @@
       <c r="BS54" t="n">
         <v>3.602819142813896</v>
       </c>
+      <c r="BT54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -12332,6 +12496,9 @@
       <c r="BS55" t="n">
         <v>4.057231033968378</v>
       </c>
+      <c r="BT55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -12547,6 +12714,9 @@
       <c r="BS56" t="n">
         <v>5.254046967742035</v>
       </c>
+      <c r="BT56" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -12762,6 +12932,9 @@
       <c r="BS57" t="n">
         <v>4.64897682333741</v>
       </c>
+      <c r="BT57" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -12977,6 +13150,9 @@
       <c r="BS58" t="n">
         <v>2.941222525213202</v>
       </c>
+      <c r="BT58" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -13192,6 +13368,9 @@
       <c r="BS59" t="n">
         <v>4.623969446639428</v>
       </c>
+      <c r="BT59" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -13407,6 +13586,9 @@
       <c r="BS60" t="n">
         <v>3.849319643740845</v>
       </c>
+      <c r="BT60" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -13622,6 +13804,9 @@
       <c r="BS61" t="n">
         <v>2.001424363535378</v>
       </c>
+      <c r="BT61" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -13837,6 +14022,9 @@
       <c r="BS62" t="n">
         <v>0.4820099906934008</v>
       </c>
+      <c r="BT62" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -14052,6 +14240,9 @@
       <c r="BS63" t="n">
         <v>3.921154543525128</v>
       </c>
+      <c r="BT63" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -14267,6 +14458,9 @@
       <c r="BS64" t="n">
         <v>5.447425082409454</v>
       </c>
+      <c r="BT64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -14482,6 +14676,9 @@
       <c r="BS65" t="n">
         <v>1.976647446176376</v>
       </c>
+      <c r="BT65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -14697,6 +14894,9 @@
       <c r="BS66" t="n">
         <v>5.362059318434753</v>
       </c>
+      <c r="BT66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -14912,6 +15112,9 @@
       <c r="BS67" t="n">
         <v>2.444765966920716</v>
       </c>
+      <c r="BT67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -15127,6 +15330,9 @@
       <c r="BS68" t="n">
         <v>5.782271254036868</v>
       </c>
+      <c r="BT68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -15342,6 +15548,9 @@
       <c r="BS69" t="n">
         <v>8.858825337535563</v>
       </c>
+      <c r="BT69" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -15557,6 +15766,9 @@
       <c r="BS70" t="n">
         <v>2.534787488900996</v>
       </c>
+      <c r="BT70" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -15772,6 +15984,9 @@
       <c r="BS71" t="n">
         <v>0.9027891365298188</v>
       </c>
+      <c r="BT71" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -15987,6 +16202,9 @@
       <c r="BS72" t="n">
         <v>4.883803756527243</v>
       </c>
+      <c r="BT72" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -16202,6 +16420,9 @@
       <c r="BS73" t="n">
         <v>2.899342457063593</v>
       </c>
+      <c r="BT73" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -16417,6 +16638,9 @@
       <c r="BS74" t="n">
         <v>5.513304333565451</v>
       </c>
+      <c r="BT74" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -16632,6 +16856,9 @@
       <c r="BS75" t="n">
         <v>4.843640438863819</v>
       </c>
+      <c r="BT75" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -16847,6 +17074,9 @@
       <c r="BS76" t="n">
         <v>4.005946529334846</v>
       </c>
+      <c r="BT76" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -17062,6 +17292,9 @@
       <c r="BS77" t="n">
         <v>8.197711530491773</v>
       </c>
+      <c r="BT77" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -17277,6 +17510,9 @@
       <c r="BS78" t="n">
         <v>7.800987314423264</v>
       </c>
+      <c r="BT78" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -17492,6 +17728,9 @@
       <c r="BS79" t="n">
         <v>2.24522881044382</v>
       </c>
+      <c r="BT79" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -17707,6 +17946,9 @@
       <c r="BS80" t="n">
         <v>2.903921965059267</v>
       </c>
+      <c r="BT80" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -17922,6 +18164,9 @@
       <c r="BS81" t="n">
         <v>2.991488947730709</v>
       </c>
+      <c r="BT81" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -18137,6 +18382,9 @@
       <c r="BS82" t="n">
         <v>7.254779515953688</v>
       </c>
+      <c r="BT82" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -18352,6 +18600,9 @@
       <c r="BS83" t="n">
         <v>6.833600308064666</v>
       </c>
+      <c r="BT83" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -18567,6 +18818,9 @@
       <c r="BS84" t="n">
         <v>6.270332508130856</v>
       </c>
+      <c r="BT84" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -18782,6 +19036,9 @@
       <c r="BS85" t="n">
         <v>7.003319142125548</v>
       </c>
+      <c r="BT85" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -18997,6 +19254,9 @@
       <c r="BS86" t="n">
         <v>6.388000287557897</v>
       </c>
+      <c r="BT86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -19212,6 +19472,9 @@
       <c r="BS87" t="n">
         <v>5.822940182132943</v>
       </c>
+      <c r="BT87" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -19427,6 +19690,9 @@
       <c r="BS88" t="n">
         <v>4.31452384884577</v>
       </c>
+      <c r="BT88" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -19642,6 +19908,9 @@
       <c r="BS89" t="n">
         <v>6.097533077251537</v>
       </c>
+      <c r="BT89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -19857,6 +20126,9 @@
       <c r="BS90" t="n">
         <v>3.861839155401032</v>
       </c>
+      <c r="BT90" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -20072,6 +20344,9 @@
       <c r="BS91" t="n">
         <v>6.65968311859813</v>
       </c>
+      <c r="BT91" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -20287,6 +20562,9 @@
       <c r="BS92" t="n">
         <v>4.267524184977411</v>
       </c>
+      <c r="BT92" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -20502,6 +20780,9 @@
       <c r="BS93" t="n">
         <v>1.724821820979713</v>
       </c>
+      <c r="BT93" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -20717,6 +20998,9 @@
       <c r="BS94" t="n">
         <v>4.778438619022811</v>
       </c>
+      <c r="BT94" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -20932,6 +21216,9 @@
       <c r="BS95" t="n">
         <v>6.481744077376494</v>
       </c>
+      <c r="BT95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -21147,6 +21434,9 @@
       <c r="BS96" t="n">
         <v>5.563889575698791</v>
       </c>
+      <c r="BT96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -21362,6 +21652,9 @@
       <c r="BS97" t="n">
         <v>4.52771117855335</v>
       </c>
+      <c r="BT97" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -21577,6 +21870,9 @@
       <c r="BS98" t="n">
         <v>5.451737490746918</v>
       </c>
+      <c r="BT98" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -21792,6 +22088,9 @@
       <c r="BS99" t="n">
         <v>0.6243289700959274</v>
       </c>
+      <c r="BT99" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -22007,6 +22306,9 @@
       <c r="BS100" t="n">
         <v>5.243060826325127</v>
       </c>
+      <c r="BT100" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -22222,6 +22524,9 @@
       <c r="BS101" t="n">
         <v>6.635625739538671</v>
       </c>
+      <c r="BT101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -22437,6 +22742,9 @@
       <c r="BS102" t="n">
         <v>2.754968573530114</v>
       </c>
+      <c r="BT102" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -22652,6 +22960,9 @@
       <c r="BS103" t="n">
         <v>1.271533752105796</v>
       </c>
+      <c r="BT103" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -22867,6 +23178,9 @@
       <c r="BS104" t="n">
         <v>3.297109460459794</v>
       </c>
+      <c r="BT104" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -23082,6 +23396,9 @@
       <c r="BS105" t="n">
         <v>3.426271458538466</v>
       </c>
+      <c r="BT105" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -23297,6 +23614,9 @@
       <c r="BS106" t="n">
         <v>7.882729293404365</v>
       </c>
+      <c r="BT106" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -23512,6 +23832,9 @@
       <c r="BS107" t="n">
         <v>7.019132468975954</v>
       </c>
+      <c r="BT107" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -23727,6 +24050,9 @@
       <c r="BS108" t="n">
         <v>7.64320986478954</v>
       </c>
+      <c r="BT108" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -23942,6 +24268,9 @@
       <c r="BS109" t="n">
         <v>3.200293173026164</v>
       </c>
+      <c r="BT109" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -24157,6 +24486,9 @@
       <c r="BS110" t="n">
         <v>11.05234833750753</v>
       </c>
+      <c r="BT110" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -24372,6 +24704,9 @@
       <c r="BS111" t="n">
         <v>8.438353478575998</v>
       </c>
+      <c r="BT111" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -24587,6 +24922,9 @@
       <c r="BS112" t="n">
         <v>8.601229368507211</v>
       </c>
+      <c r="BT112" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -24802,6 +25140,9 @@
       <c r="BS113" t="n">
         <v>9.269262948888052</v>
       </c>
+      <c r="BT113" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -25017,6 +25358,9 @@
       <c r="BS114" t="n">
         <v>5.806609828650604</v>
       </c>
+      <c r="BT114" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -25232,6 +25576,9 @@
       <c r="BS115" t="n">
         <v>7.602919081602252</v>
       </c>
+      <c r="BT115" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -25447,6 +25794,9 @@
       <c r="BS116" t="n">
         <v>4.752574225876621</v>
       </c>
+      <c r="BT116" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -25662,6 +26012,9 @@
       <c r="BS117" t="n">
         <v>9.119159884122116</v>
       </c>
+      <c r="BT117" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -25877,6 +26230,9 @@
       <c r="BS118" t="n">
         <v>8.26374619908735</v>
       </c>
+      <c r="BT118" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -26092,6 +26448,9 @@
       <c r="BS119" t="n">
         <v>12.21520225227783</v>
       </c>
+      <c r="BT119" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -26307,6 +26666,9 @@
       <c r="BS120" t="n">
         <v>11.55519123570245</v>
       </c>
+      <c r="BT120" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -26522,6 +26884,9 @@
       <c r="BS121" t="n">
         <v>9.745460141175379</v>
       </c>
+      <c r="BT121" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -26737,6 +27102,9 @@
       <c r="BS122" t="n">
         <v>5.917210027997893</v>
       </c>
+      <c r="BT122" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -26952,6 +27320,9 @@
       <c r="BS123" t="n">
         <v>8.144622492854786</v>
       </c>
+      <c r="BT123" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -27167,6 +27538,9 @@
       <c r="BS124" t="n">
         <v>7.104206608993817</v>
       </c>
+      <c r="BT124" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -27382,6 +27756,9 @@
       <c r="BS125" t="n">
         <v>6.577240571307435</v>
       </c>
+      <c r="BT125" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -27597,6 +27974,9 @@
       <c r="BS126" t="n">
         <v>7.025962221112589</v>
       </c>
+      <c r="BT126" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -27812,6 +28192,9 @@
       <c r="BS127" t="n">
         <v>6.322611375245458</v>
       </c>
+      <c r="BT127" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -28027,6 +28410,9 @@
       <c r="BS128" t="n">
         <v>3.98546051033755</v>
       </c>
+      <c r="BT128" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -28242,6 +28628,9 @@
       <c r="BS129" t="n">
         <v>4.052950635250227</v>
       </c>
+      <c r="BT129" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -28457,6 +28846,9 @@
       <c r="BS130" t="n">
         <v>6.974571606768595</v>
       </c>
+      <c r="BT130" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -28672,6 +29064,9 @@
       <c r="BS131" t="n">
         <v>5.118081603394057</v>
       </c>
+      <c r="BT131" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -28887,6 +29282,9 @@
       <c r="BS132" t="n">
         <v>5.264304122607985</v>
       </c>
+      <c r="BT132" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -29102,6 +29500,9 @@
       <c r="BS133" t="n">
         <v>7.921836367910796</v>
       </c>
+      <c r="BT133" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -29317,6 +29718,9 @@
       <c r="BS134" t="n">
         <v>7.933000783012343</v>
       </c>
+      <c r="BT134" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -29532,6 +29936,9 @@
       <c r="BS135" t="n">
         <v>5.493007989912325</v>
       </c>
+      <c r="BT135" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -29747,6 +30154,9 @@
       <c r="BS136" t="n">
         <v>9.012704481822652</v>
       </c>
+      <c r="BT136" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -29962,6 +30372,9 @@
       <c r="BS137" t="n">
         <v>3.154861898664677</v>
       </c>
+      <c r="BT137" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -30177,6 +30590,9 @@
       <c r="BS138" t="n">
         <v>8.076240705371553</v>
       </c>
+      <c r="BT138" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -30392,6 +30808,9 @@
       <c r="BS139" t="n">
         <v>9.816027213078513</v>
       </c>
+      <c r="BT139" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -30607,6 +31026,9 @@
       <c r="BS140" t="n">
         <v>7.465099650125122</v>
       </c>
+      <c r="BT140" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -30822,6 +31244,9 @@
       <c r="BS141" t="n">
         <v>7.360730591300531</v>
       </c>
+      <c r="BT141" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -31037,6 +31462,9 @@
       <c r="BS142" t="n">
         <v>9.27591253966062</v>
       </c>
+      <c r="BT142" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -31251,6 +31679,9 @@
       </c>
       <c r="BS143" t="n">
         <v>6.447918216986039</v>
+      </c>
+      <c r="BT143" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
